--- a/xls/selectivity_scn.xlsx
+++ b/xls/selectivity_scn.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27526"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="0" windowWidth="25600" windowHeight="16620" tabRatio="500"/>
+    <workbookView xWindow="-36020" yWindow="400" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -316,37 +316,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>0.0415481561997862</c:v>
+                  <c:v>0.0779352897004136</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0963228890285261</c:v>
+                  <c:v>0.165278460933939</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.207785014849124</c:v>
+                  <c:v>0.326140960149935</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.392628388461857</c:v>
+                  <c:v>0.563737831902844</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.615209947806279</c:v>
+                  <c:v>0.808022016566819</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.799354048973471</c:v>
+                  <c:v>0.960380616118389</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.909782877763076</c:v>
+                  <c:v>0.999876422111077</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.963481363205534</c:v>
+                  <c:v>0.96862628154551</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.986674491260958</c:v>
+                  <c:v>0.907384156934271</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.995907214052171</c:v>
+                  <c:v>0.837800338830846</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.999181829803003</c:v>
+                  <c:v>0.768901207283371</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -405,37 +405,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>0.143234754423519</c:v>
+                  <c:v>0.235064663905296</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.291607482326815</c:v>
+                  <c:v>0.437765937224773</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.503969300008427</c:v>
+                  <c:v>0.692072744230843</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.715948802390102</c:v>
+                  <c:v>0.899360879923221</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.863405906062069</c:v>
+                  <c:v>0.992136443668782</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.941918706780358</c:v>
+                  <c:v>0.990088853980826</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.977604743980559</c:v>
+                  <c:v>0.940001207056023</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.992388624608872</c:v>
+                  <c:v>0.87287338200443</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.99800284029573</c:v>
+                  <c:v>0.802981632892002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.999772660127269</c:v>
+                  <c:v>0.735833324306859</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.99996094862293</c:v>
+                  <c:v>0.673233312648593</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -450,11 +450,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2125297928"/>
-        <c:axId val="2125294760"/>
+        <c:axId val="2071122984"/>
+        <c:axId val="2071118200"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2125297928"/>
+        <c:axId val="2071122984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -464,12 +464,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2125294760"/>
+        <c:crossAx val="2071118200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2125294760"/>
+        <c:axId val="2071118200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -480,7 +480,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2125297928"/>
+        <c:crossAx val="2071122984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -862,7 +862,7 @@
   <dimension ref="D1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -903,10 +903,10 @@
         <v>1E-3</v>
       </c>
       <c r="N3">
-        <v>1E-3</v>
+        <v>0.1</v>
       </c>
       <c r="O3">
-        <v>1E-3</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="4" spans="4:15">
@@ -933,12 +933,12 @@
         <v>1.1124109603910968E-2</v>
       </c>
       <c r="N5">
-        <f t="shared" ref="N5:O22" si="0">(1/(1-N$3))*((1-N$3)/N$3)^N$3*((EXP(N$2*N$3*(N$1-$L5)))/(1+EXP(N$2*(N$1-$L5))))</f>
-        <v>4.1548156199786183E-2</v>
+        <f t="shared" ref="N5:O15" si="0">(1/(1-N$3))*((1-N$3)/N$3)^N$3*((EXP(N$2*N$3*(N$1-$L5)))/(1+EXP(N$2*(N$1-$L5))))</f>
+        <v>7.7935289700413621E-2</v>
       </c>
       <c r="O5">
         <f t="shared" si="0"/>
-        <v>0.14323475442351938</v>
+        <v>0.23506466390529571</v>
       </c>
     </row>
     <row r="6" spans="4:15">
@@ -954,16 +954,16 @@
         <v>2</v>
       </c>
       <c r="M6">
-        <f t="shared" ref="M6:M22" si="2">(1/(1-M$3))*((1-M$3)/M$3)^M$3*((EXP(M$2*M$3*(M$1-$L6)))/(1+EXP(M$2*(M$1-$L6))))</f>
+        <f t="shared" ref="M6:M15" si="2">(1/(1-M$3))*((1-M$3)/M$3)^M$3*((EXP(M$2*M$3*(M$1-$L6)))/(1+EXP(M$2*(M$1-$L6))))</f>
         <v>2.6904819687189479E-2</v>
       </c>
       <c r="N6">
         <f t="shared" si="0"/>
-        <v>9.6322889028526135E-2</v>
+        <v>0.16527846093393886</v>
       </c>
       <c r="O6">
         <f t="shared" si="0"/>
-        <v>0.2916074823268151</v>
+        <v>0.4377659372247733</v>
       </c>
     </row>
     <row r="7" spans="4:15">
@@ -975,7 +975,7 @@
         <v>5.9343034025940078</v>
       </c>
       <c r="L7">
-        <f t="shared" ref="L7:L22" si="3">L6+1</f>
+        <f t="shared" ref="L7:L15" si="3">L6+1</f>
         <v>3</v>
       </c>
       <c r="M7">
@@ -984,11 +984,11 @@
       </c>
       <c r="N7">
         <f t="shared" si="0"/>
-        <v>0.20778501484912382</v>
+        <v>0.32614096014993477</v>
       </c>
       <c r="O7">
         <f t="shared" si="0"/>
-        <v>0.50396930000842732</v>
+        <v>0.69207274423084297</v>
       </c>
     </row>
     <row r="8" spans="4:15">
@@ -1009,11 +1009,11 @@
       </c>
       <c r="N8">
         <f t="shared" si="0"/>
-        <v>0.39262838846185716</v>
+        <v>0.5637378319028441</v>
       </c>
       <c r="O8">
         <f t="shared" si="0"/>
-        <v>0.71594880239010217</v>
+        <v>0.89936087992322156</v>
       </c>
     </row>
     <row r="9" spans="4:15">
@@ -1034,11 +1034,11 @@
       </c>
       <c r="N9">
         <f t="shared" si="0"/>
-        <v>0.6152099478062788</v>
+        <v>0.80802201656681905</v>
       </c>
       <c r="O9">
         <f t="shared" si="0"/>
-        <v>0.86340590606206924</v>
+        <v>0.9921364436687824</v>
       </c>
     </row>
     <row r="10" spans="4:15">
@@ -1059,11 +1059,11 @@
       </c>
       <c r="N10">
         <f t="shared" si="0"/>
-        <v>0.7993540489734714</v>
+        <v>0.96038061611838876</v>
       </c>
       <c r="O10">
         <f t="shared" si="0"/>
-        <v>0.94191870678035838</v>
+        <v>0.99008885398082591</v>
       </c>
     </row>
     <row r="11" spans="4:15">
@@ -1084,11 +1084,11 @@
       </c>
       <c r="N11">
         <f t="shared" si="0"/>
-        <v>0.90978287776307598</v>
+        <v>0.99987642211107752</v>
       </c>
       <c r="O11">
         <f t="shared" si="0"/>
-        <v>0.97760474398055908</v>
+        <v>0.94000120705602286</v>
       </c>
     </row>
     <row r="12" spans="4:15">
@@ -1109,11 +1109,11 @@
       </c>
       <c r="N12">
         <f t="shared" si="0"/>
-        <v>0.96348136320553379</v>
+        <v>0.96862628154551011</v>
       </c>
       <c r="O12">
         <f t="shared" si="0"/>
-        <v>0.99238862460887156</v>
+        <v>0.8728733820044301</v>
       </c>
     </row>
     <row r="13" spans="4:15" ht="19">
@@ -1137,11 +1137,11 @@
       </c>
       <c r="N13">
         <f t="shared" si="0"/>
-        <v>0.98667449126095841</v>
+        <v>0.90738415693427077</v>
       </c>
       <c r="O13">
         <f t="shared" si="0"/>
-        <v>0.99800284029573039</v>
+        <v>0.80298163289200175</v>
       </c>
     </row>
     <row r="14" spans="4:15">
@@ -1162,11 +1162,11 @@
       </c>
       <c r="N14">
         <f t="shared" si="0"/>
-        <v>0.99590721405217142</v>
+        <v>0.8378003388308457</v>
       </c>
       <c r="O14">
         <f t="shared" si="0"/>
-        <v>0.99977266012726917</v>
+        <v>0.7358333243068591</v>
       </c>
     </row>
     <row r="15" spans="4:15">
@@ -1180,11 +1180,11 @@
       </c>
       <c r="N15">
         <f t="shared" si="0"/>
-        <v>0.99918182980300352</v>
+        <v>0.76890120728337141</v>
       </c>
       <c r="O15">
         <f t="shared" si="0"/>
-        <v>0.99996094862292961</v>
+        <v>0.67323331264859265</v>
       </c>
     </row>
   </sheetData>

--- a/xls/selectivity_scn.xlsx
+++ b/xls/selectivity_scn.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-36020" yWindow="400" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="-36020" yWindow="20" windowWidth="25600" windowHeight="16800" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -862,7 +862,7 @@
   <dimension ref="D1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+      <selection activeCell="O34" sqref="O34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/xls/selectivity_scn.xlsx
+++ b/xls/selectivity_scn.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-36020" yWindow="20" windowWidth="25600" windowHeight="16800" tabRatio="500"/>
+    <workbookView xWindow="-36020" yWindow="3600" windowWidth="31640" windowHeight="16560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>S(l)=(1/(1-g))*((1-g)/g)^g*((exp(a*g*(b-l)))/(1+exp(a*(b-l))))</t>
   </si>
@@ -37,6 +37,51 @@
   </si>
   <si>
     <t>sage</t>
+  </si>
+  <si>
+    <t>31-32</t>
+  </si>
+  <si>
+    <t>33-34</t>
+  </si>
+  <si>
+    <t>35-36</t>
+  </si>
+  <si>
+    <t>37-38</t>
+  </si>
+  <si>
+    <t>39-40</t>
+  </si>
+  <si>
+    <t>41-42</t>
+  </si>
+  <si>
+    <t>43-44</t>
+  </si>
+  <si>
+    <t>45-46</t>
+  </si>
+  <si>
+    <t>47-48</t>
+  </si>
+  <si>
+    <t>49-50</t>
+  </si>
+  <si>
+    <t>21-22</t>
+  </si>
+  <si>
+    <t>23-24</t>
+  </si>
+  <si>
+    <t>25-26</t>
+  </si>
+  <si>
+    <t>27-28</t>
+  </si>
+  <si>
+    <t>29-30</t>
   </si>
 </sst>
 </file>
@@ -92,8 +137,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="25">
+  <cellStyleXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -123,7 +190,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="25">
+  <cellStyles count="47">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -136,6 +203,17 @@
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -148,6 +226,17 @@
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -162,10 +251,3058 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="118"/>
+      <c14:style val="109"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="18"/>
+      <c:style val="9"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="14"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>21-22</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$6:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$M$6:$M$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.011124109603911</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0269048196871895</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0636448857570335</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.143234754423519</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.291607482326815</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.503969300008427</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.715948802390102</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.863405906062069</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.941918706780358</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.977604743980559</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.992388624608872</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.99800284029573</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="15"/>
+          <c:order val="15"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>23-24</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$6:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$N$6:$N$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.0269048196871895</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0636448857570335</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.143234754423519</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.291607482326815</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.503969300008427</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.715948802390102</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.863405906062069</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.941918706780358</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.977604743980559</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.992388624608872</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99800284029573</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.999772660127269</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="16"/>
+          <c:order val="16"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>25-26</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$6:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$O$6:$O$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.0636448857570335</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.143234754423519</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.291607482326815</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.503969300008427</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.715948802390102</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.863405906062069</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.941918706780358</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.977604743980559</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.992388624608872</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.99800284029573</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.999772660127269</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.99996094862293</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="17"/>
+          <c:order val="17"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>27-28</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$6:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$P$6:$P$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.143234754423519</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.291607482326815</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.503969300008427</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.715948802390102</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.863405906062069</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.941918706780358</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.977604743980559</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.992388624608872</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.99800284029573</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.999772660127269</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99996094862293</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.999503885138533</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="18"/>
+          <c:order val="18"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>29-30</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$6:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$Q$6:$Q$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.189292400436503</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.368749166604514</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.609795308957086</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.828914196690581</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.956511595644824</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.998472848853159</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.991593682693956</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.963163112963562</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.926824391816066</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.888412268424208</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.850244720974731</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.813191825343553</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="19"/>
+          <c:order val="19"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>31-32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$6:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$6:$R$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.235064663905296</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.437765937224773</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.692072744230843</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.899360879923221</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.992136443668782</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.990088853980826</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.940001207056023</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.87287338200443</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.802981632892002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.735833324306859</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.673233312648593</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.615561438379833</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="20"/>
+          <c:order val="20"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$S$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>33-34</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$6:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$S$6:$S$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.114182116923775</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.235064663905296</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.437765937224773</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.692072744230843</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.899360879923221</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.992136443668782</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.990088853980826</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.940001207056023</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.87287338200443</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.802981632892002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.735833324306859</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.673233312648593</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="21"/>
+          <c:order val="21"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$T$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>35-36</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$6:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$T$6:$T$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.0527667448218893</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.114182116923775</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.235064663905296</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.437765937224773</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.692072744230843</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.899360879923221</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.992136443668782</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.990088853980826</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.940001207056023</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.87287338200443</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.802981632892002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.735833324306859</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="22"/>
+          <c:order val="22"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$U$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>37-38</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$6:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$U$6:$U$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.0238501500215186</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0527667448218893</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.114182116923775</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.235064663905296</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.437765937224773</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.692072744230843</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.899360879923221</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.992136443668782</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.990088853980826</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.940001207056023</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.87287338200443</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.802981632892002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="23"/>
+          <c:order val="23"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$V$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>39-40</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$6:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$V$6:$V$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.0194014243030094</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.04409900116584</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0980375593703959</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.207351747695276</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.39672381209717</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.644353214418538</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.860264888040423</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.97497966598245</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.999595466990652</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.974999670350385</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.930150574452668</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.879090468187905</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="24"/>
+          <c:order val="24"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$W$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>41-42</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$6:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$W$6:$W$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.0143887939010954</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0339042492844078</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.078136233411344</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.171317718698994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.339795366244231</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.57212086219422</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.791827505834357</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.930311835222866</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.988762227258139</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.999785098266245</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.988758091203199</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.968734940602928</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="25"/>
+          <c:order val="25"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$X$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>43-44</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$6:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$X$6:$X$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.011124109603911</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0269048196871895</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0636448857570335</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.143234754423519</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.291607482326815</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.503969300008427</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.715948802390102</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.863405906062069</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.941918706780358</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.977604743980559</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.992388624608872</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.99800284029573</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="26"/>
+          <c:order val="26"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Y$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>45-46</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$6:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$Y$6:$Y$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.0269048196871895</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0636448857570335</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.143234754423519</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.291607482326815</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.503969300008427</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.715948802390102</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.863405906062069</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.941918706780358</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.977604743980559</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.992388624608872</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99800284029573</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.999772660127269</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="27"/>
+          <c:order val="27"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Z$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>47-48</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$6:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$Z$6:$Z$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.0636448857570335</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.143234754423519</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.291607482326815</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.503969300008427</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.715948802390102</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.863405906062069</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.941918706780358</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.977604743980559</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.992388624608872</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.99800284029573</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.999772660127269</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.99996094862293</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>21-22</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$6:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$M$6:$M$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.011124109603911</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0269048196871895</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0636448857570335</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.143234754423519</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.291607482326815</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.503969300008427</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.715948802390102</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.863405906062069</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.941918706780358</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.977604743980559</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.992388624608872</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.99800284029573</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>23-24</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$6:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$N$6:$N$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.0269048196871895</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0636448857570335</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.143234754423519</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.291607482326815</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.503969300008427</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.715948802390102</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.863405906062069</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.941918706780358</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.977604743980559</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.992388624608872</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99800284029573</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.999772660127269</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>25-26</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$6:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$O$6:$O$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.0636448857570335</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.143234754423519</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.291607482326815</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.503969300008427</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.715948802390102</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.863405906062069</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.941918706780358</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.977604743980559</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.992388624608872</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.99800284029573</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.999772660127269</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.99996094862293</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>27-28</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$6:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$P$6:$P$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.143234754423519</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.291607482326815</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.503969300008427</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.715948802390102</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.863405906062069</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.941918706780358</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.977604743980559</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.992388624608872</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.99800284029573</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.999772660127269</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99996094862293</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.999503885138533</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>29-30</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$6:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$Q$6:$Q$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.189292400436503</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.368749166604514</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.609795308957086</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.828914196690581</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.956511595644824</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.998472848853159</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.991593682693956</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.963163112963562</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.926824391816066</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.888412268424208</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.850244720974731</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.813191825343553</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>31-32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$6:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$6:$R$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.235064663905296</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.437765937224773</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.692072744230843</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.899360879923221</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.992136443668782</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.990088853980826</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.940001207056023</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.87287338200443</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.802981632892002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.735833324306859</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.673233312648593</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.615561438379833</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$S$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>33-34</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$6:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$S$6:$S$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.114182116923775</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.235064663905296</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.437765937224773</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.692072744230843</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.899360879923221</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.992136443668782</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.990088853980826</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.940001207056023</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.87287338200443</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.802981632892002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.735833324306859</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.673233312648593</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$T$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>35-36</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$6:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$T$6:$T$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.0527667448218893</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.114182116923775</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.235064663905296</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.437765937224773</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.692072744230843</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.899360879923221</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.992136443668782</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.990088853980826</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.940001207056023</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.87287338200443</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.802981632892002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.735833324306859</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$U$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>37-38</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$6:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$U$6:$U$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.0238501500215186</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0527667448218893</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.114182116923775</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.235064663905296</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.437765937224773</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.692072744230843</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.899360879923221</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.992136443668782</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.990088853980826</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.940001207056023</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.87287338200443</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.802981632892002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$V$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>39-40</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$6:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$V$6:$V$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.0194014243030094</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.04409900116584</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0980375593703959</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.207351747695276</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.39672381209717</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.644353214418538</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.860264888040423</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.97497966598245</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.999595466990652</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.974999670350385</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.930150574452668</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.879090468187905</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$W$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>41-42</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$6:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$W$6:$W$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.0143887939010954</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0339042492844078</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.078136233411344</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.171317718698994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.339795366244231</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.57212086219422</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.791827505834357</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.930311835222866</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.988762227258139</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.999785098266245</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.988758091203199</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.968734940602928</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$X$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>43-44</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$6:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$X$6:$X$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.011124109603911</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0269048196871895</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0636448857570335</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.143234754423519</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.291607482326815</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.503969300008427</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.715948802390102</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.863405906062069</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.941918706780358</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.977604743980559</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.992388624608872</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.99800284029573</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Y$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>45-46</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$6:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$Y$6:$Y$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.0269048196871895</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0636448857570335</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.143234754423519</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.291607482326815</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.503969300008427</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.715948802390102</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.863405906062069</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.941918706780358</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.977604743980559</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.992388624608872</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99800284029573</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.999772660127269</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="13"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Z$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>47-48</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$6:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$Z$6:$Z$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.0636448857570335</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.143234754423519</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.291607482326815</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.503969300008427</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.715948802390102</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.863405906062069</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.941918706780358</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.977604743980559</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.992388624608872</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.99800284029573</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.999772660127269</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.99996094862293</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2083400824"/>
+        <c:axId val="-2075400184"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2083400824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2075400184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2075400184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2083400824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="110"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="10"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -178,12 +3315,23 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>21-22</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$L$5:$L$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+              <c:f>Sheet1!$L$6:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1.0</c:v>
                 </c:pt>
@@ -216,16 +3364,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$M$5:$M$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+              <c:f>Sheet1!$M$6:$M$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0.011124109603911</c:v>
                 </c:pt>
@@ -258,6 +3409,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.992388624608872</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.99800284029573</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -267,12 +3421,23 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>23-24</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$L$5:$L$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+              <c:f>Sheet1!$L$6:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1.0</c:v>
                 </c:pt>
@@ -305,48 +3470,54 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$N$5:$N$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>0.0779352897004136</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.165278460933939</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.326140960149935</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.563737831902844</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.808022016566819</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.960380616118389</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.999876422111077</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.96862628154551</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.907384156934271</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.837800338830846</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.768901207283371</c:v>
+              <c:f>Sheet1!$N$6:$N$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.0269048196871895</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0636448857570335</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.143234754423519</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.291607482326815</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.503969300008427</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.715948802390102</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.863405906062069</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.941918706780358</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.977604743980559</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.992388624608872</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99800284029573</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.999772660127269</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -356,12 +3527,23 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>25-26</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$L$5:$L$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+              <c:f>Sheet1!$L$6:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1.0</c:v>
                 </c:pt>
@@ -394,48 +3576,266 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$O$5:$O$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>0.235064663905296</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.437765937224773</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.692072744230843</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.899360879923221</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.992136443668782</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.990088853980826</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.940001207056023</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.87287338200443</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.802981632892002</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.735833324306859</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.673233312648593</c:v>
+              <c:f>Sheet1!$O$6:$O$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.0636448857570335</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.143234754423519</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.291607482326815</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.503969300008427</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.715948802390102</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.863405906062069</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.941918706780358</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.977604743980559</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.992388624608872</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.99800284029573</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.999772660127269</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.99996094862293</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>27-28</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$6:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$P$6:$P$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.143234754423519</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.291607482326815</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.503969300008427</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.715948802390102</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.863405906062069</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.941918706780358</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.977604743980559</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.992388624608872</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.99800284029573</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.999772660127269</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99996094862293</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.999503885138533</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>29-30</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$6:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$Q$6:$Q$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.189292400436503</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.368749166604514</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.609795308957086</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.828914196690581</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.956511595644824</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.998472848853159</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.991593682693956</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.963163112963562</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.926824391816066</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.888412268424208</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.850244720974731</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.813191825343553</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -450,11 +3850,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2071122984"/>
-        <c:axId val="2071118200"/>
+        <c:axId val="-2076037880"/>
+        <c:axId val="-2076034984"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2071122984"/>
+        <c:axId val="-2076037880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -464,12 +3864,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2071118200"/>
+        <c:crossAx val="-2076034984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2071118200"/>
+        <c:axId val="-2076034984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -480,7 +3880,1236 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2071122984"/>
+        <c:crossAx val="-2076037880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="110"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="10"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.067432852143482"/>
+          <c:y val="0.0833333333333333"/>
+          <c:w val="0.694129702537183"/>
+          <c:h val="0.822469378827647"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>31-32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$6:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$6:$R$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.235064663905296</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.437765937224773</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.692072744230843</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.899360879923221</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.992136443668782</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.990088853980826</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.940001207056023</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.87287338200443</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.802981632892002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.735833324306859</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.673233312648593</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.615561438379833</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$S$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>33-34</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$6:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$S$6:$S$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.114182116923775</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.235064663905296</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.437765937224773</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.692072744230843</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.899360879923221</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.992136443668782</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.990088853980826</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.940001207056023</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.87287338200443</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.802981632892002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.735833324306859</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.673233312648593</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$T$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>35-36</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$6:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$T$6:$T$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.0527667448218893</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.114182116923775</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.235064663905296</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.437765937224773</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.692072744230843</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.899360879923221</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.992136443668782</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.990088853980826</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.940001207056023</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.87287338200443</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.802981632892002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.735833324306859</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$U$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>37-38</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$6:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$U$6:$U$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.0238501500215186</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0527667448218893</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.114182116923775</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.235064663905296</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.437765937224773</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.692072744230843</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.899360879923221</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.992136443668782</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.990088853980826</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.940001207056023</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.87287338200443</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.802981632892002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$V$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>39-40</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$6:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$V$6:$V$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.0194014243030094</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.04409900116584</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0980375593703959</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.207351747695276</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.39672381209717</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.644353214418538</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.860264888040423</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.97497966598245</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.999595466990652</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.974999670350385</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.930150574452668</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.879090468187905</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2075155336"/>
+        <c:axId val="-2075262776"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2075155336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2075262776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2075262776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2075155336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="110"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="10"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$W$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>41-42</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$6:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$W$6:$W$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.0143887939010954</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0339042492844078</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.078136233411344</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.171317718698994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.339795366244231</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.57212086219422</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.791827505834357</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.930311835222866</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.988762227258139</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.999785098266245</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.988758091203199</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.968734940602928</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$X$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>43-44</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$6:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$X$6:$X$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.011124109603911</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0269048196871895</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0636448857570335</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.143234754423519</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.291607482326815</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.503969300008427</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.715948802390102</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.863405906062069</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.941918706780358</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.977604743980559</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.992388624608872</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.99800284029573</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Y$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>45-46</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$6:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$Y$6:$Y$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.0269048196871895</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0636448857570335</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.143234754423519</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.291607482326815</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.503969300008427</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.715948802390102</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.863405906062069</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.941918706780358</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.977604743980559</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.992388624608872</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99800284029573</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.999772660127269</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Z$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>47-48</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$6:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$Z$6:$Z$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.0636448857570335</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.143234754423519</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.291607482326815</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.503969300008427</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.715948802390102</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.863405906062069</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.941918706780358</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.977604743980559</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.992388624608872</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.99800284029573</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.999772660127269</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.99996094862293</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AA$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>49-50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$6:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AA$6:$AA$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.143234754423519</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.291607482326815</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.503969300008427</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.715948802390102</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.863405906062069</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.941918706780358</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.977604743980559</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.992388624608872</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.99800284029573</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.999772660127269</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99996094862293</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.999503885138533</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2055404856"/>
+        <c:axId val="-2058157656"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2055404856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2058157656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2058157656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2055404856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -506,15 +5135,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -529,6 +5158,102 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -859,332 +5584,1113 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D1:O15"/>
+  <dimension ref="D1:AA36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O34" sqref="O34"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="4:15">
-      <c r="L1" t="s">
+    <row r="1" spans="4:27">
+      <c r="M1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S1" t="s">
+        <v>7</v>
+      </c>
+      <c r="T1" t="s">
+        <v>8</v>
+      </c>
+      <c r="U1" t="s">
+        <v>9</v>
+      </c>
+      <c r="V1" t="s">
+        <v>10</v>
+      </c>
+      <c r="W1" t="s">
+        <v>11</v>
+      </c>
+      <c r="X1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="4:27">
+      <c r="L2" t="s">
         <v>2</v>
       </c>
-      <c r="M1">
+      <c r="M2">
         <v>6</v>
       </c>
-      <c r="N1">
-        <v>4.5</v>
-      </c>
-      <c r="O1">
+      <c r="N2">
+        <v>5</v>
+      </c>
+      <c r="O2">
+        <v>4</v>
+      </c>
+      <c r="P2">
         <v>3</v>
       </c>
+      <c r="Q2">
+        <v>3</v>
+      </c>
+      <c r="R2">
+        <v>3</v>
+      </c>
+      <c r="S2">
+        <v>4</v>
+      </c>
+      <c r="T2">
+        <v>5</v>
+      </c>
+      <c r="U2">
+        <v>6</v>
+      </c>
+      <c r="V2">
+        <v>6</v>
+      </c>
+      <c r="W2">
+        <v>6</v>
+      </c>
+      <c r="X2">
+        <v>6</v>
+      </c>
+      <c r="Y2">
+        <v>5</v>
+      </c>
+      <c r="Z2">
+        <v>4</v>
+      </c>
+      <c r="AA2">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="4:15">
-      <c r="L2" t="s">
+    <row r="3" spans="4:27">
+      <c r="L3" t="s">
         <v>3</v>
       </c>
-      <c r="M2">
+      <c r="M3">
         <v>0.9</v>
       </c>
-      <c r="N2">
+      <c r="N3">
         <v>0.9</v>
       </c>
-      <c r="O2">
+      <c r="O3">
         <v>0.9</v>
       </c>
+      <c r="P3">
+        <v>0.9</v>
+      </c>
+      <c r="Q3">
+        <v>0.9</v>
+      </c>
+      <c r="R3">
+        <v>0.9</v>
+      </c>
+      <c r="S3">
+        <v>0.9</v>
+      </c>
+      <c r="T3">
+        <v>0.9</v>
+      </c>
+      <c r="U3">
+        <v>0.9</v>
+      </c>
+      <c r="V3">
+        <v>0.9</v>
+      </c>
+      <c r="W3">
+        <v>0.9</v>
+      </c>
+      <c r="X3">
+        <v>0.9</v>
+      </c>
+      <c r="Y3">
+        <v>0.9</v>
+      </c>
+      <c r="Z3">
+        <v>0.9</v>
+      </c>
+      <c r="AA3">
+        <v>0.9</v>
+      </c>
     </row>
-    <row r="3" spans="4:15">
-      <c r="L3" t="s">
+    <row r="4" spans="4:27">
+      <c r="L4" t="s">
         <v>4</v>
       </c>
-      <c r="M3">
+      <c r="M4">
         <v>1E-3</v>
       </c>
-      <c r="N3">
+      <c r="N4">
+        <v>1E-3</v>
+      </c>
+      <c r="O4">
+        <v>1E-3</v>
+      </c>
+      <c r="P4">
+        <v>1E-3</v>
+      </c>
+      <c r="Q4">
+        <v>0.05</v>
+      </c>
+      <c r="R4">
         <v>0.1</v>
       </c>
-      <c r="O3">
+      <c r="S4">
         <v>0.1</v>
       </c>
+      <c r="T4">
+        <v>0.1</v>
+      </c>
+      <c r="U4">
+        <v>0.1</v>
+      </c>
+      <c r="V4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="W4">
+        <v>0.03</v>
+      </c>
+      <c r="X4">
+        <v>1E-3</v>
+      </c>
+      <c r="Y4">
+        <v>1E-3</v>
+      </c>
+      <c r="Z4">
+        <v>1E-3</v>
+      </c>
+      <c r="AA4">
+        <v>1E-3</v>
+      </c>
     </row>
-    <row r="4" spans="4:15">
-      <c r="J4" t="s">
+    <row r="5" spans="4:27">
+      <c r="J5" t="s">
         <v>5</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="4:15">
-      <c r="J5">
+    <row r="6" spans="4:27">
+      <c r="J6">
         <v>1</v>
       </c>
-      <c r="K5">
-        <f>10*(1-EXP(-0.3*(J5-0)))</f>
+      <c r="K6">
+        <f>10*(1-EXP(-0.3*(J6-0)))</f>
         <v>2.5918177931828215</v>
       </c>
-      <c r="L5">
+      <c r="L6">
         <v>1</v>
       </c>
-      <c r="M5">
-        <f>(1/(1-M$3))*((1-M$3)/M$3)^M$3*((EXP(M$2*M$3*(M$1-$L5)))/(1+EXP(M$2*(M$1-$L5))))</f>
+      <c r="M6">
+        <f>(1/(1-M$4))*((1-M$4)/M$4)^M$4*((EXP(M$3*M$4*(M$2-$L6)))/(1+EXP(M$3*(M$2-$L6))))</f>
         <v>1.1124109603910968E-2</v>
       </c>
-      <c r="N5">
-        <f t="shared" ref="N5:O15" si="0">(1/(1-N$3))*((1-N$3)/N$3)^N$3*((EXP(N$2*N$3*(N$1-$L5)))/(1+EXP(N$2*(N$1-$L5))))</f>
-        <v>7.7935289700413621E-2</v>
-      </c>
-      <c r="O5">
+      <c r="N6">
+        <f t="shared" ref="N6:AA17" si="0">(1/(1-N$4))*((1-N$4)/N$4)^N$4*((EXP(N$3*N$4*(N$2-$L6)))/(1+EXP(N$3*(N$2-$L6))))</f>
+        <v>2.6904819687189479E-2</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="0"/>
+        <v>6.3644885757033545E-2</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="0"/>
+        <v>0.14323475442351938</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="0"/>
+        <v>0.18929240043650306</v>
+      </c>
+      <c r="R6">
         <f t="shared" si="0"/>
         <v>0.23506466390529571</v>
       </c>
+      <c r="S6">
+        <f t="shared" si="0"/>
+        <v>0.11418211692377532</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="0"/>
+        <v>5.2766744821889276E-2</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="0"/>
+        <v>2.3850150021518631E-2</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="0"/>
+        <v>1.940142430300943E-2</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="0"/>
+        <v>1.4388793901095402E-2</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="0"/>
+        <v>1.1124109603910968E-2</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="0"/>
+        <v>2.6904819687189479E-2</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="0"/>
+        <v>6.3644885757033545E-2</v>
+      </c>
+      <c r="AA6">
+        <f t="shared" si="0"/>
+        <v>0.14323475442351938</v>
+      </c>
     </row>
-    <row r="6" spans="4:15">
-      <c r="J6">
+    <row r="7" spans="4:27">
+      <c r="J7">
         <v>2</v>
       </c>
-      <c r="K6">
-        <f t="shared" ref="K6:K14" si="1">10*(1-EXP(-0.3*(J6-0)))</f>
+      <c r="K7">
+        <f t="shared" ref="K7:K15" si="1">10*(1-EXP(-0.3*(J7-0)))</f>
         <v>4.5118836390597359</v>
       </c>
-      <c r="L6">
-        <f>L5+1</f>
+      <c r="L7">
+        <f>L6+1</f>
         <v>2</v>
       </c>
-      <c r="M6">
-        <f t="shared" ref="M6:M15" si="2">(1/(1-M$3))*((1-M$3)/M$3)^M$3*((EXP(M$2*M$3*(M$1-$L6)))/(1+EXP(M$2*(M$1-$L6))))</f>
+      <c r="M7">
+        <f t="shared" ref="M7:M17" si="2">(1/(1-M$4))*((1-M$4)/M$4)^M$4*((EXP(M$3*M$4*(M$2-$L7)))/(1+EXP(M$3*(M$2-$L7))))</f>
         <v>2.6904819687189479E-2</v>
       </c>
-      <c r="N6">
-        <f t="shared" si="0"/>
-        <v>0.16527846093393886</v>
-      </c>
-      <c r="O6">
+      <c r="N7">
+        <f t="shared" si="0"/>
+        <v>6.3644885757033545E-2</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="0"/>
+        <v>0.14323475442351938</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="0"/>
+        <v>0.2916074823268151</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="0"/>
+        <v>0.36874916660451446</v>
+      </c>
+      <c r="R7">
         <f t="shared" si="0"/>
         <v>0.4377659372247733</v>
       </c>
+      <c r="S7">
+        <f t="shared" si="0"/>
+        <v>0.23506466390529571</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="0"/>
+        <v>0.11418211692377532</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="0"/>
+        <v>5.2766744821889276E-2</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="0"/>
+        <v>4.4099001165839993E-2</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="0"/>
+        <v>3.3904249284407773E-2</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="0"/>
+        <v>2.6904819687189479E-2</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="0"/>
+        <v>6.3644885757033545E-2</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="0"/>
+        <v>0.14323475442351938</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" si="0"/>
+        <v>0.2916074823268151</v>
+      </c>
     </row>
-    <row r="7" spans="4:15">
-      <c r="J7">
+    <row r="8" spans="4:27">
+      <c r="J8">
         <v>3</v>
       </c>
-      <c r="K7">
+      <c r="K8">
         <f t="shared" si="1"/>
         <v>5.9343034025940078</v>
       </c>
-      <c r="L7">
-        <f t="shared" ref="L7:L15" si="3">L6+1</f>
+      <c r="L8">
+        <f t="shared" ref="L8:L16" si="3">L7+1</f>
         <v>3</v>
       </c>
-      <c r="M7">
+      <c r="M8">
         <f t="shared" si="2"/>
         <v>6.3644885757033545E-2</v>
       </c>
-      <c r="N7">
-        <f t="shared" si="0"/>
-        <v>0.32614096014993477</v>
-      </c>
-      <c r="O7">
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>0.14323475442351938</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="0"/>
+        <v>0.2916074823268151</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="0"/>
+        <v>0.50396930000842732</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="0"/>
+        <v>0.60979530895708589</v>
+      </c>
+      <c r="R8">
         <f t="shared" si="0"/>
         <v>0.69207274423084297</v>
       </c>
+      <c r="S8">
+        <f t="shared" si="0"/>
+        <v>0.4377659372247733</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="0"/>
+        <v>0.23506466390529571</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="0"/>
+        <v>0.11418211692377532</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="0"/>
+        <v>9.803755937039596E-2</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="0"/>
+        <v>7.8136233411343986E-2</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="0"/>
+        <v>6.3644885757033545E-2</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="0"/>
+        <v>0.14323475442351938</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" si="0"/>
+        <v>0.2916074823268151</v>
+      </c>
+      <c r="AA8">
+        <f t="shared" si="0"/>
+        <v>0.50396930000842732</v>
+      </c>
     </row>
-    <row r="8" spans="4:15">
-      <c r="J8">
+    <row r="9" spans="4:27">
+      <c r="J9">
         <v>4</v>
       </c>
-      <c r="K8">
+      <c r="K9">
         <f t="shared" si="1"/>
         <v>6.9880578808779781</v>
       </c>
-      <c r="L8">
+      <c r="L9">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="M8">
+      <c r="M9">
         <f t="shared" si="2"/>
         <v>0.14323475442351938</v>
       </c>
-      <c r="N8">
-        <f t="shared" si="0"/>
-        <v>0.5637378319028441</v>
-      </c>
-      <c r="O8">
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>0.2916074823268151</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="0"/>
+        <v>0.50396930000842732</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="0"/>
+        <v>0.71594880239010217</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="0"/>
+        <v>0.82891419669058086</v>
+      </c>
+      <c r="R9">
         <f t="shared" si="0"/>
         <v>0.89936087992322156</v>
       </c>
+      <c r="S9">
+        <f t="shared" si="0"/>
+        <v>0.69207274423084297</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="0"/>
+        <v>0.4377659372247733</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="0"/>
+        <v>0.23506466390529571</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="0"/>
+        <v>0.20735174769527565</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="0"/>
+        <v>0.1713177186989942</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="0"/>
+        <v>0.14323475442351938</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" si="0"/>
+        <v>0.2916074823268151</v>
+      </c>
+      <c r="Z9">
+        <f t="shared" si="0"/>
+        <v>0.50396930000842732</v>
+      </c>
+      <c r="AA9">
+        <f t="shared" si="0"/>
+        <v>0.71594880239010217</v>
+      </c>
     </row>
-    <row r="9" spans="4:15">
-      <c r="J9">
+    <row r="10" spans="4:27">
+      <c r="J10">
         <v>5</v>
       </c>
-      <c r="K9">
+      <c r="K10">
         <f t="shared" si="1"/>
         <v>7.7686983985157019</v>
       </c>
-      <c r="L9">
+      <c r="L10">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="M9">
+      <c r="M10">
         <f t="shared" si="2"/>
         <v>0.2916074823268151</v>
       </c>
-      <c r="N9">
-        <f t="shared" si="0"/>
-        <v>0.80802201656681905</v>
-      </c>
-      <c r="O9">
+      <c r="N10">
+        <f t="shared" si="0"/>
+        <v>0.50396930000842732</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="0"/>
+        <v>0.71594880239010217</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="0"/>
+        <v>0.86340590606206924</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="0"/>
+        <v>0.95651159564482358</v>
+      </c>
+      <c r="R10">
         <f t="shared" si="0"/>
         <v>0.9921364436687824</v>
       </c>
+      <c r="S10">
+        <f t="shared" si="0"/>
+        <v>0.89936087992322156</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="0"/>
+        <v>0.69207274423084297</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="0"/>
+        <v>0.4377659372247733</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="0"/>
+        <v>0.39672381209717011</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="0"/>
+        <v>0.33979536624423112</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="0"/>
+        <v>0.2916074823268151</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="0"/>
+        <v>0.50396930000842732</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" si="0"/>
+        <v>0.71594880239010217</v>
+      </c>
+      <c r="AA10">
+        <f t="shared" si="0"/>
+        <v>0.86340590606206924</v>
+      </c>
     </row>
-    <row r="10" spans="4:15">
-      <c r="J10">
+    <row r="11" spans="4:27">
+      <c r="J11">
         <v>6</v>
       </c>
-      <c r="K10">
+      <c r="K11">
         <f t="shared" si="1"/>
         <v>8.3470111177841346</v>
       </c>
-      <c r="L10">
+      <c r="L11">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="M10">
+      <c r="M11">
         <f t="shared" si="2"/>
         <v>0.50396930000842732</v>
       </c>
-      <c r="N10">
-        <f t="shared" si="0"/>
-        <v>0.96038061611838876</v>
-      </c>
-      <c r="O10">
+      <c r="N11">
+        <f t="shared" si="0"/>
+        <v>0.71594880239010217</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="0"/>
+        <v>0.86340590606206924</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="0"/>
+        <v>0.94191870678035838</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="0"/>
+        <v>0.99847284885315868</v>
+      </c>
+      <c r="R11">
         <f t="shared" si="0"/>
         <v>0.99008885398082591</v>
       </c>
+      <c r="S11">
+        <f t="shared" si="0"/>
+        <v>0.9921364436687824</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="0"/>
+        <v>0.89936087992322156</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="0"/>
+        <v>0.69207274423084297</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="0"/>
+        <v>0.64435321441853821</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="0"/>
+        <v>0.57212086219421976</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="0"/>
+        <v>0.50396930000842732</v>
+      </c>
+      <c r="Y11">
+        <f t="shared" si="0"/>
+        <v>0.71594880239010217</v>
+      </c>
+      <c r="Z11">
+        <f t="shared" si="0"/>
+        <v>0.86340590606206924</v>
+      </c>
+      <c r="AA11">
+        <f t="shared" si="0"/>
+        <v>0.94191870678035838</v>
+      </c>
     </row>
-    <row r="11" spans="4:15">
-      <c r="J11">
+    <row r="12" spans="4:27">
+      <c r="J12">
         <v>7</v>
       </c>
-      <c r="K11">
+      <c r="K12">
         <f t="shared" si="1"/>
         <v>8.7754357174701809</v>
       </c>
-      <c r="L11">
+      <c r="L12">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="M11">
+      <c r="M12">
         <f t="shared" si="2"/>
         <v>0.71594880239010217</v>
       </c>
-      <c r="N11">
-        <f t="shared" si="0"/>
-        <v>0.99987642211107752</v>
-      </c>
-      <c r="O11">
+      <c r="N12">
+        <f t="shared" si="0"/>
+        <v>0.86340590606206924</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="0"/>
+        <v>0.94191870678035838</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="0"/>
+        <v>0.97760474398055908</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="0"/>
+        <v>0.99159368269395576</v>
+      </c>
+      <c r="R12">
         <f t="shared" si="0"/>
         <v>0.94000120705602286</v>
       </c>
+      <c r="S12">
+        <f t="shared" si="0"/>
+        <v>0.99008885398082591</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="0"/>
+        <v>0.9921364436687824</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="0"/>
+        <v>0.89936087992322156</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="0"/>
+        <v>0.860264888040423</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="0"/>
+        <v>0.79182750583435746</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="0"/>
+        <v>0.71594880239010217</v>
+      </c>
+      <c r="Y12">
+        <f t="shared" si="0"/>
+        <v>0.86340590606206924</v>
+      </c>
+      <c r="Z12">
+        <f t="shared" si="0"/>
+        <v>0.94191870678035838</v>
+      </c>
+      <c r="AA12">
+        <f t="shared" si="0"/>
+        <v>0.97760474398055908</v>
+      </c>
     </row>
-    <row r="12" spans="4:15">
-      <c r="J12">
+    <row r="13" spans="4:27">
+      <c r="J13">
         <v>8</v>
       </c>
-      <c r="K12">
+      <c r="K13">
         <f t="shared" si="1"/>
         <v>9.0928204671058754</v>
       </c>
-      <c r="L12">
+      <c r="L13">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="M12">
+      <c r="M13">
         <f t="shared" si="2"/>
         <v>0.86340590606206924</v>
       </c>
-      <c r="N12">
-        <f t="shared" si="0"/>
-        <v>0.96862628154551011</v>
-      </c>
-      <c r="O12">
+      <c r="N13">
+        <f t="shared" si="0"/>
+        <v>0.94191870678035838</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="0"/>
+        <v>0.97760474398055908</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="0"/>
+        <v>0.99238862460887156</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="0"/>
+        <v>0.96316311296356172</v>
+      </c>
+      <c r="R13">
         <f t="shared" si="0"/>
         <v>0.8728733820044301</v>
       </c>
+      <c r="S13">
+        <f t="shared" si="0"/>
+        <v>0.94000120705602286</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="0"/>
+        <v>0.99008885398082591</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="0"/>
+        <v>0.9921364436687824</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="0"/>
+        <v>0.97497966598244978</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="0"/>
+        <v>0.93031183522286587</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="0"/>
+        <v>0.86340590606206924</v>
+      </c>
+      <c r="Y13">
+        <f t="shared" si="0"/>
+        <v>0.94191870678035838</v>
+      </c>
+      <c r="Z13">
+        <f t="shared" si="0"/>
+        <v>0.97760474398055908</v>
+      </c>
+      <c r="AA13">
+        <f t="shared" si="0"/>
+        <v>0.99238862460887156</v>
+      </c>
     </row>
-    <row r="13" spans="4:15" ht="19">
-      <c r="D13" s="1" t="s">
+    <row r="14" spans="4:27" ht="19">
+      <c r="D14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J13">
+      <c r="J14">
         <v>9</v>
       </c>
-      <c r="K13">
+      <c r="K14">
         <f t="shared" si="1"/>
         <v>9.3279448726025027</v>
       </c>
-      <c r="L13">
+      <c r="L14">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="M13">
+      <c r="M14">
         <f t="shared" si="2"/>
         <v>0.94191870678035838</v>
       </c>
-      <c r="N13">
-        <f t="shared" si="0"/>
-        <v>0.90738415693427077</v>
-      </c>
-      <c r="O13">
+      <c r="N14">
+        <f t="shared" si="0"/>
+        <v>0.97760474398055908</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="0"/>
+        <v>0.99238862460887156</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="0"/>
+        <v>0.99800284029573039</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="0"/>
+        <v>0.92682439181606568</v>
+      </c>
+      <c r="R14">
         <f t="shared" si="0"/>
         <v>0.80298163289200175</v>
       </c>
+      <c r="S14">
+        <f t="shared" si="0"/>
+        <v>0.8728733820044301</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="0"/>
+        <v>0.94000120705602286</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="0"/>
+        <v>0.99008885398082591</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="0"/>
+        <v>0.99959546699065238</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="0"/>
+        <v>0.98876222725813867</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="0"/>
+        <v>0.94191870678035838</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" si="0"/>
+        <v>0.97760474398055908</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" si="0"/>
+        <v>0.99238862460887156</v>
+      </c>
+      <c r="AA14">
+        <f t="shared" si="0"/>
+        <v>0.99800284029573039</v>
+      </c>
     </row>
-    <row r="14" spans="4:15">
-      <c r="J14">
+    <row r="15" spans="4:27">
+      <c r="J15">
         <v>10</v>
       </c>
-      <c r="K14">
+      <c r="K15">
         <f t="shared" si="1"/>
         <v>9.5021293163213603</v>
       </c>
-      <c r="L14">
+      <c r="L15">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="M14">
+      <c r="M15">
         <f t="shared" si="2"/>
         <v>0.97760474398055908</v>
       </c>
-      <c r="N14">
-        <f t="shared" si="0"/>
-        <v>0.8378003388308457</v>
-      </c>
-      <c r="O14">
+      <c r="N15">
+        <f t="shared" si="0"/>
+        <v>0.99238862460887156</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="0"/>
+        <v>0.99800284029573039</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="0"/>
+        <v>0.99977266012726917</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="0"/>
+        <v>0.8884122684242084</v>
+      </c>
+      <c r="R15">
         <f t="shared" si="0"/>
         <v>0.7358333243068591</v>
       </c>
+      <c r="S15">
+        <f t="shared" si="0"/>
+        <v>0.80298163289200175</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="0"/>
+        <v>0.8728733820044301</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="0"/>
+        <v>0.94000120705602286</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="0"/>
+        <v>0.9749996703503846</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="0"/>
+        <v>0.99978509826624495</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="0"/>
+        <v>0.97760474398055908</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="0"/>
+        <v>0.99238862460887156</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="0"/>
+        <v>0.99800284029573039</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" si="0"/>
+        <v>0.99977266012726917</v>
+      </c>
     </row>
-    <row r="15" spans="4:15">
-      <c r="L15">
+    <row r="16" spans="4:27">
+      <c r="L16">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="M15">
+      <c r="M16">
         <f t="shared" si="2"/>
         <v>0.99238862460887156</v>
       </c>
-      <c r="N15">
-        <f t="shared" si="0"/>
-        <v>0.76890120728337141</v>
-      </c>
-      <c r="O15">
+      <c r="N16">
+        <f t="shared" si="0"/>
+        <v>0.99800284029573039</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="0"/>
+        <v>0.99977266012726917</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="0"/>
+        <v>0.99996094862292961</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="0"/>
+        <v>0.85024472097473103</v>
+      </c>
+      <c r="R16">
         <f t="shared" si="0"/>
         <v>0.67323331264859265</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="0"/>
+        <v>0.7358333243068591</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="0"/>
+        <v>0.80298163289200175</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="0"/>
+        <v>0.8728733820044301</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="0"/>
+        <v>0.93015057445266769</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="0"/>
+        <v>0.98875809120319869</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="0"/>
+        <v>0.99238862460887156</v>
+      </c>
+      <c r="Y16">
+        <f t="shared" si="0"/>
+        <v>0.99800284029573039</v>
+      </c>
+      <c r="Z16">
+        <f t="shared" si="0"/>
+        <v>0.99977266012726917</v>
+      </c>
+      <c r="AA16">
+        <f t="shared" si="0"/>
+        <v>0.99996094862292961</v>
+      </c>
+    </row>
+    <row r="17" spans="12:27">
+      <c r="L17">
+        <v>12</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="2"/>
+        <v>0.99800284029573039</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="0"/>
+        <v>0.99977266012726917</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="0"/>
+        <v>0.99996094862292961</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="0"/>
+        <v>0.99950388513853339</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="0"/>
+        <v>0.81319182534355305</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="0"/>
+        <v>0.61556143837983346</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="0"/>
+        <v>0.67323331264859265</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="0"/>
+        <v>0.7358333243068591</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="0"/>
+        <v>0.80298163289200175</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="0"/>
+        <v>0.87909046818790548</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="0"/>
+        <v>0.96873494060292764</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="0"/>
+        <v>0.99800284029573039</v>
+      </c>
+      <c r="Y17">
+        <f t="shared" si="0"/>
+        <v>0.99977266012726917</v>
+      </c>
+      <c r="Z17">
+        <f t="shared" si="0"/>
+        <v>0.99996094862292961</v>
+      </c>
+      <c r="AA17">
+        <f t="shared" si="0"/>
+        <v>0.99950388513853339</v>
+      </c>
+    </row>
+    <row r="34" spans="13:15">
+      <c r="M34">
+        <v>6</v>
+      </c>
+      <c r="N34">
+        <v>4.5</v>
+      </c>
+      <c r="O34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="13:15">
+      <c r="M35">
+        <v>0.9</v>
+      </c>
+      <c r="N35">
+        <v>0.9</v>
+      </c>
+      <c r="O35">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="36" spans="13:15">
+      <c r="M36">
+        <v>1E-3</v>
+      </c>
+      <c r="N36">
+        <v>0.1</v>
+      </c>
+      <c r="O36">
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>

--- a/xls/selectivity_scn.xlsx
+++ b/xls/selectivity_scn.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="0" windowWidth="28800" windowHeight="16340" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -138,8 +138,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="71">
+  <cellStyleXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -215,7 +217,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="71">
+  <cellStyles count="73">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -251,6 +253,7 @@
     <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -286,6 +289,7 @@
     <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -379,40 +383,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>4.2860183766294E-10</c:v>
+                  <c:v>6.26771383716436E-6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.58822701094739E-9</c:v>
+                  <c:v>1.70202040432798E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.56297019761795E-8</c:v>
+                  <c:v>4.62181424246102E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.43841352204596E-8</c:v>
+                  <c:v>0.000125498575873606</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.69963620249707E-7</c:v>
+                  <c:v>0.000340727285042406</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.44186832288032E-6</c:v>
+                  <c:v>0.000924734201622879</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.07842900189025E-5</c:v>
+                  <c:v>0.00250725078720256</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.000125498575873606</c:v>
+                  <c:v>0.00677979717020096</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.000757384844848005</c:v>
+                  <c:v>0.0182016564954868</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.00455650609359868</c:v>
+                  <c:v>0.0479459906457481</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0269048196871895</c:v>
+                  <c:v>0.120389765252305</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.143234754423519</c:v>
+                  <c:v>0.271347651765369</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -485,40 +489,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1.56297019761795E-8</c:v>
+                  <c:v>4.62181424246102E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.43841352204596E-8</c:v>
+                  <c:v>0.000125498575873606</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.69963620249707E-7</c:v>
+                  <c:v>0.000340727285042406</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.44186832288032E-6</c:v>
+                  <c:v>0.000924734201622879</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.07842900189025E-5</c:v>
+                  <c:v>0.00250725078720256</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.000125498575873606</c:v>
+                  <c:v>0.00677979717020096</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.000757384844848005</c:v>
+                  <c:v>0.0182016564954868</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.00455650609359868</c:v>
+                  <c:v>0.0479459906457481</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0269048196871895</c:v>
+                  <c:v>0.120389765252305</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.143234754423519</c:v>
+                  <c:v>0.271347651765369</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.503969300008427</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.863405906062069</c:v>
+                  <c:v>0.736125666422664</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -591,40 +595,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>3.44186832288032E-6</c:v>
+                  <c:v>0.000924734201622879</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.07842900189025E-5</c:v>
+                  <c:v>0.00250725078720256</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.000125498575873606</c:v>
+                  <c:v>0.00677979717020096</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.000757384844848005</c:v>
+                  <c:v>0.0182016564954868</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.00455650609359868</c:v>
+                  <c:v>0.0479459906457481</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0269048196871895</c:v>
+                  <c:v>0.120389765252305</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.143234754423519</c:v>
+                  <c:v>0.271347651765369</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.503969300008427</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.863405906062069</c:v>
+                  <c:v>0.736125666422664</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.977604743980559</c:v>
+                  <c:v>0.886015569324231</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.99800284029573</c:v>
+                  <c:v>0.957260139401945</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.99996094862293</c:v>
+                  <c:v>0.985858274238561</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -697,40 +701,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.000184958102037206</c:v>
+                  <c:v>0.00889760463762272</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.00105945130775323</c:v>
+                  <c:v>0.0232045300234742</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.00604959323176044</c:v>
+                  <c:v>0.0593771870135077</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0339042492844078</c:v>
+                  <c:v>0.144831273829794</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.171317718698994</c:v>
+                  <c:v>0.317105891170036</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.57212086219422</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.930311835222866</c:v>
+                  <c:v>0.811785189038037</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.999785098266245</c:v>
+                  <c:v>0.949152457240892</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.968734940602928</c:v>
+                  <c:v>0.996162199857341</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.921268145493215</c:v>
+                  <c:v>0.996598040085168</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.873382884952051</c:v>
+                  <c:v>0.978266471503519</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.827556222769078</c:v>
+                  <c:v>0.953387814914105</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -803,40 +807,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.000236016660794446</c:v>
+                  <c:v>0.0104809065062376</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.00130411443307029</c:v>
+                  <c:v>0.0267924624049293</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.00718333751868298</c:v>
+                  <c:v>0.0672006668440396</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0388346709698444</c:v>
+                  <c:v>0.160668383544182</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.189292400436503</c:v>
+                  <c:v>0.344815273606059</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.609795308957086</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.956511595644824</c:v>
+                  <c:v>0.848108719735898</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.991593682693956</c:v>
+                  <c:v>0.971987079119389</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.926824391816066</c:v>
+                  <c:v>0.999927894371866</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.850244720974731</c:v>
+                  <c:v>0.980556820419031</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.777549354222397</c:v>
+                  <c:v>0.943461137120481</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.710699803278136</c:v>
+                  <c:v>0.901260948984255</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -909,40 +913,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.000420090485258927</c:v>
+                  <c:v>0.0152735550354282</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.00212143329994615</c:v>
+                  <c:v>0.0371397685639704</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.010679562204185</c:v>
+                  <c:v>0.088610547854341</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0527667448218893</c:v>
+                  <c:v>0.201524354750418</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.235064663905296</c:v>
+                  <c:v>0.411404355776717</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.692072744230843</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.992136443668782</c:v>
+                  <c:v>0.91559723194116</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.940001207056023</c:v>
+                  <c:v>0.998156663384124</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.802981632892002</c:v>
+                  <c:v>0.976769698183685</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.673233312648593</c:v>
+                  <c:v>0.911132493809258</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.562682119785187</c:v>
+                  <c:v>0.833907849363797</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.470040026140101</c:v>
+                  <c:v>0.757756858652056</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1015,40 +1019,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1.6454354597384E-5</c:v>
+                  <c:v>0.00253939734192572</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.31439241539374E-5</c:v>
+                  <c:v>0.00623614727136644</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.000420090485258927</c:v>
+                  <c:v>0.0152735550354282</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.00212143329994615</c:v>
+                  <c:v>0.0371397685639704</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.010679562204185</c:v>
+                  <c:v>0.088610547854341</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0527667448218893</c:v>
+                  <c:v>0.201524354750418</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.235064663905296</c:v>
+                  <c:v>0.411404355776717</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.692072744230843</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.992136443668782</c:v>
+                  <c:v>0.91559723194116</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.940001207056023</c:v>
+                  <c:v>0.998156663384124</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.802981632892002</c:v>
+                  <c:v>0.976769698183685</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.673233312648593</c:v>
+                  <c:v>0.911132493809258</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1121,40 +1125,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1.27529638334242E-7</c:v>
+                  <c:v>0.00017080936882517</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.44418730981964E-7</c:v>
+                  <c:v>0.000420090485258927</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.25630453432759E-6</c:v>
+                  <c:v>0.00103303683316333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.6454354597384E-5</c:v>
+                  <c:v>0.00253939734192572</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.31439241539374E-5</c:v>
+                  <c:v>0.00623614727136644</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.000420090485258927</c:v>
+                  <c:v>0.0152735550354282</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.00212143329994615</c:v>
+                  <c:v>0.0371397685639704</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.010679562204185</c:v>
+                  <c:v>0.088610547854341</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0527667448218893</c:v>
+                  <c:v>0.201524354750418</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.235064663905296</c:v>
+                  <c:v>0.411404355776717</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.692072744230843</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.992136443668782</c:v>
+                  <c:v>0.91559723194116</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1227,40 +1231,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>4.99455745172256E-9</c:v>
+                  <c:v>2.82357071272519E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.52379498417872E-8</c:v>
+                  <c:v>6.94478999050098E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.27529638334242E-7</c:v>
+                  <c:v>0.00017080936882517</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.44418730981964E-7</c:v>
+                  <c:v>0.000420090485258927</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.25630453432759E-6</c:v>
+                  <c:v>0.00103303683316333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.6454354597384E-5</c:v>
+                  <c:v>0.00253939734192572</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.31439241539374E-5</c:v>
+                  <c:v>0.00623614727136644</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.000420090485258927</c:v>
+                  <c:v>0.0152735550354282</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.00212143329994615</c:v>
+                  <c:v>0.0371397685639704</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.010679562204185</c:v>
+                  <c:v>0.088610547854341</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0527667448218893</c:v>
+                  <c:v>0.201524354750418</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.235064663905296</c:v>
+                  <c:v>0.411404355776717</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1333,40 +1337,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>2.43246411693427E-9</c:v>
+                  <c:v>1.83410801452755E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.29734476639436E-8</c:v>
+                  <c:v>4.64851451922579E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.91933506156914E-8</c:v>
+                  <c:v>0.000117813646126152</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.69039871752177E-7</c:v>
+                  <c:v>0.000298576476499349</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.96825811789324E-6</c:v>
+                  <c:v>0.000756584403846027</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0497594470579E-5</c:v>
+                  <c:v>0.00191646579770179</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.59875366190396E-5</c:v>
+                  <c:v>0.00484970821248869</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.000298576476499349</c:v>
+                  <c:v>0.0122396279137014</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.00159145376904792</c:v>
+                  <c:v>0.030668752365479</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.00845609779874339</c:v>
+                  <c:v>0.0753999697884457</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.04409900116584</c:v>
+                  <c:v>0.176702268053627</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.207351747695276</c:v>
+                  <c:v>0.371716898268432</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1439,40 +1443,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>9.10290048819493E-10</c:v>
+                  <c:v>1.00769091325969E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.21744596075123E-9</c:v>
+                  <c:v>2.65820459758305E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.99044706682321E-8</c:v>
+                  <c:v>7.01199486155072E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.71401355235419E-7</c:v>
+                  <c:v>0.000184958102037206</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.82408733911871E-7</c:v>
+                  <c:v>0.000487805772654149</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.63078775957091E-6</c:v>
+                  <c:v>0.00128606347195833</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.22730438752744E-5</c:v>
+                  <c:v>0.00338726144648474</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.000184958102037206</c:v>
+                  <c:v>0.00889760463762272</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.00105945130775323</c:v>
+                  <c:v>0.0232045300234742</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.00604959323176044</c:v>
+                  <c:v>0.0593771870135077</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0339042492844078</c:v>
+                  <c:v>0.144831273829794</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.171317718698994</c:v>
+                  <c:v>0.317105891170036</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1545,40 +1549,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>4.2860183766294E-10</c:v>
+                  <c:v>6.26771383716436E-6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.58822701094739E-9</c:v>
+                  <c:v>1.70202040432798E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.56297019761795E-8</c:v>
+                  <c:v>4.62181424246102E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.43841352204596E-8</c:v>
+                  <c:v>0.000125498575873606</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.69963620249707E-7</c:v>
+                  <c:v>0.000340727285042406</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.44186832288032E-6</c:v>
+                  <c:v>0.000924734201622879</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.07842900189025E-5</c:v>
+                  <c:v>0.00250725078720256</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.000125498575873606</c:v>
+                  <c:v>0.00677979717020096</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.000757384844848005</c:v>
+                  <c:v>0.0182016564954868</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.00455650609359868</c:v>
+                  <c:v>0.0479459906457481</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0269048196871895</c:v>
+                  <c:v>0.120389765252305</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.143234754423519</c:v>
+                  <c:v>0.271347651765369</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1651,40 +1655,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1.56297019761795E-8</c:v>
+                  <c:v>4.62181424246102E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.43841352204596E-8</c:v>
+                  <c:v>0.000125498575873606</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.69963620249707E-7</c:v>
+                  <c:v>0.000340727285042406</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.44186832288032E-6</c:v>
+                  <c:v>0.000924734201622879</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.07842900189025E-5</c:v>
+                  <c:v>0.00250725078720256</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.000125498575873606</c:v>
+                  <c:v>0.00677979717020096</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.000757384844848005</c:v>
+                  <c:v>0.0182016564954868</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.00455650609359868</c:v>
+                  <c:v>0.0479459906457481</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0269048196871895</c:v>
+                  <c:v>0.120389765252305</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.143234754423519</c:v>
+                  <c:v>0.271347651765369</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.503969300008427</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.863405906062069</c:v>
+                  <c:v>0.736125666422664</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1757,40 +1761,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>3.44186832288032E-6</c:v>
+                  <c:v>0.000924734201622879</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.07842900189025E-5</c:v>
+                  <c:v>0.00250725078720256</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.000125498575873606</c:v>
+                  <c:v>0.00677979717020096</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.000757384844848005</c:v>
+                  <c:v>0.0182016564954868</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.00455650609359868</c:v>
+                  <c:v>0.0479459906457481</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0269048196871895</c:v>
+                  <c:v>0.120389765252305</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.143234754423519</c:v>
+                  <c:v>0.271347651765369</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.503969300008427</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.863405906062069</c:v>
+                  <c:v>0.736125666422664</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.977604743980559</c:v>
+                  <c:v>0.886015569324231</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.99800284029573</c:v>
+                  <c:v>0.957260139401945</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.99996094862293</c:v>
+                  <c:v>0.985858274238561</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1863,40 +1867,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>4.2860183766294E-10</c:v>
+                  <c:v>6.26771383716436E-6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.58822701094739E-9</c:v>
+                  <c:v>1.70202040432798E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.56297019761795E-8</c:v>
+                  <c:v>4.62181424246102E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.43841352204596E-8</c:v>
+                  <c:v>0.000125498575873606</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.69963620249707E-7</c:v>
+                  <c:v>0.000340727285042406</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.44186832288032E-6</c:v>
+                  <c:v>0.000924734201622879</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.07842900189025E-5</c:v>
+                  <c:v>0.00250725078720256</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.000125498575873606</c:v>
+                  <c:v>0.00677979717020096</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.000757384844848005</c:v>
+                  <c:v>0.0182016564954868</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.00455650609359868</c:v>
+                  <c:v>0.0479459906457481</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0269048196871895</c:v>
+                  <c:v>0.120389765252305</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.143234754423519</c:v>
+                  <c:v>0.271347651765369</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1969,40 +1973,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1.56297019761795E-8</c:v>
+                  <c:v>4.62181424246102E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.43841352204596E-8</c:v>
+                  <c:v>0.000125498575873606</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.69963620249707E-7</c:v>
+                  <c:v>0.000340727285042406</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.44186832288032E-6</c:v>
+                  <c:v>0.000924734201622879</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.07842900189025E-5</c:v>
+                  <c:v>0.00250725078720256</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.000125498575873606</c:v>
+                  <c:v>0.00677979717020096</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.000757384844848005</c:v>
+                  <c:v>0.0182016564954868</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.00455650609359868</c:v>
+                  <c:v>0.0479459906457481</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0269048196871895</c:v>
+                  <c:v>0.120389765252305</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.143234754423519</c:v>
+                  <c:v>0.271347651765369</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.503969300008427</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.863405906062069</c:v>
+                  <c:v>0.736125666422664</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2075,40 +2079,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>3.44186832288032E-6</c:v>
+                  <c:v>0.000924734201622879</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.07842900189025E-5</c:v>
+                  <c:v>0.00250725078720256</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.000125498575873606</c:v>
+                  <c:v>0.00677979717020096</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.000757384844848005</c:v>
+                  <c:v>0.0182016564954868</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.00455650609359868</c:v>
+                  <c:v>0.0479459906457481</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0269048196871895</c:v>
+                  <c:v>0.120389765252305</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.143234754423519</c:v>
+                  <c:v>0.271347651765369</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.503969300008427</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.863405906062069</c:v>
+                  <c:v>0.736125666422664</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.977604743980559</c:v>
+                  <c:v>0.886015569324231</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.99800284029573</c:v>
+                  <c:v>0.957260139401945</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.99996094862293</c:v>
+                  <c:v>0.985858274238561</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2181,40 +2185,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.000184958102037206</c:v>
+                  <c:v>0.00889760463762272</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.00105945130775323</c:v>
+                  <c:v>0.0232045300234742</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.00604959323176044</c:v>
+                  <c:v>0.0593771870135077</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0339042492844078</c:v>
+                  <c:v>0.144831273829794</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.171317718698994</c:v>
+                  <c:v>0.317105891170036</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.57212086219422</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.930311835222866</c:v>
+                  <c:v>0.811785189038037</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.999785098266245</c:v>
+                  <c:v>0.949152457240892</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.968734940602928</c:v>
+                  <c:v>0.996162199857341</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.921268145493215</c:v>
+                  <c:v>0.996598040085168</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.873382884952051</c:v>
+                  <c:v>0.978266471503519</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.827556222769078</c:v>
+                  <c:v>0.953387814914105</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2287,40 +2291,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.000236016660794446</c:v>
+                  <c:v>0.0104809065062376</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.00130411443307029</c:v>
+                  <c:v>0.0267924624049293</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.00718333751868298</c:v>
+                  <c:v>0.0672006668440396</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0388346709698444</c:v>
+                  <c:v>0.160668383544182</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.189292400436503</c:v>
+                  <c:v>0.344815273606059</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.609795308957086</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.956511595644824</c:v>
+                  <c:v>0.848108719735898</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.991593682693956</c:v>
+                  <c:v>0.971987079119389</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.926824391816066</c:v>
+                  <c:v>0.999927894371866</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.850244720974731</c:v>
+                  <c:v>0.980556820419031</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.777549354222397</c:v>
+                  <c:v>0.943461137120481</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.710699803278136</c:v>
+                  <c:v>0.901260948984255</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2393,40 +2397,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.000420090485258927</c:v>
+                  <c:v>0.0152735550354282</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.00212143329994615</c:v>
+                  <c:v>0.0371397685639704</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.010679562204185</c:v>
+                  <c:v>0.088610547854341</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0527667448218893</c:v>
+                  <c:v>0.201524354750418</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.235064663905296</c:v>
+                  <c:v>0.411404355776717</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.692072744230843</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.992136443668782</c:v>
+                  <c:v>0.91559723194116</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.940001207056023</c:v>
+                  <c:v>0.998156663384124</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.802981632892002</c:v>
+                  <c:v>0.976769698183685</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.673233312648593</c:v>
+                  <c:v>0.911132493809258</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.562682119785187</c:v>
+                  <c:v>0.833907849363797</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.470040026140101</c:v>
+                  <c:v>0.757756858652056</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2499,40 +2503,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1.6454354597384E-5</c:v>
+                  <c:v>0.00253939734192572</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.31439241539374E-5</c:v>
+                  <c:v>0.00623614727136644</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.000420090485258927</c:v>
+                  <c:v>0.0152735550354282</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.00212143329994615</c:v>
+                  <c:v>0.0371397685639704</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.010679562204185</c:v>
+                  <c:v>0.088610547854341</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0527667448218893</c:v>
+                  <c:v>0.201524354750418</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.235064663905296</c:v>
+                  <c:v>0.411404355776717</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.692072744230843</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.992136443668782</c:v>
+                  <c:v>0.91559723194116</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.940001207056023</c:v>
+                  <c:v>0.998156663384124</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.802981632892002</c:v>
+                  <c:v>0.976769698183685</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.673233312648593</c:v>
+                  <c:v>0.911132493809258</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2605,40 +2609,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1.27529638334242E-7</c:v>
+                  <c:v>0.00017080936882517</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.44418730981964E-7</c:v>
+                  <c:v>0.000420090485258927</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.25630453432759E-6</c:v>
+                  <c:v>0.00103303683316333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.6454354597384E-5</c:v>
+                  <c:v>0.00253939734192572</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.31439241539374E-5</c:v>
+                  <c:v>0.00623614727136644</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.000420090485258927</c:v>
+                  <c:v>0.0152735550354282</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.00212143329994615</c:v>
+                  <c:v>0.0371397685639704</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.010679562204185</c:v>
+                  <c:v>0.088610547854341</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0527667448218893</c:v>
+                  <c:v>0.201524354750418</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.235064663905296</c:v>
+                  <c:v>0.411404355776717</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.692072744230843</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.992136443668782</c:v>
+                  <c:v>0.91559723194116</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2711,40 +2715,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>4.99455745172256E-9</c:v>
+                  <c:v>2.82357071272519E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.52379498417872E-8</c:v>
+                  <c:v>6.94478999050098E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.27529638334242E-7</c:v>
+                  <c:v>0.00017080936882517</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.44418730981964E-7</c:v>
+                  <c:v>0.000420090485258927</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.25630453432759E-6</c:v>
+                  <c:v>0.00103303683316333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.6454354597384E-5</c:v>
+                  <c:v>0.00253939734192572</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.31439241539374E-5</c:v>
+                  <c:v>0.00623614727136644</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.000420090485258927</c:v>
+                  <c:v>0.0152735550354282</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.00212143329994615</c:v>
+                  <c:v>0.0371397685639704</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.010679562204185</c:v>
+                  <c:v>0.088610547854341</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0527667448218893</c:v>
+                  <c:v>0.201524354750418</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.235064663905296</c:v>
+                  <c:v>0.411404355776717</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2817,40 +2821,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>2.43246411693427E-9</c:v>
+                  <c:v>1.83410801452755E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.29734476639436E-8</c:v>
+                  <c:v>4.64851451922579E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.91933506156914E-8</c:v>
+                  <c:v>0.000117813646126152</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.69039871752177E-7</c:v>
+                  <c:v>0.000298576476499349</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.96825811789324E-6</c:v>
+                  <c:v>0.000756584403846027</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0497594470579E-5</c:v>
+                  <c:v>0.00191646579770179</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.59875366190396E-5</c:v>
+                  <c:v>0.00484970821248869</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.000298576476499349</c:v>
+                  <c:v>0.0122396279137014</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.00159145376904792</c:v>
+                  <c:v>0.030668752365479</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.00845609779874339</c:v>
+                  <c:v>0.0753999697884457</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.04409900116584</c:v>
+                  <c:v>0.176702268053627</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.207351747695276</c:v>
+                  <c:v>0.371716898268432</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2923,40 +2927,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>9.10290048819493E-10</c:v>
+                  <c:v>1.00769091325969E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.21744596075123E-9</c:v>
+                  <c:v>2.65820459758305E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.99044706682321E-8</c:v>
+                  <c:v>7.01199486155072E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.71401355235419E-7</c:v>
+                  <c:v>0.000184958102037206</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.82408733911871E-7</c:v>
+                  <c:v>0.000487805772654149</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.63078775957091E-6</c:v>
+                  <c:v>0.00128606347195833</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.22730438752744E-5</c:v>
+                  <c:v>0.00338726144648474</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.000184958102037206</c:v>
+                  <c:v>0.00889760463762272</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.00105945130775323</c:v>
+                  <c:v>0.0232045300234742</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.00604959323176044</c:v>
+                  <c:v>0.0593771870135077</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0339042492844078</c:v>
+                  <c:v>0.144831273829794</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.171317718698994</c:v>
+                  <c:v>0.317105891170036</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3029,40 +3033,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>4.2860183766294E-10</c:v>
+                  <c:v>6.26771383716436E-6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.58822701094739E-9</c:v>
+                  <c:v>1.70202040432798E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.56297019761795E-8</c:v>
+                  <c:v>4.62181424246102E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.43841352204596E-8</c:v>
+                  <c:v>0.000125498575873606</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.69963620249707E-7</c:v>
+                  <c:v>0.000340727285042406</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.44186832288032E-6</c:v>
+                  <c:v>0.000924734201622879</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.07842900189025E-5</c:v>
+                  <c:v>0.00250725078720256</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.000125498575873606</c:v>
+                  <c:v>0.00677979717020096</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.000757384844848005</c:v>
+                  <c:v>0.0182016564954868</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.00455650609359868</c:v>
+                  <c:v>0.0479459906457481</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0269048196871895</c:v>
+                  <c:v>0.120389765252305</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.143234754423519</c:v>
+                  <c:v>0.271347651765369</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3135,40 +3139,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1.56297019761795E-8</c:v>
+                  <c:v>4.62181424246102E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.43841352204596E-8</c:v>
+                  <c:v>0.000125498575873606</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.69963620249707E-7</c:v>
+                  <c:v>0.000340727285042406</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.44186832288032E-6</c:v>
+                  <c:v>0.000924734201622879</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.07842900189025E-5</c:v>
+                  <c:v>0.00250725078720256</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.000125498575873606</c:v>
+                  <c:v>0.00677979717020096</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.000757384844848005</c:v>
+                  <c:v>0.0182016564954868</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.00455650609359868</c:v>
+                  <c:v>0.0479459906457481</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0269048196871895</c:v>
+                  <c:v>0.120389765252305</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.143234754423519</c:v>
+                  <c:v>0.271347651765369</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.503969300008427</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.863405906062069</c:v>
+                  <c:v>0.736125666422664</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3241,40 +3245,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>3.44186832288032E-6</c:v>
+                  <c:v>0.000924734201622879</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.07842900189025E-5</c:v>
+                  <c:v>0.00250725078720256</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.000125498575873606</c:v>
+                  <c:v>0.00677979717020096</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.000757384844848005</c:v>
+                  <c:v>0.0182016564954868</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.00455650609359868</c:v>
+                  <c:v>0.0479459906457481</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0269048196871895</c:v>
+                  <c:v>0.120389765252305</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.143234754423519</c:v>
+                  <c:v>0.271347651765369</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.503969300008427</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.863405906062069</c:v>
+                  <c:v>0.736125666422664</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.977604743980559</c:v>
+                  <c:v>0.886015569324231</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.99800284029573</c:v>
+                  <c:v>0.957260139401945</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.99996094862293</c:v>
+                  <c:v>0.985858274238561</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3289,11 +3293,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2090330984"/>
-        <c:axId val="-2090328056"/>
+        <c:axId val="-2094193800"/>
+        <c:axId val="-2094191992"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2090330984"/>
+        <c:axId val="-2094193800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3303,12 +3307,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2090328056"/>
+        <c:crossAx val="-2094191992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2090328056"/>
+        <c:axId val="-2094191992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3319,13 +3323,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2090330984"/>
+        <c:crossAx val="-2094193800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3471,85 +3476,85 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>4.2860183766294E-10</c:v>
+                  <c:v>6.26771383716436E-6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.58822701094739E-9</c:v>
+                  <c:v>1.70202040432798E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.56297019761795E-8</c:v>
+                  <c:v>4.62181424246102E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.43841352204596E-8</c:v>
+                  <c:v>0.000125498575873606</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.69963620249707E-7</c:v>
+                  <c:v>0.000340727285042406</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.44186832288032E-6</c:v>
+                  <c:v>0.000924734201622879</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.07842900189025E-5</c:v>
+                  <c:v>0.00250725078720256</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.000125498575873606</c:v>
+                  <c:v>0.00677979717020096</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.000757384844848005</c:v>
+                  <c:v>0.0182016564954868</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.00455650609359868</c:v>
+                  <c:v>0.0479459906457481</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0269048196871895</c:v>
+                  <c:v>0.120389765252305</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.143234754423519</c:v>
+                  <c:v>0.271347651765369</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.503969300008427</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.863405906062069</c:v>
+                  <c:v>0.736125666422664</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.977604743980559</c:v>
+                  <c:v>0.886015569324231</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.99800284029573</c:v>
+                  <c:v>0.957260139401945</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.99996094862293</c:v>
+                  <c:v>0.985858274238561</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>0.996199148215561</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.999431731500242</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.999995788667326</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.999571940383008</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>0.998784592129674</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.997091094904048</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.995314892618906</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.993527733653741</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.991741453694597</c:v>
-                </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.989958000869294</c:v>
+                  <c:v>0.997864140414169</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.988177691800074</c:v>
+                  <c:v>0.996895382872721</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.9864005739154</c:v>
+                  <c:v>0.995909499898858</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.984626650234944</c:v>
+                  <c:v>0.994917952308891</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.982855916459501</c:v>
+                  <c:v>0.993924951767225</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3667,85 +3672,85 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>1.56297019761795E-8</c:v>
+                  <c:v>4.62181424246102E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.43841352204596E-8</c:v>
+                  <c:v>0.000125498575873606</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.69963620249707E-7</c:v>
+                  <c:v>0.000340727285042406</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.44186832288032E-6</c:v>
+                  <c:v>0.000924734201622879</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.07842900189025E-5</c:v>
+                  <c:v>0.00250725078720256</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.000125498575873606</c:v>
+                  <c:v>0.00677979717020096</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.000757384844848005</c:v>
+                  <c:v>0.0182016564954868</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.00455650609359868</c:v>
+                  <c:v>0.0479459906457481</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0269048196871895</c:v>
+                  <c:v>0.120389765252305</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.143234754423519</c:v>
+                  <c:v>0.271347651765369</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.503969300008427</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.863405906062069</c:v>
+                  <c:v>0.736125666422664</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.977604743980559</c:v>
+                  <c:v>0.886015569324231</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.99800284029573</c:v>
+                  <c:v>0.957260139401945</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.99996094862293</c:v>
+                  <c:v>0.985858274238561</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>0.996199148215561</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.999431731500242</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.999995788667326</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.999571940383008</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>0.998784592129674</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.997091094904048</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.995314892618906</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.993527733653741</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.991741453694597</c:v>
-                </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.989958000869294</c:v>
+                  <c:v>0.997864140414169</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.988177691800074</c:v>
+                  <c:v>0.996895382872721</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.9864005739154</c:v>
+                  <c:v>0.995909499898858</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.984626650234944</c:v>
+                  <c:v>0.994917952308891</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.982855916459501</c:v>
+                  <c:v>0.993924951767225</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.981088367090863</c:v>
+                  <c:v>0.992932045523182</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.979323996441602</c:v>
+                  <c:v>0.991939801586744</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3863,85 +3868,85 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>3.44186832288032E-6</c:v>
+                  <c:v>0.000924734201622879</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.07842900189025E-5</c:v>
+                  <c:v>0.00250725078720256</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.000125498575873606</c:v>
+                  <c:v>0.00677979717020096</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.000757384844848005</c:v>
+                  <c:v>0.0182016564954868</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.00455650609359868</c:v>
+                  <c:v>0.0479459906457481</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0269048196871895</c:v>
+                  <c:v>0.120389765252305</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.143234754423519</c:v>
+                  <c:v>0.271347651765369</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.503969300008427</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.863405906062069</c:v>
+                  <c:v>0.736125666422664</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.977604743980559</c:v>
+                  <c:v>0.886015569324231</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.99800284029573</c:v>
+                  <c:v>0.957260139401945</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.99996094862293</c:v>
+                  <c:v>0.985858274238561</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>0.996199148215561</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.999431731500242</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.999995788667326</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.999571940383008</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>0.998784592129674</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.997091094904048</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.995314892618906</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.993527733653741</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.991741453694597</c:v>
-                </c:pt>
                 <c:pt idx="17">
+                  <c:v>0.997864140414169</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.996895382872721</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.995909499898858</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.994917952308891</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.993924951767225</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.992932045523182</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.991939801586744</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.990948428081675</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>0.989958000869294</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.988177691800074</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.9864005739154</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.984626650234944</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.982855916459501</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.981088367090863</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.979323996441602</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.97756279880166</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.97580476846583</c:v>
-                </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.974049899738267</c:v>
+                  <c:v>0.988968547203455</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4059,85 +4064,85 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>0.000184958102037206</c:v>
+                  <c:v>0.00889760463762272</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.00105945130775323</c:v>
+                  <c:v>0.0232045300234742</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.00604959323176044</c:v>
+                  <c:v>0.0593771870135077</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0339042492844078</c:v>
+                  <c:v>0.144831273829794</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.171317718698994</c:v>
+                  <c:v>0.317105891170036</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.57212086219422</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.930311835222866</c:v>
+                  <c:v>0.811785189038037</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.999785098266245</c:v>
+                  <c:v>0.949152457240892</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.968734940602928</c:v>
+                  <c:v>0.996162199857341</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.921268145493215</c:v>
+                  <c:v>0.996598040085168</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>0.978266471503519</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.953387814914105</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.926659311456699</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.899790574088238</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>0.873382884952051</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.827556222769078</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.78406668580066</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.742852042608783</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.703802202994864</c:v>
-                </c:pt>
                 <c:pt idx="15">
+                  <c:v>0.847636635647502</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.822608793479986</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.798305457450254</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.774714974473788</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.751819760949398</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.729600512543821</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.70803769558404</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.687112068141769</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>0.666804855025339</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.631752336453423</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.598542448171251</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.567078332698608</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.537268219331018</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.509025160802088</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.482266780361895</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.456915031614229</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.432895970894624</c:v>
-                </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.410139541600837</c:v>
+                  <c:v>0.64709779953753</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.388579369858564</c:v>
+                  <c:v>0.62797317155432</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.36815257092824</c:v>
+                  <c:v>0.609413760317185</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4255,85 +4260,85 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>0.000236016660794446</c:v>
+                  <c:v>0.0104809065062376</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.00130411443307029</c:v>
+                  <c:v>0.0267924624049293</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.00718333751868298</c:v>
+                  <c:v>0.0672006668440396</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0388346709698444</c:v>
+                  <c:v>0.160668383544182</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.189292400436503</c:v>
+                  <c:v>0.344815273606059</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.609795308957086</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.956511595644824</c:v>
+                  <c:v>0.848108719735898</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.991593682693956</c:v>
+                  <c:v>0.971987079119389</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.926824391816066</c:v>
+                  <c:v>0.999927894371866</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.850244720974731</c:v>
+                  <c:v>0.980556820419031</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>0.943461137120481</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.901260948984255</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.858647997153439</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.817241885034476</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>0.777549354222397</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.710699803278136</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.649541773421268</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.593638153729149</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.54254467388104</c:v>
-                </c:pt>
                 <c:pt idx="15">
+                  <c:v>0.739685520392149</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.703630823915914</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.669321409929526</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.63668069235136</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.605630273899096</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.57609363971102</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.547997327325482</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.521271219380787</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>0.495848534996429</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.453171445065221</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.414167516789848</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.378520609652067</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.345941789448764</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.316166989668759</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.288954871612059</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.264084868302373</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.241355396699794</c:v>
-                </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.220582223777452</c:v>
+                  <c:v>0.471665721124987</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.20159697322669</c:v>
+                  <c:v>0.448662314051438</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.184245760688161</c:v>
+                  <c:v>0.426780795346359</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4348,11 +4353,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2093302520"/>
-        <c:axId val="-2093299448"/>
+        <c:axId val="-2094210152"/>
+        <c:axId val="-2094206312"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2093302520"/>
+        <c:axId val="-2094210152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4362,12 +4367,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2093299448"/>
+        <c:crossAx val="-2094206312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2093299448"/>
+        <c:axId val="-2094206312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4378,13 +4383,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2093302520"/>
+        <c:crossAx val="-2094210152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4540,85 +4546,85 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>0.000420090485258927</c:v>
+                  <c:v>0.0152735550354282</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.00212143329994615</c:v>
+                  <c:v>0.0371397685639704</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.010679562204185</c:v>
+                  <c:v>0.088610547854341</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0527667448218893</c:v>
+                  <c:v>0.201524354750418</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.235064663905296</c:v>
+                  <c:v>0.411404355776717</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.692072744230843</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.992136443668782</c:v>
+                  <c:v>0.91559723194116</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.940001207056023</c:v>
+                  <c:v>0.998156663384124</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.802981632892002</c:v>
+                  <c:v>0.976769698183685</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.673233312648593</c:v>
+                  <c:v>0.911132493809258</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>0.833907849363797</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.757756858652056</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.686720100204495</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.621728091978439</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>0.562682119785187</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.470040026140101</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.392617117152748</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.327942305479315</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.273920566271074</c:v>
-                </c:pt>
                 <c:pt idx="15">
+                  <c:v>0.509175552260949</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.460734313693398</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.416894048083487</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.377222799142616</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.341325791285925</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.30884451003293</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.279454123070007</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.252860565165605</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>0.228797706895057</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.191107911438104</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.159626745924705</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.133331465861735</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.1113678016845</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.0930222072583041</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.0776986787227088</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.0648993918031102</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.0542085287118492</c:v>
-                </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.0452787692374406</c:v>
+                  <c:v>0.207024728352537</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.0378200071533993</c:v>
+                  <c:v>0.187323721335539</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.0315899253705956</c:v>
+                  <c:v>0.169497512570974</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4736,85 +4742,85 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>1.6454354597384E-5</c:v>
+                  <c:v>0.00253939734192572</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.31439241539374E-5</c:v>
+                  <c:v>0.00623614727136644</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.000420090485258927</c:v>
+                  <c:v>0.0152735550354282</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.00212143329994615</c:v>
+                  <c:v>0.0371397685639704</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.010679562204185</c:v>
+                  <c:v>0.088610547854341</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0527667448218893</c:v>
+                  <c:v>0.201524354750418</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.235064663905296</c:v>
+                  <c:v>0.411404355776717</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.692072744230843</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.992136443668782</c:v>
+                  <c:v>0.91559723194116</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.940001207056023</c:v>
+                  <c:v>0.998156663384124</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.802981632892002</c:v>
+                  <c:v>0.976769698183685</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.673233312648593</c:v>
+                  <c:v>0.911132493809258</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>0.833907849363797</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.757756858652056</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.686720100204495</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.621728091978439</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>0.562682119785187</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.470040026140101</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.392617117152748</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.327942305479315</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.273920566271074</c:v>
-                </c:pt>
                 <c:pt idx="17">
+                  <c:v>0.509175552260949</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.460734313693398</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.416894048083487</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.377222799142616</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.341325791285925</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.30884451003293</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.279454123070007</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.252860565165605</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>0.228797706895057</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.191107911438104</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.159626745924705</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.133331465861735</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.1113678016845</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.0930222072583041</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.0776986787227088</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.0648993918031102</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.0542085287118492</c:v>
-                </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.0452787692374406</c:v>
+                  <c:v>0.207024728352537</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4929,85 +4935,85 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>1.27529638334242E-7</c:v>
+                  <c:v>0.00017080936882517</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.44418730981964E-7</c:v>
+                  <c:v>0.000420090485258927</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.25630453432759E-6</c:v>
+                  <c:v>0.00103303683316333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.6454354597384E-5</c:v>
+                  <c:v>0.00253939734192572</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.31439241539374E-5</c:v>
+                  <c:v>0.00623614727136644</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.000420090485258927</c:v>
+                  <c:v>0.0152735550354282</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.00212143329994615</c:v>
+                  <c:v>0.0371397685639704</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.010679562204185</c:v>
+                  <c:v>0.088610547854341</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0527667448218893</c:v>
+                  <c:v>0.201524354750418</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.235064663905296</c:v>
+                  <c:v>0.411404355776717</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.692072744230843</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.992136443668782</c:v>
+                  <c:v>0.91559723194116</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.940001207056023</c:v>
+                  <c:v>0.998156663384124</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.802981632892002</c:v>
+                  <c:v>0.976769698183685</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.673233312648593</c:v>
+                  <c:v>0.911132493809258</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>0.833907849363797</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.757756858652056</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.686720100204495</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.621728091978439</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>0.562682119785187</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.470040026140101</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.392617117152748</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.327942305479315</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.273920566271074</c:v>
-                </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.228797706895057</c:v>
+                  <c:v>0.509175552260949</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.191107911438104</c:v>
+                  <c:v>0.460734313693398</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.159626745924705</c:v>
+                  <c:v>0.416894048083487</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.133331465861735</c:v>
+                  <c:v>0.377222799142616</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.1113678016845</c:v>
+                  <c:v>0.341325791285925</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.0930222072583041</c:v>
+                  <c:v>0.30884451003293</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.0776986787227088</c:v>
+                  <c:v>0.279454123070007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5080,40 +5086,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>4.99455745172256E-9</c:v>
+                  <c:v>2.82357071272519E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.52379498417872E-8</c:v>
+                  <c:v>6.94478999050098E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.27529638334242E-7</c:v>
+                  <c:v>0.00017080936882517</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.44418730981964E-7</c:v>
+                  <c:v>0.000420090485258927</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.25630453432759E-6</c:v>
+                  <c:v>0.00103303683316333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.6454354597384E-5</c:v>
+                  <c:v>0.00253939734192572</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.31439241539374E-5</c:v>
+                  <c:v>0.00623614727136644</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.000420090485258927</c:v>
+                  <c:v>0.0152735550354282</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.00212143329994615</c:v>
+                  <c:v>0.0371397685639704</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.010679562204185</c:v>
+                  <c:v>0.088610547854341</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0527667448218893</c:v>
+                  <c:v>0.201524354750418</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.235064663905296</c:v>
+                  <c:v>0.411404355776717</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5231,85 +5237,85 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>2.43246411693427E-9</c:v>
+                  <c:v>1.83410801452755E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.29734476639436E-8</c:v>
+                  <c:v>4.64851451922579E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.91933506156914E-8</c:v>
+                  <c:v>0.000117813646126152</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.69039871752177E-7</c:v>
+                  <c:v>0.000298576476499349</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.96825811789324E-6</c:v>
+                  <c:v>0.000756584403846027</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0497594470579E-5</c:v>
+                  <c:v>0.00191646579770179</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.59875366190396E-5</c:v>
+                  <c:v>0.00484970821248869</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.000298576476499349</c:v>
+                  <c:v>0.0122396279137014</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.00159145376904792</c:v>
+                  <c:v>0.030668752365479</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.00845609779874339</c:v>
+                  <c:v>0.0753999697884457</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.04409900116584</c:v>
+                  <c:v>0.176702268053627</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.207351747695276</c:v>
+                  <c:v>0.371716898268432</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.644353214418538</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.97497966598245</c:v>
+                  <c:v>0.878426763174193</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.974999670350385</c:v>
+                  <c:v>0.986798845647615</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.879090468187905</c:v>
+                  <c:v>0.995063818532185</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.777938847303969</c:v>
+                  <c:v>0.956465097096436</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>0.902058052199605</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.844646790671728</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.788776301776287</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.735873934588074</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>0.686269785483728</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.605087954382221</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.533463607553147</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.470310760381392</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.414633141864003</c:v>
-                </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.365546761948507</c:v>
+                  <c:v>0.639923620974556</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.322271456624276</c:v>
+                  <c:v>0.596677952231634</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.284119301451516</c:v>
+                  <c:v>0.556344708639643</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.250483794504396</c:v>
+                  <c:v>0.518734382764222</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.220830232126401</c:v>
+                  <c:v>0.483665423722016</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5324,11 +5330,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2091558008"/>
-        <c:axId val="-2091554936"/>
+        <c:axId val="-2114085224"/>
+        <c:axId val="-2114081608"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2091558008"/>
+        <c:axId val="-2114085224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5338,12 +5344,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2091554936"/>
+        <c:crossAx val="-2114081608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2091554936"/>
+        <c:axId val="-2114081608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5353,13 +5359,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2091558008"/>
+        <c:crossAx val="-2114085224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5505,85 +5512,85 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>9.10290048819493E-10</c:v>
+                  <c:v>1.00769091325969E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.21744596075123E-9</c:v>
+                  <c:v>2.65820459758305E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.99044706682321E-8</c:v>
+                  <c:v>7.01199486155072E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.71401355235419E-7</c:v>
+                  <c:v>0.000184958102037206</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.82408733911871E-7</c:v>
+                  <c:v>0.000487805772654149</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.63078775957091E-6</c:v>
+                  <c:v>0.00128606347195833</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.22730438752744E-5</c:v>
+                  <c:v>0.00338726144648474</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.000184958102037206</c:v>
+                  <c:v>0.00889760463762272</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.00105945130775323</c:v>
+                  <c:v>0.0232045300234742</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.00604959323176044</c:v>
+                  <c:v>0.0593771870135077</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0339042492844078</c:v>
+                  <c:v>0.144831273829794</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.171317718698994</c:v>
+                  <c:v>0.317105891170036</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.57212086219422</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.930311835222866</c:v>
+                  <c:v>0.811785189038037</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.999785098266245</c:v>
+                  <c:v>0.949152457240892</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.968734940602928</c:v>
+                  <c:v>0.996162199857341</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.921268145493215</c:v>
+                  <c:v>0.996598040085168</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>0.978266471503519</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.953387814914105</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.926659311456699</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.899790574088238</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>0.873382884952051</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.827556222769078</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.78406668580066</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.742852042608783</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.703802202994864</c:v>
-                </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.666804855025339</c:v>
+                  <c:v>0.847636635647502</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.631752336453423</c:v>
+                  <c:v>0.822608793479986</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.598542448171251</c:v>
+                  <c:v>0.798305457450254</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.567078332698608</c:v>
+                  <c:v>0.774714974473788</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.537268219331018</c:v>
+                  <c:v>0.751819760949398</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5701,85 +5708,85 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>4.2860183766294E-10</c:v>
+                  <c:v>6.26771383716436E-6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.58822701094739E-9</c:v>
+                  <c:v>1.70202040432798E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.56297019761795E-8</c:v>
+                  <c:v>4.62181424246102E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.43841352204596E-8</c:v>
+                  <c:v>0.000125498575873606</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.69963620249707E-7</c:v>
+                  <c:v>0.000340727285042406</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.44186832288032E-6</c:v>
+                  <c:v>0.000924734201622879</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.07842900189025E-5</c:v>
+                  <c:v>0.00250725078720256</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.000125498575873606</c:v>
+                  <c:v>0.00677979717020096</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.000757384844848005</c:v>
+                  <c:v>0.0182016564954868</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.00455650609359868</c:v>
+                  <c:v>0.0479459906457481</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0269048196871895</c:v>
+                  <c:v>0.120389765252305</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.143234754423519</c:v>
+                  <c:v>0.271347651765369</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.503969300008427</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.863405906062069</c:v>
+                  <c:v>0.736125666422664</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.977604743980559</c:v>
+                  <c:v>0.886015569324231</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.99800284029573</c:v>
+                  <c:v>0.957260139401945</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.99996094862293</c:v>
+                  <c:v>0.985858274238561</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>0.996199148215561</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.999431731500242</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.999995788667326</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.999571940383008</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>0.998784592129674</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.997091094904048</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.995314892618906</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.993527733653741</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.991741453694597</c:v>
-                </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.989958000869294</c:v>
+                  <c:v>0.997864140414169</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.988177691800074</c:v>
+                  <c:v>0.996895382872721</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.9864005739154</c:v>
+                  <c:v>0.995909499898858</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.984626650234944</c:v>
+                  <c:v>0.994917952308891</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.982855916459501</c:v>
+                  <c:v>0.993924951767225</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5897,85 +5904,85 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>1.56297019761795E-8</c:v>
+                  <c:v>4.62181424246102E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.43841352204596E-8</c:v>
+                  <c:v>0.000125498575873606</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.69963620249707E-7</c:v>
+                  <c:v>0.000340727285042406</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.44186832288032E-6</c:v>
+                  <c:v>0.000924734201622879</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.07842900189025E-5</c:v>
+                  <c:v>0.00250725078720256</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.000125498575873606</c:v>
+                  <c:v>0.00677979717020096</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.000757384844848005</c:v>
+                  <c:v>0.0182016564954868</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.00455650609359868</c:v>
+                  <c:v>0.0479459906457481</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0269048196871895</c:v>
+                  <c:v>0.120389765252305</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.143234754423519</c:v>
+                  <c:v>0.271347651765369</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.503969300008427</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.863405906062069</c:v>
+                  <c:v>0.736125666422664</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.977604743980559</c:v>
+                  <c:v>0.886015569324231</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.99800284029573</c:v>
+                  <c:v>0.957260139401945</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.99996094862293</c:v>
+                  <c:v>0.985858274238561</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>0.996199148215561</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.999431731500242</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.999995788667326</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.999571940383008</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>0.998784592129674</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.997091094904048</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.995314892618906</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.993527733653741</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.991741453694597</c:v>
-                </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.989958000869294</c:v>
+                  <c:v>0.997864140414169</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.988177691800074</c:v>
+                  <c:v>0.996895382872721</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.9864005739154</c:v>
+                  <c:v>0.995909499898858</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.984626650234944</c:v>
+                  <c:v>0.994917952308891</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.982855916459501</c:v>
+                  <c:v>0.993924951767225</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.981088367090863</c:v>
+                  <c:v>0.992932045523182</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.979323996441602</c:v>
+                  <c:v>0.991939801586744</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6093,85 +6100,85 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>3.44186832288032E-6</c:v>
+                  <c:v>0.000924734201622879</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.07842900189025E-5</c:v>
+                  <c:v>0.00250725078720256</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.000125498575873606</c:v>
+                  <c:v>0.00677979717020096</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.000757384844848005</c:v>
+                  <c:v>0.0182016564954868</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.00455650609359868</c:v>
+                  <c:v>0.0479459906457481</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0269048196871895</c:v>
+                  <c:v>0.120389765252305</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.143234754423519</c:v>
+                  <c:v>0.271347651765369</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.503969300008427</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.863405906062069</c:v>
+                  <c:v>0.736125666422664</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.977604743980559</c:v>
+                  <c:v>0.886015569324231</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.99800284029573</c:v>
+                  <c:v>0.957260139401945</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.99996094862293</c:v>
+                  <c:v>0.985858274238561</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>0.996199148215561</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.999431731500242</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.999995788667326</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.999571940383008</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>0.998784592129674</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.997091094904048</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.995314892618906</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.993527733653741</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.991741453694597</c:v>
-                </c:pt>
                 <c:pt idx="17">
+                  <c:v>0.997864140414169</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.996895382872721</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.995909499898858</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.994917952308891</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.993924951767225</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.992932045523182</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.991939801586744</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.990948428081675</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>0.989958000869294</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.988177691800074</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.9864005739154</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.984626650234944</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.982855916459501</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.981088367090863</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.979323996441602</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.97756279880166</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.97580476846583</c:v>
-                </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.974049899738267</c:v>
+                  <c:v>0.988968547203455</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6289,85 +6296,85 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>0.000133201926567508</c:v>
+                  <c:v>0.00708173544090049</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.000798107513171306</c:v>
+                  <c:v>0.018936370103946</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.00476705127845321</c:v>
+                  <c:v>0.0496822135779966</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0279460887360362</c:v>
+                  <c:v>0.124251325619088</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.147710862976146</c:v>
+                  <c:v>0.278933292265572</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.515989885925227</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.87765777030944</c:v>
+                  <c:v>0.75067489163098</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.986612394853489</c:v>
+                  <c:v>0.899920417024609</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.999972654521812</c:v>
+                  <c:v>0.968401712415156</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.994746606287283</c:v>
+                  <c:v>0.993351338835471</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>0.99976374537057</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.999003877269401</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.995577408083301</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.991182761438855</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>0.986448325797102</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.977710824296225</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.968967404385335</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.96028852630347</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.951685147614463</c:v>
-                </c:pt>
                 <c:pt idx="15">
+                  <c:v>0.981604959677461</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.976737213872182</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.971875977092737</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.967032481252741</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.962210761435431</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.957412218482464</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.9526372893303</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.947886058456562</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>0.943158481698932</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.934708150828227</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.926333521785467</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.918033924619169</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.909808688433177</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.901657147204234</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.893578640689963</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.88557251453297</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.877638120233647</c:v>
-                </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.869774815101881</c:v>
+                  <c:v>0.938454468181533</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.861981962205684</c:v>
+                  <c:v>0.933773910301851</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.854258930319715</c:v>
+                  <c:v>0.929116694705434</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6382,11 +6389,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2091674264"/>
-        <c:axId val="-2091671192"/>
+        <c:axId val="-2114572296"/>
+        <c:axId val="-2114569416"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2091674264"/>
+        <c:axId val="-2114572296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6396,12 +6403,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2091671192"/>
+        <c:crossAx val="-2114569416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2091671192"/>
+        <c:axId val="-2114569416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6412,13 +6419,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2091674264"/>
+        <c:crossAx val="-2114572296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -9429,11 +9437,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2091369144"/>
-        <c:axId val="-2091366216"/>
+        <c:axId val="-2118812168"/>
+        <c:axId val="-2118818152"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2091369144"/>
+        <c:axId val="-2118812168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9443,12 +9451,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2091366216"/>
+        <c:crossAx val="-2118818152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2091366216"/>
+        <c:axId val="-2118818152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9459,14 +9467,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2091369144"/>
+        <c:crossAx val="-2118812168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -10489,11 +10496,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2091350648"/>
-        <c:axId val="-2091347576"/>
+        <c:axId val="-2118834632"/>
+        <c:axId val="-2118842600"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2091350648"/>
+        <c:axId val="-2118834632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10503,12 +10510,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2091347576"/>
+        <c:crossAx val="-2118842600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2091347576"/>
+        <c:axId val="-2118842600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10519,14 +10526,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2091350648"/>
+        <c:crossAx val="-2118834632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -11466,11 +11472,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2091307416"/>
-        <c:axId val="-2091304344"/>
+        <c:axId val="-2122487528"/>
+        <c:axId val="-2122502680"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2091307416"/>
+        <c:axId val="-2122487528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11480,12 +11486,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2091304344"/>
+        <c:crossAx val="-2122502680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2091304344"/>
+        <c:axId val="-2122502680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11495,14 +11501,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2091307416"/>
+        <c:crossAx val="-2122487528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -12525,11 +12530,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2091263512"/>
-        <c:axId val="-2091260440"/>
+        <c:axId val="-2122550680"/>
+        <c:axId val="-2122553688"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2091263512"/>
+        <c:axId val="-2122550680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12539,12 +12544,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2091260440"/>
+        <c:crossAx val="-2122553688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2091260440"/>
+        <c:axId val="-2122553688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12555,7 +12560,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2091263512"/>
+        <c:crossAx val="-2122550680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13165,8 +13170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D1:AA53"/>
   <sheetViews>
-    <sheetView topLeftCell="G42" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20:K25"/>
+    <sheetView tabSelected="1" topLeftCell="E35" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3:AA3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -13273,49 +13278,49 @@
         <v>3</v>
       </c>
       <c r="M3">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="N3">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="O3">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="P3">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="Q3">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="R3">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="S3">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="T3">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="U3">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="V3">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="W3">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="X3">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="Y3">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="Z3">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="AA3">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="4:27">
@@ -13393,63 +13398,63 @@
       </c>
       <c r="M6">
         <f>(1/(1-M$4))*((1-M$4)/M$4)^M$4*((EXP(M$3*M$4*(M$2-$L6)))/(1+EXP(M$3*(M$2-$L6))))</f>
-        <v>4.2860183766294028E-10</v>
+        <v>6.2677138371643653E-6</v>
       </c>
       <c r="N6">
         <f t="shared" ref="N6:AA21" si="0">(1/(1-N$4))*((1-N$4)/N$4)^N$4*((EXP(N$3*N$4*(N$2-$L6)))/(1+EXP(N$3*(N$2-$L6))))</f>
-        <v>1.562970197617951E-8</v>
+        <v>4.6218142424610195E-5</v>
       </c>
       <c r="O6">
         <f t="shared" si="0"/>
-        <v>3.4418683228803181E-6</v>
+        <v>9.247342016228795E-4</v>
       </c>
       <c r="P6">
         <f t="shared" si="0"/>
-        <v>1.849581020372056E-4</v>
+        <v>8.8976046376227236E-3</v>
       </c>
       <c r="Q6">
         <f t="shared" si="0"/>
-        <v>2.3601666079444591E-4</v>
+        <v>1.0480906506237571E-2</v>
       </c>
       <c r="R6">
         <f t="shared" si="0"/>
-        <v>4.2009048525892758E-4</v>
+        <v>1.5273555035428245E-2</v>
       </c>
       <c r="S6">
         <f t="shared" si="0"/>
-        <v>1.645435459738399E-5</v>
+        <v>2.5393973419257248E-3</v>
       </c>
       <c r="T6">
         <f t="shared" si="0"/>
-        <v>1.2752963833424155E-7</v>
+        <v>1.7080936882517056E-4</v>
       </c>
       <c r="U6">
         <f t="shared" si="0"/>
-        <v>4.994557451722562E-9</v>
+        <v>2.8235707127251881E-5</v>
       </c>
       <c r="V6">
         <f t="shared" si="0"/>
-        <v>2.4324641169342737E-9</v>
+        <v>1.8341080145275517E-5</v>
       </c>
       <c r="W6">
         <f t="shared" si="0"/>
-        <v>9.1029004881949351E-10</v>
+        <v>1.0076909132596895E-5</v>
       </c>
       <c r="X6">
         <f t="shared" si="0"/>
-        <v>4.2860183766294028E-10</v>
+        <v>6.2677138371643653E-6</v>
       </c>
       <c r="Y6">
         <f t="shared" si="0"/>
-        <v>1.562970197617951E-8</v>
+        <v>4.6218142424610195E-5</v>
       </c>
       <c r="Z6">
         <f t="shared" si="0"/>
-        <v>3.4418683228803181E-6</v>
+        <v>9.247342016228795E-4</v>
       </c>
       <c r="AA6">
         <f t="shared" si="0"/>
-        <v>1.3320192656750767E-4</v>
+        <v>7.0817354409004876E-3</v>
       </c>
     </row>
     <row r="7" spans="4:27">
@@ -13466,63 +13471,63 @@
       </c>
       <c r="M7">
         <f t="shared" ref="M7:AA32" si="2">(1/(1-M$4))*((1-M$4)/M$4)^M$4*((EXP(M$3*M$4*(M$2-$L7)))/(1+EXP(M$3*(M$2-$L7))))</f>
-        <v>2.5882270109473927E-9</v>
+        <v>1.7020204043279786E-5</v>
       </c>
       <c r="N7">
         <f t="shared" si="0"/>
-        <v>9.4384135220459588E-8</v>
+        <v>1.2549857587360581E-4</v>
       </c>
       <c r="O7">
         <f t="shared" si="0"/>
-        <v>2.0784290018902482E-5</v>
+        <v>2.5072507872025557E-3</v>
       </c>
       <c r="P7">
         <f t="shared" si="0"/>
-        <v>1.0594513077532264E-3</v>
+        <v>2.3204530023474251E-2</v>
       </c>
       <c r="Q7">
         <f t="shared" si="0"/>
-        <v>1.3041144330702911E-3</v>
+        <v>2.6792462404929291E-2</v>
       </c>
       <c r="R7">
         <f t="shared" si="0"/>
-        <v>2.1214332999461528E-3</v>
+        <v>3.713976856397045E-2</v>
       </c>
       <c r="S7">
         <f t="shared" si="0"/>
-        <v>8.3143924153937431E-5</v>
+        <v>6.2361472713664424E-3</v>
       </c>
       <c r="T7">
         <f t="shared" si="0"/>
-        <v>6.4441873098196381E-7</v>
+        <v>4.2009048525892758E-4</v>
       </c>
       <c r="U7">
         <f t="shared" si="0"/>
-        <v>2.5237949841787207E-8</v>
+        <v>6.9447899905009832E-5</v>
       </c>
       <c r="V7">
         <f t="shared" si="0"/>
-        <v>1.2973447663943573E-8</v>
+        <v>4.6485145192257915E-5</v>
       </c>
       <c r="W7">
         <f t="shared" si="0"/>
-        <v>5.2174459607512341E-9</v>
+        <v>2.6582045975830524E-5</v>
       </c>
       <c r="X7">
         <f t="shared" si="0"/>
-        <v>2.5882270109473927E-9</v>
+        <v>1.7020204043279786E-5</v>
       </c>
       <c r="Y7">
         <f t="shared" si="0"/>
-        <v>9.4384135220459588E-8</v>
+        <v>1.2549857587360581E-4</v>
       </c>
       <c r="Z7">
         <f t="shared" si="0"/>
-        <v>2.0784290018902482E-5</v>
+        <v>2.5072507872025557E-3</v>
       </c>
       <c r="AA7">
         <f t="shared" si="0"/>
-        <v>7.9810751317130606E-4</v>
+        <v>1.8936370103946023E-2</v>
       </c>
     </row>
     <row r="8" spans="4:27">
@@ -13539,63 +13544,63 @@
       </c>
       <c r="M8">
         <f t="shared" si="2"/>
-        <v>1.562970197617951E-8</v>
+        <v>4.6218142424610195E-5</v>
       </c>
       <c r="N8">
         <f t="shared" si="0"/>
-        <v>5.6996362024970722E-7</v>
+        <v>3.4072728504240649E-4</v>
       </c>
       <c r="O8">
         <f t="shared" si="0"/>
-        <v>1.2549857587360581E-4</v>
+        <v>6.779797170200959E-3</v>
       </c>
       <c r="P8">
         <f t="shared" si="0"/>
-        <v>6.0495932317604448E-3</v>
+        <v>5.9377187013507686E-2</v>
       </c>
       <c r="Q8">
         <f t="shared" si="0"/>
-        <v>7.1833375186829791E-3</v>
+        <v>6.7200666844039622E-2</v>
       </c>
       <c r="R8">
         <f t="shared" si="0"/>
-        <v>1.0679562204184957E-2</v>
+        <v>8.8610547854341054E-2</v>
       </c>
       <c r="S8">
         <f t="shared" si="0"/>
-        <v>4.2009048525892758E-4</v>
+        <v>1.5273555035428245E-2</v>
       </c>
       <c r="T8">
         <f t="shared" si="0"/>
-        <v>3.2563045343275881E-6</v>
+        <v>1.0330368331633287E-3</v>
       </c>
       <c r="U8">
         <f t="shared" si="0"/>
-        <v>1.2752963833424155E-7</v>
+        <v>1.7080936882517056E-4</v>
       </c>
       <c r="V8">
         <f t="shared" si="0"/>
-        <v>6.9193350615691403E-8</v>
+        <v>1.178136461261518E-4</v>
       </c>
       <c r="W8">
         <f t="shared" si="0"/>
-        <v>2.9904470668232126E-8</v>
+        <v>7.0119948615507161E-5</v>
       </c>
       <c r="X8">
         <f t="shared" si="0"/>
-        <v>1.562970197617951E-8</v>
+        <v>4.6218142424610195E-5</v>
       </c>
       <c r="Y8">
         <f t="shared" si="0"/>
-        <v>5.6996362024970722E-7</v>
+        <v>3.4072728504240649E-4</v>
       </c>
       <c r="Z8">
         <f t="shared" si="0"/>
-        <v>1.2549857587360581E-4</v>
+        <v>6.779797170200959E-3</v>
       </c>
       <c r="AA8">
         <f t="shared" si="0"/>
-        <v>4.7670512784532089E-3</v>
+        <v>4.968221357799664E-2</v>
       </c>
     </row>
     <row r="9" spans="4:27">
@@ -13612,63 +13617,63 @@
       </c>
       <c r="M9">
         <f t="shared" si="2"/>
-        <v>9.4384135220459588E-8</v>
+        <v>1.2549857587360581E-4</v>
       </c>
       <c r="N9">
         <f t="shared" si="0"/>
-        <v>3.4418683228803181E-6</v>
+        <v>9.247342016228795E-4</v>
       </c>
       <c r="O9">
         <f t="shared" si="0"/>
-        <v>7.5738484484800498E-4</v>
+        <v>1.8201656495486759E-2</v>
       </c>
       <c r="P9">
         <f t="shared" si="0"/>
-        <v>3.3904249284407773E-2</v>
+        <v>0.14483127382979394</v>
       </c>
       <c r="Q9">
         <f t="shared" si="0"/>
-        <v>3.8834670969844359E-2</v>
+        <v>0.16066838354418234</v>
       </c>
       <c r="R9">
         <f t="shared" si="0"/>
-        <v>5.2766744821889276E-2</v>
+        <v>0.20152435475041808</v>
       </c>
       <c r="S9">
         <f t="shared" si="0"/>
-        <v>2.1214332999461528E-3</v>
+        <v>3.713976856397045E-2</v>
       </c>
       <c r="T9">
         <f t="shared" si="0"/>
-        <v>1.645435459738399E-5</v>
+        <v>2.5393973419257248E-3</v>
       </c>
       <c r="U9">
         <f t="shared" si="0"/>
-        <v>6.4441873098196381E-7</v>
+        <v>4.2009048525892758E-4</v>
       </c>
       <c r="V9">
         <f t="shared" si="0"/>
-        <v>3.6903987175217689E-7</v>
+        <v>2.985764764993493E-4</v>
       </c>
       <c r="W9">
         <f t="shared" si="0"/>
-        <v>1.7140135523541905E-7</v>
+        <v>1.849581020372056E-4</v>
       </c>
       <c r="X9">
         <f t="shared" si="0"/>
-        <v>9.4384135220459588E-8</v>
+        <v>1.2549857587360581E-4</v>
       </c>
       <c r="Y9">
         <f t="shared" si="0"/>
-        <v>3.4418683228803181E-6</v>
+        <v>9.247342016228795E-4</v>
       </c>
       <c r="Z9">
         <f t="shared" si="0"/>
-        <v>7.5738484484800498E-4</v>
+        <v>1.8201656495486759E-2</v>
       </c>
       <c r="AA9">
         <f t="shared" si="0"/>
-        <v>2.7946088736036195E-2</v>
+        <v>0.12425132561908839</v>
       </c>
     </row>
     <row r="10" spans="4:27">
@@ -13685,63 +13690,63 @@
       </c>
       <c r="M10">
         <f t="shared" si="2"/>
-        <v>5.6996362024970722E-7</v>
+        <v>3.4072728504240649E-4</v>
       </c>
       <c r="N10">
         <f t="shared" si="0"/>
-        <v>2.0784290018902482E-5</v>
+        <v>2.5072507872025557E-3</v>
       </c>
       <c r="O10">
         <f t="shared" si="0"/>
-        <v>4.5565060935986836E-3</v>
+        <v>4.7945990645748136E-2</v>
       </c>
       <c r="P10">
         <f t="shared" si="0"/>
-        <v>0.1713177186989942</v>
+        <v>0.3171058911700364</v>
       </c>
       <c r="Q10">
         <f t="shared" si="0"/>
-        <v>0.18929240043650306</v>
+        <v>0.34481527360605929</v>
       </c>
       <c r="R10">
         <f t="shared" si="0"/>
-        <v>0.23506466390529571</v>
+        <v>0.41140435577671713</v>
       </c>
       <c r="S10">
         <f t="shared" si="0"/>
-        <v>1.0679562204184957E-2</v>
+        <v>8.8610547854341054E-2</v>
       </c>
       <c r="T10">
         <f t="shared" si="0"/>
-        <v>8.3143924153937431E-5</v>
+        <v>6.2361472713664424E-3</v>
       </c>
       <c r="U10">
         <f t="shared" si="0"/>
-        <v>3.2563045343275881E-6</v>
+        <v>1.0330368331633287E-3</v>
       </c>
       <c r="V10">
         <f t="shared" si="0"/>
-        <v>1.9682581178932423E-6</v>
+        <v>7.5658440384602675E-4</v>
       </c>
       <c r="W10">
         <f t="shared" si="0"/>
-        <v>9.8240873391187113E-7</v>
+        <v>4.8780577265414955E-4</v>
       </c>
       <c r="X10">
         <f t="shared" si="0"/>
-        <v>5.6996362024970722E-7</v>
+        <v>3.4072728504240649E-4</v>
       </c>
       <c r="Y10">
         <f t="shared" si="0"/>
-        <v>2.0784290018902482E-5</v>
+        <v>2.5072507872025557E-3</v>
       </c>
       <c r="Z10">
         <f t="shared" si="0"/>
-        <v>4.5565060935986836E-3</v>
+        <v>4.7945990645748136E-2</v>
       </c>
       <c r="AA10">
         <f t="shared" si="0"/>
-        <v>0.14771086297614594</v>
+        <v>0.27893329226557229</v>
       </c>
     </row>
     <row r="11" spans="4:27">
@@ -13758,15 +13763,15 @@
       </c>
       <c r="M11">
         <f t="shared" si="2"/>
-        <v>3.4418683228803181E-6</v>
+        <v>9.247342016228795E-4</v>
       </c>
       <c r="N11">
         <f t="shared" si="0"/>
-        <v>1.2549857587360581E-4</v>
+        <v>6.779797170200959E-3</v>
       </c>
       <c r="O11">
         <f t="shared" si="0"/>
-        <v>2.6904819687189479E-2</v>
+        <v>0.12038976525230502</v>
       </c>
       <c r="P11">
         <f t="shared" si="0"/>
@@ -13782,35 +13787,35 @@
       </c>
       <c r="S11">
         <f t="shared" si="0"/>
-        <v>5.2766744821889276E-2</v>
+        <v>0.20152435475041808</v>
       </c>
       <c r="T11">
         <f t="shared" si="0"/>
-        <v>4.2009048525892758E-4</v>
+        <v>1.5273555035428245E-2</v>
       </c>
       <c r="U11">
         <f t="shared" si="0"/>
-        <v>1.645435459738399E-5</v>
+        <v>2.5393973419257248E-3</v>
       </c>
       <c r="V11">
         <f t="shared" si="0"/>
-        <v>1.0497594470578998E-5</v>
+        <v>1.9164657977017913E-3</v>
       </c>
       <c r="W11">
         <f t="shared" si="0"/>
-        <v>5.6307877595709067E-6</v>
+        <v>1.2860634719583277E-3</v>
       </c>
       <c r="X11">
         <f t="shared" si="0"/>
-        <v>3.4418683228803181E-6</v>
+        <v>9.247342016228795E-4</v>
       </c>
       <c r="Y11">
         <f t="shared" si="0"/>
-        <v>1.2549857587360581E-4</v>
+        <v>6.779797170200959E-3</v>
       </c>
       <c r="Z11">
         <f t="shared" si="0"/>
-        <v>2.6904819687189479E-2</v>
+        <v>0.12038976525230502</v>
       </c>
       <c r="AA11">
         <f t="shared" si="0"/>
@@ -13831,63 +13836,63 @@
       </c>
       <c r="M12">
         <f t="shared" si="2"/>
-        <v>2.0784290018902482E-5</v>
+        <v>2.5072507872025557E-3</v>
       </c>
       <c r="N12">
         <f t="shared" si="0"/>
-        <v>7.5738484484800498E-4</v>
+        <v>1.8201656495486759E-2</v>
       </c>
       <c r="O12">
         <f t="shared" si="0"/>
-        <v>0.14323475442351938</v>
+        <v>0.27134765176536868</v>
       </c>
       <c r="P12">
         <f t="shared" si="0"/>
-        <v>0.93031183522286587</v>
+        <v>0.81178518903803742</v>
       </c>
       <c r="Q12">
         <f t="shared" si="0"/>
-        <v>0.95651159564482358</v>
+        <v>0.84810871973589819</v>
       </c>
       <c r="R12">
         <f t="shared" si="0"/>
-        <v>0.9921364436687824</v>
+        <v>0.91559723194116038</v>
       </c>
       <c r="S12">
         <f t="shared" si="0"/>
-        <v>0.23506466390529571</v>
+        <v>0.41140435577671713</v>
       </c>
       <c r="T12">
         <f t="shared" si="0"/>
-        <v>2.1214332999461528E-3</v>
+        <v>3.713976856397045E-2</v>
       </c>
       <c r="U12">
         <f t="shared" si="0"/>
-        <v>8.3143924153937431E-5</v>
+        <v>6.2361472713664424E-3</v>
       </c>
       <c r="V12">
         <f t="shared" si="0"/>
-        <v>5.5987536619039607E-5</v>
+        <v>4.8497082124886928E-3</v>
       </c>
       <c r="W12">
         <f t="shared" si="0"/>
-        <v>3.227304387527442E-5</v>
+        <v>3.387261446484741E-3</v>
       </c>
       <c r="X12">
         <f t="shared" si="0"/>
-        <v>2.0784290018902482E-5</v>
+        <v>2.5072507872025557E-3</v>
       </c>
       <c r="Y12">
         <f t="shared" si="0"/>
-        <v>7.5738484484800498E-4</v>
+        <v>1.8201656495486759E-2</v>
       </c>
       <c r="Z12">
         <f t="shared" si="0"/>
-        <v>0.14323475442351938</v>
+        <v>0.27134765176536868</v>
       </c>
       <c r="AA12">
         <f t="shared" si="0"/>
-        <v>0.87765777030944014</v>
+        <v>0.75067489163098</v>
       </c>
     </row>
     <row r="13" spans="4:27">
@@ -13904,11 +13909,11 @@
       </c>
       <c r="M13">
         <f t="shared" si="2"/>
-        <v>1.2549857587360581E-4</v>
+        <v>6.779797170200959E-3</v>
       </c>
       <c r="N13">
         <f t="shared" si="0"/>
-        <v>4.5565060935986836E-3</v>
+        <v>4.7945990645748136E-2</v>
       </c>
       <c r="O13">
         <f t="shared" si="0"/>
@@ -13916,15 +13921,15 @@
       </c>
       <c r="P13">
         <f t="shared" si="0"/>
-        <v>0.99978509826624495</v>
+        <v>0.94915245724089203</v>
       </c>
       <c r="Q13">
         <f t="shared" si="0"/>
-        <v>0.99159368269395576</v>
+        <v>0.9719870791193892</v>
       </c>
       <c r="R13">
         <f t="shared" si="0"/>
-        <v>0.94000120705602286</v>
+        <v>0.99815666338412423</v>
       </c>
       <c r="S13">
         <f t="shared" si="0"/>
@@ -13932,27 +13937,27 @@
       </c>
       <c r="T13">
         <f t="shared" si="0"/>
-        <v>1.0679562204184957E-2</v>
+        <v>8.8610547854341054E-2</v>
       </c>
       <c r="U13">
         <f t="shared" si="0"/>
-        <v>4.2009048525892758E-4</v>
+        <v>1.5273555035428245E-2</v>
       </c>
       <c r="V13">
         <f t="shared" si="0"/>
-        <v>2.985764764993493E-4</v>
+        <v>1.2239627913701374E-2</v>
       </c>
       <c r="W13">
         <f t="shared" si="0"/>
-        <v>1.849581020372056E-4</v>
+        <v>8.8976046376227236E-3</v>
       </c>
       <c r="X13">
         <f t="shared" si="0"/>
-        <v>1.2549857587360581E-4</v>
+        <v>6.779797170200959E-3</v>
       </c>
       <c r="Y13">
         <f t="shared" si="0"/>
-        <v>4.5565060935986836E-3</v>
+        <v>4.7945990645748136E-2</v>
       </c>
       <c r="Z13">
         <f t="shared" si="0"/>
@@ -13960,7 +13965,7 @@
       </c>
       <c r="AA13">
         <f t="shared" si="0"/>
-        <v>0.98661239485348928</v>
+        <v>0.89992041702460923</v>
       </c>
     </row>
     <row r="14" spans="4:27" ht="19">
@@ -13980,63 +13985,63 @@
       </c>
       <c r="M14">
         <f t="shared" si="2"/>
-        <v>7.5738484484800498E-4</v>
+        <v>1.8201656495486759E-2</v>
       </c>
       <c r="N14">
         <f t="shared" si="0"/>
-        <v>2.6904819687189479E-2</v>
+        <v>0.12038976525230502</v>
       </c>
       <c r="O14">
         <f t="shared" si="0"/>
-        <v>0.86340590606206924</v>
+        <v>0.73612566642266453</v>
       </c>
       <c r="P14">
         <f t="shared" si="0"/>
-        <v>0.96873494060292764</v>
+        <v>0.99616219985734145</v>
       </c>
       <c r="Q14">
         <f t="shared" si="0"/>
-        <v>0.92682439181606568</v>
+        <v>0.99992789437186647</v>
       </c>
       <c r="R14">
         <f t="shared" si="0"/>
-        <v>0.80298163289200175</v>
+        <v>0.97676969818368453</v>
       </c>
       <c r="S14">
         <f t="shared" si="0"/>
-        <v>0.9921364436687824</v>
+        <v>0.91559723194116038</v>
       </c>
       <c r="T14">
         <f t="shared" si="0"/>
-        <v>5.2766744821889276E-2</v>
+        <v>0.20152435475041808</v>
       </c>
       <c r="U14">
         <f t="shared" si="0"/>
-        <v>2.1214332999461528E-3</v>
+        <v>3.713976856397045E-2</v>
       </c>
       <c r="V14">
         <f t="shared" si="0"/>
-        <v>1.5914537690479196E-3</v>
+        <v>3.0668752365479012E-2</v>
       </c>
       <c r="W14">
         <f t="shared" si="0"/>
-        <v>1.0594513077532264E-3</v>
+        <v>2.3204530023474251E-2</v>
       </c>
       <c r="X14">
         <f t="shared" si="0"/>
-        <v>7.5738484484800498E-4</v>
+        <v>1.8201656495486759E-2</v>
       </c>
       <c r="Y14">
         <f t="shared" si="0"/>
-        <v>2.6904819687189479E-2</v>
+        <v>0.12038976525230502</v>
       </c>
       <c r="Z14">
         <f t="shared" si="0"/>
-        <v>0.86340590606206924</v>
+        <v>0.73612566642266453</v>
       </c>
       <c r="AA14">
         <f t="shared" si="0"/>
-        <v>0.99997265452181183</v>
+        <v>0.96840171241515616</v>
       </c>
     </row>
     <row r="15" spans="4:27">
@@ -14053,63 +14058,63 @@
       </c>
       <c r="M15">
         <f t="shared" si="2"/>
-        <v>4.5565060935986836E-3</v>
+        <v>4.7945990645748136E-2</v>
       </c>
       <c r="N15">
         <f t="shared" si="0"/>
-        <v>0.14323475442351938</v>
+        <v>0.27134765176536868</v>
       </c>
       <c r="O15">
         <f t="shared" si="0"/>
-        <v>0.97760474398055908</v>
+        <v>0.88601556932423098</v>
       </c>
       <c r="P15">
         <f t="shared" si="0"/>
-        <v>0.92126814549321545</v>
+        <v>0.99659804008516795</v>
       </c>
       <c r="Q15">
         <f t="shared" si="0"/>
-        <v>0.85024472097473103</v>
+        <v>0.98055682041903069</v>
       </c>
       <c r="R15">
         <f t="shared" si="0"/>
-        <v>0.67323331264859265</v>
+        <v>0.91113249380925754</v>
       </c>
       <c r="S15">
         <f t="shared" si="0"/>
-        <v>0.94000120705602286</v>
+        <v>0.99815666338412423</v>
       </c>
       <c r="T15">
         <f t="shared" si="0"/>
-        <v>0.23506466390529571</v>
+        <v>0.41140435577671713</v>
       </c>
       <c r="U15">
         <f t="shared" si="0"/>
-        <v>1.0679562204184957E-2</v>
+        <v>8.8610547854341054E-2</v>
       </c>
       <c r="V15">
         <f t="shared" si="0"/>
-        <v>8.4560977987433953E-3</v>
+        <v>7.5399969788445736E-2</v>
       </c>
       <c r="W15">
         <f t="shared" si="0"/>
-        <v>6.0495932317604448E-3</v>
+        <v>5.9377187013507686E-2</v>
       </c>
       <c r="X15">
         <f t="shared" si="0"/>
-        <v>4.5565060935986836E-3</v>
+        <v>4.7945990645748136E-2</v>
       </c>
       <c r="Y15">
         <f t="shared" si="0"/>
-        <v>0.14323475442351938</v>
+        <v>0.27134765176536868</v>
       </c>
       <c r="Z15">
         <f t="shared" si="0"/>
-        <v>0.97760474398055908</v>
+        <v>0.88601556932423098</v>
       </c>
       <c r="AA15">
         <f t="shared" si="0"/>
-        <v>0.99474660628728262</v>
+        <v>0.993351338835471</v>
       </c>
     </row>
     <row r="16" spans="4:27">
@@ -14126,7 +14131,7 @@
       </c>
       <c r="M16">
         <f t="shared" si="2"/>
-        <v>2.6904819687189479E-2</v>
+        <v>0.12038976525230502</v>
       </c>
       <c r="N16">
         <f t="shared" si="0"/>
@@ -14134,23 +14139,23 @@
       </c>
       <c r="O16">
         <f t="shared" si="0"/>
-        <v>0.99800284029573039</v>
+        <v>0.95726013940194465</v>
       </c>
       <c r="P16">
         <f t="shared" si="0"/>
-        <v>0.87338288495205119</v>
+        <v>0.97826647150351953</v>
       </c>
       <c r="Q16">
         <f t="shared" si="0"/>
-        <v>0.77754935422239724</v>
+        <v>0.94346113712048096</v>
       </c>
       <c r="R16">
         <f t="shared" si="0"/>
-        <v>0.56268211978518712</v>
+        <v>0.83390784936379714</v>
       </c>
       <c r="S16">
         <f t="shared" si="0"/>
-        <v>0.80298163289200175</v>
+        <v>0.97676969818368453</v>
       </c>
       <c r="T16">
         <f t="shared" si="0"/>
@@ -14158,19 +14163,19 @@
       </c>
       <c r="U16">
         <f t="shared" si="0"/>
-        <v>5.2766744821889276E-2</v>
+        <v>0.20152435475041808</v>
       </c>
       <c r="V16">
         <f t="shared" si="0"/>
-        <v>4.4099001165839993E-2</v>
+        <v>0.1767022680536266</v>
       </c>
       <c r="W16">
         <f t="shared" si="0"/>
-        <v>3.3904249284407773E-2</v>
+        <v>0.14483127382979394</v>
       </c>
       <c r="X16">
         <f t="shared" si="0"/>
-        <v>2.6904819687189479E-2</v>
+        <v>0.12038976525230502</v>
       </c>
       <c r="Y16">
         <f t="shared" si="0"/>
@@ -14178,11 +14183,11 @@
       </c>
       <c r="Z16">
         <f t="shared" si="0"/>
-        <v>0.99800284029573039</v>
+        <v>0.95726013940194465</v>
       </c>
       <c r="AA16">
         <f t="shared" si="0"/>
-        <v>0.98644832579710173</v>
+        <v>0.99976374537057022</v>
       </c>
     </row>
     <row r="17" spans="10:27">
@@ -14199,63 +14204,63 @@
       </c>
       <c r="M17">
         <f t="shared" si="2"/>
-        <v>0.14323475442351938</v>
+        <v>0.27134765176536868</v>
       </c>
       <c r="N17">
         <f t="shared" si="0"/>
-        <v>0.86340590606206924</v>
+        <v>0.73612566642266453</v>
       </c>
       <c r="O17">
         <f t="shared" si="0"/>
-        <v>0.99996094862292961</v>
+        <v>0.98585827423856087</v>
       </c>
       <c r="P17">
         <f t="shared" si="0"/>
-        <v>0.82755622276907836</v>
+        <v>0.95338781491410485</v>
       </c>
       <c r="Q17">
         <f t="shared" si="0"/>
-        <v>0.71069980327813642</v>
+        <v>0.90126094898425457</v>
       </c>
       <c r="R17">
         <f t="shared" si="0"/>
-        <v>0.4700400261401006</v>
+        <v>0.75775685865205566</v>
       </c>
       <c r="S17">
         <f t="shared" si="0"/>
-        <v>0.67323331264859265</v>
+        <v>0.91113249380925754</v>
       </c>
       <c r="T17">
         <f t="shared" si="0"/>
-        <v>0.9921364436687824</v>
+        <v>0.91559723194116038</v>
       </c>
       <c r="U17">
         <f t="shared" si="0"/>
-        <v>0.23506466390529571</v>
+        <v>0.41140435577671713</v>
       </c>
       <c r="V17">
         <f t="shared" si="0"/>
-        <v>0.20735174769527565</v>
+        <v>0.37171689826843174</v>
       </c>
       <c r="W17">
         <f t="shared" si="0"/>
-        <v>0.1713177186989942</v>
+        <v>0.3171058911700364</v>
       </c>
       <c r="X17">
         <f t="shared" si="0"/>
-        <v>0.14323475442351938</v>
+        <v>0.27134765176536868</v>
       </c>
       <c r="Y17">
         <f t="shared" si="0"/>
-        <v>0.86340590606206924</v>
+        <v>0.73612566642266453</v>
       </c>
       <c r="Z17">
         <f t="shared" si="0"/>
-        <v>0.99996094862292961</v>
+        <v>0.98585827423856087</v>
       </c>
       <c r="AA17">
         <f t="shared" si="0"/>
-        <v>0.97771082429622469</v>
+        <v>0.9990038772694011</v>
       </c>
     </row>
     <row r="18" spans="10:27">
@@ -14276,31 +14281,31 @@
       </c>
       <c r="N18">
         <f t="shared" si="0"/>
-        <v>0.97760474398055908</v>
+        <v>0.88601556932423098</v>
       </c>
       <c r="O18">
         <f t="shared" si="0"/>
-        <v>0.99878459212967408</v>
+        <v>0.99619914821556144</v>
       </c>
       <c r="P18">
         <f t="shared" si="0"/>
-        <v>0.78406668580066008</v>
+        <v>0.92665931145669933</v>
       </c>
       <c r="Q18">
         <f t="shared" si="0"/>
-        <v>0.64954177342126818</v>
+        <v>0.85864799715343942</v>
       </c>
       <c r="R18">
         <f t="shared" si="0"/>
-        <v>0.39261711715274827</v>
+        <v>0.68672010020449492</v>
       </c>
       <c r="S18">
         <f t="shared" si="0"/>
-        <v>0.56268211978518712</v>
+        <v>0.83390784936379714</v>
       </c>
       <c r="T18">
         <f t="shared" si="0"/>
-        <v>0.94000120705602286</v>
+        <v>0.99815666338412423</v>
       </c>
       <c r="U18">
         <f t="shared" si="0"/>
@@ -14320,15 +14325,15 @@
       </c>
       <c r="Y18">
         <f t="shared" si="0"/>
-        <v>0.97760474398055908</v>
+        <v>0.88601556932423098</v>
       </c>
       <c r="Z18">
         <f t="shared" si="0"/>
-        <v>0.99878459212967408</v>
+        <v>0.99619914821556144</v>
       </c>
       <c r="AA18">
         <f t="shared" si="0"/>
-        <v>0.96896740438533469</v>
+        <v>0.99557740808330064</v>
       </c>
     </row>
     <row r="19" spans="10:27">
@@ -14345,63 +14350,63 @@
       </c>
       <c r="M19">
         <f t="shared" si="2"/>
-        <v>0.86340590606206924</v>
+        <v>0.73612566642266453</v>
       </c>
       <c r="N19">
         <f t="shared" si="0"/>
-        <v>0.99800284029573039</v>
+        <v>0.95726013940194465</v>
       </c>
       <c r="O19">
         <f t="shared" si="0"/>
-        <v>0.99709109490404757</v>
+        <v>0.99943173150024212</v>
       </c>
       <c r="P19">
         <f t="shared" si="0"/>
-        <v>0.74285204260878279</v>
+        <v>0.89979057408823759</v>
       </c>
       <c r="Q19">
         <f t="shared" si="0"/>
-        <v>0.59363815372914919</v>
+        <v>0.81724188503447581</v>
       </c>
       <c r="R19">
         <f t="shared" si="0"/>
-        <v>0.32794230547931508</v>
+        <v>0.62172809197843915</v>
       </c>
       <c r="S19">
         <f t="shared" si="0"/>
-        <v>0.4700400261401006</v>
+        <v>0.75775685865205566</v>
       </c>
       <c r="T19">
         <f t="shared" si="0"/>
-        <v>0.80298163289200175</v>
+        <v>0.97676969818368453</v>
       </c>
       <c r="U19">
         <f t="shared" si="0"/>
-        <v>0.9921364436687824</v>
+        <v>0.91559723194116038</v>
       </c>
       <c r="V19">
         <f t="shared" si="0"/>
-        <v>0.97497966598244978</v>
+        <v>0.87842676317419344</v>
       </c>
       <c r="W19">
         <f t="shared" si="0"/>
-        <v>0.93031183522286587</v>
+        <v>0.81178518903803742</v>
       </c>
       <c r="X19">
         <f t="shared" si="0"/>
-        <v>0.86340590606206924</v>
+        <v>0.73612566642266453</v>
       </c>
       <c r="Y19">
         <f t="shared" si="0"/>
-        <v>0.99800284029573039</v>
+        <v>0.95726013940194465</v>
       </c>
       <c r="Z19">
         <f t="shared" si="0"/>
-        <v>0.99709109490404757</v>
+        <v>0.99943173150024212</v>
       </c>
       <c r="AA19">
         <f t="shared" si="0"/>
-        <v>0.96028852630346961</v>
+        <v>0.99118276143885542</v>
       </c>
     </row>
     <row r="20" spans="10:27">
@@ -14418,63 +14423,63 @@
       </c>
       <c r="M20">
         <f t="shared" si="2"/>
-        <v>0.97760474398055908</v>
+        <v>0.88601556932423098</v>
       </c>
       <c r="N20">
         <f t="shared" si="0"/>
-        <v>0.99996094862292961</v>
+        <v>0.98585827423856087</v>
       </c>
       <c r="O20">
         <f t="shared" si="0"/>
-        <v>0.99531489261890604</v>
+        <v>0.99999578866732575</v>
       </c>
       <c r="P20">
         <f t="shared" si="0"/>
-        <v>0.70380220299486429</v>
+        <v>0.87338288495205119</v>
       </c>
       <c r="Q20">
         <f t="shared" si="0"/>
-        <v>0.54254467388103966</v>
+        <v>0.77754935422239735</v>
       </c>
       <c r="R20">
         <f t="shared" si="0"/>
-        <v>0.27392056627107442</v>
+        <v>0.56268211978518712</v>
       </c>
       <c r="S20">
         <f t="shared" si="0"/>
-        <v>0.39261711715274827</v>
+        <v>0.68672010020449492</v>
       </c>
       <c r="T20">
         <f t="shared" si="0"/>
-        <v>0.67323331264859265</v>
+        <v>0.91113249380925754</v>
       </c>
       <c r="U20">
         <f t="shared" si="0"/>
-        <v>0.94000120705602286</v>
+        <v>0.99815666338412423</v>
       </c>
       <c r="V20">
         <f t="shared" si="0"/>
-        <v>0.9749996703503846</v>
+        <v>0.986798845647615</v>
       </c>
       <c r="W20">
         <f t="shared" si="0"/>
-        <v>0.99978509826624495</v>
+        <v>0.94915245724089203</v>
       </c>
       <c r="X20">
         <f t="shared" si="0"/>
-        <v>0.97760474398055908</v>
+        <v>0.88601556932423098</v>
       </c>
       <c r="Y20">
         <f t="shared" si="0"/>
-        <v>0.99996094862292961</v>
+        <v>0.98585827423856087</v>
       </c>
       <c r="Z20">
         <f t="shared" si="0"/>
-        <v>0.99531489261890604</v>
+        <v>0.99999578866732575</v>
       </c>
       <c r="AA20">
         <f t="shared" si="0"/>
-        <v>0.9516851476144631</v>
+        <v>0.98644832579710184</v>
       </c>
     </row>
     <row r="21" spans="10:27">
@@ -14491,63 +14496,63 @@
       </c>
       <c r="M21">
         <f t="shared" si="2"/>
-        <v>0.99800284029573039</v>
+        <v>0.95726013940194465</v>
       </c>
       <c r="N21">
         <f t="shared" si="0"/>
-        <v>0.99878459212967408</v>
+        <v>0.99619914821556144</v>
       </c>
       <c r="O21">
         <f t="shared" si="0"/>
-        <v>0.99352773365374081</v>
+        <v>0.99957194038300812</v>
       </c>
       <c r="P21">
         <f t="shared" si="0"/>
-        <v>0.66680485502533893</v>
+        <v>0.8476366356475018</v>
       </c>
       <c r="Q21">
         <f t="shared" si="0"/>
-        <v>0.49584853499642861</v>
+        <v>0.73968552039214863</v>
       </c>
       <c r="R21">
         <f t="shared" si="0"/>
-        <v>0.22879770689505705</v>
+        <v>0.50917555226094868</v>
       </c>
       <c r="S21">
         <f t="shared" si="0"/>
-        <v>0.32794230547931508</v>
+        <v>0.62172809197843915</v>
       </c>
       <c r="T21">
         <f t="shared" si="0"/>
-        <v>0.56268211978518712</v>
+        <v>0.83390784936379714</v>
       </c>
       <c r="U21">
         <f t="shared" si="0"/>
-        <v>0.80298163289200175</v>
+        <v>0.97676969818368453</v>
       </c>
       <c r="V21">
         <f t="shared" si="0"/>
-        <v>0.87909046818790548</v>
+        <v>0.99506381853218462</v>
       </c>
       <c r="W21">
         <f t="shared" si="0"/>
-        <v>0.96873494060292764</v>
+        <v>0.99616219985734145</v>
       </c>
       <c r="X21">
         <f t="shared" si="0"/>
-        <v>0.99800284029573039</v>
+        <v>0.95726013940194465</v>
       </c>
       <c r="Y21">
         <f t="shared" si="0"/>
-        <v>0.99878459212967408</v>
+        <v>0.99619914821556144</v>
       </c>
       <c r="Z21">
         <f t="shared" si="0"/>
-        <v>0.99352773365374081</v>
+        <v>0.99957194038300812</v>
       </c>
       <c r="AA21">
         <f t="shared" si="0"/>
-        <v>0.94315848169893168</v>
+        <v>0.98160495967746075</v>
       </c>
     </row>
     <row r="22" spans="10:27">
@@ -14564,63 +14569,63 @@
       </c>
       <c r="M22">
         <f t="shared" si="2"/>
-        <v>0.99996094862292961</v>
+        <v>0.98585827423856087</v>
       </c>
       <c r="N22">
         <f t="shared" si="2"/>
-        <v>0.99709109490404757</v>
+        <v>0.99943173150024212</v>
       </c>
       <c r="O22">
         <f t="shared" si="2"/>
-        <v>0.99174145369459699</v>
+        <v>0.99878459212967408</v>
       </c>
       <c r="P22">
         <f t="shared" si="2"/>
-        <v>0.63175233645342266</v>
+        <v>0.82260879347998606</v>
       </c>
       <c r="Q22">
         <f t="shared" si="2"/>
-        <v>0.45317144506522145</v>
+        <v>0.70363082391591414</v>
       </c>
       <c r="R22">
         <f t="shared" si="2"/>
-        <v>0.19110791143810421</v>
+        <v>0.46073431369339801</v>
       </c>
       <c r="S22">
         <f t="shared" si="2"/>
-        <v>0.27392056627107442</v>
+        <v>0.56268211978518712</v>
       </c>
       <c r="T22">
         <f t="shared" si="2"/>
-        <v>0.4700400261401006</v>
+        <v>0.75775685865205566</v>
       </c>
       <c r="U22">
         <f t="shared" si="2"/>
-        <v>0.67323331264859265</v>
+        <v>0.91113249380925754</v>
       </c>
       <c r="V22">
         <f t="shared" si="2"/>
-        <v>0.77793884730396956</v>
+        <v>0.9564650970964359</v>
       </c>
       <c r="W22">
         <f t="shared" si="2"/>
-        <v>0.92126814549321545</v>
+        <v>0.99659804008516795</v>
       </c>
       <c r="X22">
         <f t="shared" si="2"/>
-        <v>0.99996094862292961</v>
+        <v>0.98585827423856087</v>
       </c>
       <c r="Y22">
         <f t="shared" si="2"/>
-        <v>0.99709109490404757</v>
+        <v>0.99943173150024212</v>
       </c>
       <c r="Z22">
         <f t="shared" si="2"/>
-        <v>0.99174145369459699</v>
+        <v>0.99878459212967408</v>
       </c>
       <c r="AA22">
         <f t="shared" si="2"/>
-        <v>0.93470815082822667</v>
+        <v>0.97673721387218193</v>
       </c>
     </row>
     <row r="23" spans="10:27">
@@ -14637,63 +14642,63 @@
       </c>
       <c r="M23">
         <f t="shared" si="2"/>
-        <v>0.99878459212967408</v>
+        <v>0.99619914821556144</v>
       </c>
       <c r="N23">
         <f t="shared" si="2"/>
-        <v>0.99531489261890604</v>
+        <v>0.99999578866732575</v>
       </c>
       <c r="O23">
         <f t="shared" si="2"/>
-        <v>0.98995800086929409</v>
+        <v>0.99786414041416893</v>
       </c>
       <c r="P23">
         <f t="shared" si="2"/>
-        <v>0.59854244817125146</v>
+        <v>0.79830545745025427</v>
       </c>
       <c r="Q23">
         <f t="shared" si="2"/>
-        <v>0.41416751678984765</v>
+        <v>0.66932140992952593</v>
       </c>
       <c r="R23">
         <f t="shared" si="2"/>
-        <v>0.15962674592470505</v>
+        <v>0.41689404808348718</v>
       </c>
       <c r="S23">
         <f t="shared" si="2"/>
-        <v>0.22879770689505705</v>
+        <v>0.50917555226094868</v>
       </c>
       <c r="T23">
         <f t="shared" si="2"/>
-        <v>0.39261711715274827</v>
+        <v>0.68672010020449492</v>
       </c>
       <c r="U23">
         <f t="shared" si="2"/>
-        <v>0.56268211978518712</v>
+        <v>0.83390784936379714</v>
       </c>
       <c r="V23">
         <f t="shared" si="2"/>
-        <v>0.68626978548372808</v>
+        <v>0.90205805219960533</v>
       </c>
       <c r="W23">
         <f t="shared" si="2"/>
-        <v>0.87338288495205119</v>
+        <v>0.97826647150351953</v>
       </c>
       <c r="X23">
         <f t="shared" si="2"/>
-        <v>0.99878459212967408</v>
+        <v>0.99619914821556144</v>
       </c>
       <c r="Y23">
         <f t="shared" si="2"/>
-        <v>0.99531489261890604</v>
+        <v>0.99999578866732575</v>
       </c>
       <c r="Z23">
         <f t="shared" si="2"/>
-        <v>0.98995800086929409</v>
+        <v>0.99786414041416893</v>
       </c>
       <c r="AA23">
         <f t="shared" si="2"/>
-        <v>0.92633352178546657</v>
+        <v>0.97187597709273699</v>
       </c>
     </row>
     <row r="24" spans="10:27">
@@ -14710,63 +14715,63 @@
       </c>
       <c r="M24">
         <f t="shared" si="2"/>
-        <v>0.99709109490404757</v>
+        <v>0.99943173150024212</v>
       </c>
       <c r="N24">
         <f t="shared" si="2"/>
-        <v>0.99352773365374081</v>
+        <v>0.99957194038300812</v>
       </c>
       <c r="O24">
         <f t="shared" si="2"/>
-        <v>0.98817769180007431</v>
+        <v>0.99689538287272128</v>
       </c>
       <c r="P24">
         <f t="shared" si="2"/>
-        <v>0.5670783326986083</v>
+        <v>0.77471497447378845</v>
       </c>
       <c r="Q24">
         <f t="shared" si="2"/>
-        <v>0.3785206096520668</v>
+        <v>0.6366806923513596</v>
       </c>
       <c r="R24">
         <f t="shared" si="2"/>
-        <v>0.13333146586173478</v>
+        <v>0.37722279914261653</v>
       </c>
       <c r="S24">
         <f t="shared" si="2"/>
-        <v>0.19110791143810421</v>
+        <v>0.46073431369339801</v>
       </c>
       <c r="T24">
         <f t="shared" si="2"/>
-        <v>0.32794230547931508</v>
+        <v>0.62172809197843915</v>
       </c>
       <c r="U24">
         <f t="shared" si="2"/>
-        <v>0.4700400261401006</v>
+        <v>0.75775685865205566</v>
       </c>
       <c r="V24">
         <f t="shared" si="2"/>
-        <v>0.60508795438222074</v>
+        <v>0.8446467906717281</v>
       </c>
       <c r="W24">
         <f t="shared" si="2"/>
-        <v>0.82755622276907836</v>
+        <v>0.95338781491410485</v>
       </c>
       <c r="X24">
         <f t="shared" si="2"/>
-        <v>0.99709109490404757</v>
+        <v>0.99943173150024212</v>
       </c>
       <c r="Y24">
         <f t="shared" si="2"/>
-        <v>0.99352773365374081</v>
+        <v>0.99957194038300812</v>
       </c>
       <c r="Z24">
         <f t="shared" si="2"/>
-        <v>0.98817769180007431</v>
+        <v>0.99689538287272128</v>
       </c>
       <c r="AA24">
         <f t="shared" si="2"/>
-        <v>0.91803392461916933</v>
+        <v>0.96703248125274077</v>
       </c>
     </row>
     <row r="25" spans="10:27">
@@ -14783,63 +14788,63 @@
       </c>
       <c r="M25">
         <f t="shared" si="2"/>
-        <v>0.99531489261890604</v>
+        <v>0.99999578866732575</v>
       </c>
       <c r="N25">
         <f t="shared" si="2"/>
-        <v>0.99174145369459699</v>
+        <v>0.99878459212967408</v>
       </c>
       <c r="O25">
         <f t="shared" si="2"/>
-        <v>0.98640057391539981</v>
+        <v>0.99590949989885769</v>
       </c>
       <c r="P25">
         <f t="shared" si="2"/>
-        <v>0.53726821933101832</v>
+        <v>0.75181976094939795</v>
       </c>
       <c r="Q25">
         <f t="shared" si="2"/>
-        <v>0.34594178944876419</v>
+        <v>0.60563027389909585</v>
       </c>
       <c r="R25">
         <f t="shared" si="2"/>
-        <v>0.11136780168450038</v>
+        <v>0.34132579128592549</v>
       </c>
       <c r="S25">
         <f t="shared" si="2"/>
-        <v>0.15962674592470505</v>
+        <v>0.41689404808348718</v>
       </c>
       <c r="T25">
         <f t="shared" si="2"/>
-        <v>0.27392056627107442</v>
+        <v>0.56268211978518712</v>
       </c>
       <c r="U25">
         <f t="shared" si="2"/>
-        <v>0.39261711715274827</v>
+        <v>0.68672010020449492</v>
       </c>
       <c r="V25">
         <f t="shared" si="2"/>
-        <v>0.53346360755314659</v>
+        <v>0.78877630177628721</v>
       </c>
       <c r="W25">
         <f t="shared" si="2"/>
-        <v>0.78406668580066008</v>
+        <v>0.92665931145669933</v>
       </c>
       <c r="X25">
         <f t="shared" si="2"/>
-        <v>0.99531489261890604</v>
+        <v>0.99999578866732575</v>
       </c>
       <c r="Y25">
         <f t="shared" si="2"/>
-        <v>0.99174145369459699</v>
+        <v>0.99878459212967408</v>
       </c>
       <c r="Z25">
         <f t="shared" si="2"/>
-        <v>0.98640057391539981</v>
+        <v>0.99590949989885769</v>
       </c>
       <c r="AA25">
         <f t="shared" si="2"/>
-        <v>0.90980868843317697</v>
+        <v>0.96221076143543094</v>
       </c>
     </row>
     <row r="26" spans="10:27">
@@ -14849,63 +14854,63 @@
       </c>
       <c r="M26">
         <f t="shared" si="2"/>
-        <v>0.99352773365374081</v>
+        <v>0.99957194038300812</v>
       </c>
       <c r="N26">
         <f t="shared" si="2"/>
-        <v>0.98995800086929409</v>
+        <v>0.99786414041416893</v>
       </c>
       <c r="O26">
         <f t="shared" si="2"/>
-        <v>0.98462665023494433</v>
+        <v>0.99491795230889146</v>
       </c>
       <c r="P26">
         <f t="shared" si="2"/>
-        <v>0.50902516080208804</v>
+        <v>0.72960051254382141</v>
       </c>
       <c r="Q26">
         <f t="shared" si="2"/>
-        <v>0.3161669896687595</v>
+        <v>0.57609363971102001</v>
       </c>
       <c r="R26">
         <f t="shared" si="2"/>
-        <v>9.3022207258304151E-2</v>
+        <v>0.30884451003293029</v>
       </c>
       <c r="S26">
         <f t="shared" si="2"/>
-        <v>0.13333146586173478</v>
+        <v>0.37722279914261653</v>
       </c>
       <c r="T26">
         <f t="shared" si="2"/>
-        <v>0.22879770689505705</v>
+        <v>0.50917555226094868</v>
       </c>
       <c r="U26">
         <f t="shared" si="2"/>
-        <v>0.32794230547931508</v>
+        <v>0.62172809197843915</v>
       </c>
       <c r="V26">
         <f t="shared" si="2"/>
-        <v>0.47031076038139252</v>
+        <v>0.73587393458807393</v>
       </c>
       <c r="W26">
         <f t="shared" si="2"/>
-        <v>0.74285204260878279</v>
+        <v>0.89979057408823759</v>
       </c>
       <c r="X26">
         <f t="shared" si="2"/>
-        <v>0.99352773365374081</v>
+        <v>0.99957194038300812</v>
       </c>
       <c r="Y26">
         <f t="shared" si="2"/>
-        <v>0.98995800086929409</v>
+        <v>0.99786414041416893</v>
       </c>
       <c r="Z26">
         <f t="shared" si="2"/>
-        <v>0.98462665023494433</v>
+        <v>0.99491795230889146</v>
       </c>
       <c r="AA26">
         <f t="shared" si="2"/>
-        <v>0.90165714720423362</v>
+        <v>0.95741221848246449</v>
       </c>
     </row>
     <row r="27" spans="10:27">
@@ -14915,63 +14920,63 @@
       </c>
       <c r="M27">
         <f t="shared" si="2"/>
-        <v>0.99174145369459699</v>
+        <v>0.99878459212967408</v>
       </c>
       <c r="N27">
         <f t="shared" si="2"/>
-        <v>0.98817769180007431</v>
+        <v>0.99689538287272128</v>
       </c>
       <c r="O27">
         <f t="shared" si="2"/>
-        <v>0.98285591645950088</v>
+        <v>0.99392495176722528</v>
       </c>
       <c r="P27">
         <f t="shared" si="2"/>
-        <v>0.48226678036189552</v>
+        <v>0.70803769558404017</v>
       </c>
       <c r="Q27">
         <f t="shared" si="2"/>
-        <v>0.28895487161205879</v>
+        <v>0.54799732732548201</v>
       </c>
       <c r="R27">
         <f t="shared" si="2"/>
-        <v>7.7698678722708761E-2</v>
+        <v>0.27945412307000728</v>
       </c>
       <c r="S27">
         <f t="shared" si="2"/>
-        <v>0.11136780168450038</v>
+        <v>0.34132579128592549</v>
       </c>
       <c r="T27">
         <f t="shared" si="2"/>
-        <v>0.19110791143810421</v>
+        <v>0.46073431369339801</v>
       </c>
       <c r="U27">
         <f t="shared" si="2"/>
-        <v>0.27392056627107442</v>
+        <v>0.56268211978518712</v>
       </c>
       <c r="V27">
         <f t="shared" si="2"/>
-        <v>0.41463314186400307</v>
+        <v>0.68626978548372808</v>
       </c>
       <c r="W27">
         <f t="shared" si="2"/>
-        <v>0.70380220299486429</v>
+        <v>0.87338288495205119</v>
       </c>
       <c r="X27">
         <f t="shared" si="2"/>
-        <v>0.99174145369459699</v>
+        <v>0.99878459212967408</v>
       </c>
       <c r="Y27">
         <f t="shared" si="2"/>
-        <v>0.98817769180007431</v>
+        <v>0.99689538287272128</v>
       </c>
       <c r="Z27">
         <f t="shared" si="2"/>
-        <v>0.98285591645950088</v>
+        <v>0.99392495176722528</v>
       </c>
       <c r="AA27">
         <f t="shared" si="2"/>
-        <v>0.8935786406899634</v>
+        <v>0.95263728933030045</v>
       </c>
     </row>
     <row r="28" spans="10:27">
@@ -14981,63 +14986,63 @@
       </c>
       <c r="M28">
         <f t="shared" si="2"/>
-        <v>0.98995800086929409</v>
+        <v>0.99786414041416893</v>
       </c>
       <c r="N28">
         <f t="shared" si="2"/>
-        <v>0.98640057391539981</v>
+        <v>0.99590949989885769</v>
       </c>
       <c r="O28">
         <f t="shared" si="2"/>
-        <v>0.98108836709086344</v>
+        <v>0.99293204552318237</v>
       </c>
       <c r="P28">
         <f t="shared" si="2"/>
-        <v>0.45691503161422925</v>
+        <v>0.68711206814176951</v>
       </c>
       <c r="Q28">
         <f t="shared" si="2"/>
-        <v>0.26408486830237299</v>
+        <v>0.52127121938078735</v>
       </c>
       <c r="R28">
         <f t="shared" si="2"/>
-        <v>6.489939180311026E-2</v>
+        <v>0.25286056516560457</v>
       </c>
       <c r="S28">
         <f t="shared" si="2"/>
-        <v>9.3022207258304151E-2</v>
+        <v>0.30884451003293029</v>
       </c>
       <c r="T28">
         <f t="shared" si="2"/>
-        <v>0.15962674592470505</v>
+        <v>0.41689404808348718</v>
       </c>
       <c r="U28">
         <f t="shared" si="2"/>
-        <v>0.22879770689505705</v>
+        <v>0.50917555226094868</v>
       </c>
       <c r="V28">
         <f t="shared" si="2"/>
-        <v>0.36554676194850666</v>
+        <v>0.63992362097455646</v>
       </c>
       <c r="W28">
         <f t="shared" si="2"/>
-        <v>0.66680485502533893</v>
+        <v>0.8476366356475018</v>
       </c>
       <c r="X28">
         <f t="shared" si="2"/>
-        <v>0.98995800086929409</v>
+        <v>0.99786414041416893</v>
       </c>
       <c r="Y28">
         <f t="shared" si="2"/>
-        <v>0.98640057391539981</v>
+        <v>0.99590949989885769</v>
       </c>
       <c r="Z28">
         <f t="shared" si="2"/>
-        <v>0.98108836709086344</v>
+        <v>0.99293204552318237</v>
       </c>
       <c r="AA28">
         <f t="shared" si="2"/>
-        <v>0.88557251453296959</v>
+        <v>0.94788605845656193</v>
       </c>
     </row>
     <row r="29" spans="10:27">
@@ -15047,63 +15052,63 @@
       </c>
       <c r="M29">
         <f t="shared" si="2"/>
-        <v>0.98817769180007431</v>
+        <v>0.99689538287272128</v>
       </c>
       <c r="N29">
         <f t="shared" si="2"/>
-        <v>0.98462665023494433</v>
+        <v>0.99491795230889146</v>
       </c>
       <c r="O29">
         <f t="shared" si="2"/>
-        <v>0.97932399644160217</v>
+        <v>0.99193980158674422</v>
       </c>
       <c r="P29">
         <f t="shared" si="2"/>
-        <v>0.43289597089462356</v>
+        <v>0.66680485502533893</v>
       </c>
       <c r="Q29">
         <f t="shared" si="2"/>
-        <v>0.24135539669979431</v>
+        <v>0.49584853499642867</v>
       </c>
       <c r="R29">
         <f t="shared" si="2"/>
-        <v>5.4208528711849217E-2</v>
+        <v>0.22879770689505707</v>
       </c>
       <c r="S29">
         <f t="shared" si="2"/>
-        <v>7.7698678722708761E-2</v>
+        <v>0.27945412307000728</v>
       </c>
       <c r="T29">
         <f t="shared" si="2"/>
-        <v>0.13333146586173478</v>
+        <v>0.37722279914261653</v>
       </c>
       <c r="U29">
         <f t="shared" si="2"/>
-        <v>0.19110791143810421</v>
+        <v>0.46073431369339801</v>
       </c>
       <c r="V29">
         <f t="shared" si="2"/>
-        <v>0.32227145662427625</v>
+        <v>0.59667795223163378</v>
       </c>
       <c r="W29">
         <f t="shared" si="2"/>
-        <v>0.63175233645342266</v>
+        <v>0.82260879347998606</v>
       </c>
       <c r="X29">
         <f t="shared" si="2"/>
-        <v>0.98817769180007431</v>
+        <v>0.99689538287272128</v>
       </c>
       <c r="Y29">
         <f t="shared" si="2"/>
-        <v>0.98462665023494433</v>
+        <v>0.99491795230889146</v>
       </c>
       <c r="Z29">
         <f t="shared" si="2"/>
-        <v>0.97932399644160217</v>
+        <v>0.99193980158674422</v>
       </c>
       <c r="AA29">
         <f t="shared" si="2"/>
-        <v>0.87763812023364673</v>
+        <v>0.94315848169893168</v>
       </c>
     </row>
     <row r="30" spans="10:27">
@@ -15113,63 +15118,63 @@
       </c>
       <c r="M30">
         <f t="shared" si="2"/>
-        <v>0.98640057391539981</v>
+        <v>0.99590949989885769</v>
       </c>
       <c r="N30">
         <f t="shared" si="2"/>
-        <v>0.98285591645950088</v>
+        <v>0.99392495176722528</v>
       </c>
       <c r="O30">
         <f t="shared" si="2"/>
-        <v>0.97756279880166042</v>
+        <v>0.99094842808167505</v>
       </c>
       <c r="P30">
         <f t="shared" si="2"/>
-        <v>0.41013954160083727</v>
+        <v>0.64709779953752977</v>
       </c>
       <c r="Q30">
         <f t="shared" si="2"/>
-        <v>0.22058222377745201</v>
+        <v>0.47166572112498728</v>
       </c>
       <c r="R30">
         <f t="shared" si="2"/>
-        <v>4.5278769237440619E-2</v>
+        <v>0.20702472835253666</v>
       </c>
       <c r="S30">
         <f t="shared" si="2"/>
-        <v>6.489939180311026E-2</v>
+        <v>0.25286056516560457</v>
       </c>
       <c r="T30">
         <f t="shared" si="2"/>
-        <v>0.11136780168450038</v>
+        <v>0.34132579128592549</v>
       </c>
       <c r="U30">
         <f t="shared" si="2"/>
-        <v>0.15962674592470505</v>
+        <v>0.41689404808348718</v>
       </c>
       <c r="V30">
         <f t="shared" si="2"/>
-        <v>0.2841193014515162</v>
+        <v>0.5563447086396428</v>
       </c>
       <c r="W30">
         <f t="shared" si="2"/>
-        <v>0.59854244817125146</v>
+        <v>0.79830545745025427</v>
       </c>
       <c r="X30">
         <f t="shared" si="2"/>
-        <v>0.98640057391539981</v>
+        <v>0.99590949989885769</v>
       </c>
       <c r="Y30">
         <f t="shared" si="2"/>
-        <v>0.98285591645950088</v>
+        <v>0.99392495176722528</v>
       </c>
       <c r="Z30">
         <f t="shared" si="2"/>
-        <v>0.97756279880166042</v>
+        <v>0.99094842808167505</v>
       </c>
       <c r="AA30">
         <f t="shared" si="2"/>
-        <v>0.86977481510188104</v>
+        <v>0.93845446818153311</v>
       </c>
     </row>
     <row r="31" spans="10:27">
@@ -15179,63 +15184,63 @@
       </c>
       <c r="M31">
         <f t="shared" si="2"/>
-        <v>0.98462665023494433</v>
+        <v>0.99491795230889146</v>
       </c>
       <c r="N31">
         <f t="shared" si="2"/>
-        <v>0.98108836709086344</v>
+        <v>0.99293204552318237</v>
       </c>
       <c r="O31">
         <f t="shared" si="2"/>
-        <v>0.97580476846582964</v>
+        <v>0.98995800086929409</v>
       </c>
       <c r="P31">
         <f t="shared" si="2"/>
-        <v>0.38857936985856362</v>
+        <v>0.62797317155432031</v>
       </c>
       <c r="Q31">
         <f t="shared" si="2"/>
-        <v>0.20159697322669026</v>
+        <v>0.44866231405143758</v>
       </c>
       <c r="R31">
         <f t="shared" si="2"/>
-        <v>3.7820007153399261E-2</v>
+        <v>0.18732372133553893</v>
       </c>
       <c r="S31">
         <f t="shared" si="2"/>
-        <v>5.4208528711849217E-2</v>
+        <v>0.22879770689505707</v>
       </c>
       <c r="T31">
         <f t="shared" si="2"/>
-        <v>9.3022207258304151E-2</v>
+        <v>0.30884451003293029</v>
       </c>
       <c r="U31">
         <f t="shared" si="2"/>
-        <v>0.13333146586173478</v>
+        <v>0.37722279914261653</v>
       </c>
       <c r="V31">
         <f t="shared" si="2"/>
-        <v>0.25048379450439578</v>
+        <v>0.51873438276422246</v>
       </c>
       <c r="W31">
         <f t="shared" si="2"/>
-        <v>0.5670783326986083</v>
+        <v>0.77471497447378845</v>
       </c>
       <c r="X31">
         <f t="shared" si="2"/>
-        <v>0.98462665023494433</v>
+        <v>0.99491795230889146</v>
       </c>
       <c r="Y31">
         <f t="shared" si="2"/>
-        <v>0.98108836709086344</v>
+        <v>0.99293204552318237</v>
       </c>
       <c r="Z31">
         <f t="shared" si="2"/>
-        <v>0.97580476846582964</v>
+        <v>0.98995800086929409</v>
       </c>
       <c r="AA31">
         <f t="shared" si="2"/>
-        <v>0.86198196220568402</v>
+        <v>0.93377391030185097</v>
       </c>
     </row>
     <row r="32" spans="10:27">
@@ -15245,63 +15250,63 @@
       </c>
       <c r="M32">
         <f t="shared" si="2"/>
-        <v>0.98285591645950088</v>
+        <v>0.99392495176722528</v>
       </c>
       <c r="N32">
         <f t="shared" si="2"/>
-        <v>0.97932399644160217</v>
+        <v>0.99193980158674422</v>
       </c>
       <c r="O32">
         <f t="shared" si="2"/>
-        <v>0.97404989973826739</v>
+        <v>0.98896854720345473</v>
       </c>
       <c r="P32">
         <f t="shared" si="2"/>
-        <v>0.36815257092824044</v>
+        <v>0.60941376031718497</v>
       </c>
       <c r="Q32">
         <f t="shared" si="2"/>
-        <v>0.18424576068816115</v>
+        <v>0.42678079534635921</v>
       </c>
       <c r="R32">
         <f t="shared" si="2"/>
-        <v>3.1589925370595642E-2</v>
+        <v>0.16949751257097451</v>
       </c>
       <c r="S32">
         <f t="shared" si="2"/>
-        <v>4.5278769237440619E-2</v>
+        <v>0.20702472835253666</v>
       </c>
       <c r="T32">
         <f t="shared" si="2"/>
-        <v>7.7698678722708761E-2</v>
+        <v>0.27945412307000728</v>
       </c>
       <c r="U32">
         <f t="shared" si="2"/>
-        <v>0.11136780168450038</v>
+        <v>0.34132579128592549</v>
       </c>
       <c r="V32">
         <f t="shared" si="2"/>
-        <v>0.22083023212640096</v>
+        <v>0.48366542372201576</v>
       </c>
       <c r="W32">
         <f t="shared" si="2"/>
-        <v>0.53726821933101832</v>
+        <v>0.75181976094939795</v>
       </c>
       <c r="X32">
         <f t="shared" si="2"/>
-        <v>0.98285591645950088</v>
+        <v>0.99392495176722528</v>
       </c>
       <c r="Y32">
         <f t="shared" si="2"/>
-        <v>0.97932399644160217</v>
+        <v>0.99193980158674422</v>
       </c>
       <c r="Z32">
         <f t="shared" si="2"/>
-        <v>0.97404989973826739</v>
+        <v>0.98896854720345473</v>
       </c>
       <c r="AA32">
         <f t="shared" si="2"/>
-        <v>0.85425893031971478</v>
+        <v>0.92911669470543401</v>
       </c>
     </row>
     <row r="51" spans="13:15">
@@ -15353,8 +15358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D1:AA53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/xls/selectivity_scn.xlsx
+++ b/xls/selectivity_scn.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="24">
   <si>
     <t>S(l)=(1/(1-g))*((1-g)/g)^g*((exp(a*g*(b-l)))/(1+exp(a*(b-l))))</t>
   </si>
@@ -84,6 +84,15 @@
   <si>
     <t>29-30</t>
   </si>
+  <si>
+    <t>wa</t>
+  </si>
+  <si>
+    <t>aw</t>
+  </si>
+  <si>
+    <t>bw</t>
+  </si>
 </sst>
 </file>
 
@@ -138,8 +147,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="73">
+  <cellStyleXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -217,7 +230,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="73">
+  <cellStyles count="77">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -254,6 +267,8 @@
     <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -290,6 +305,8 @@
     <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -322,7 +339,7 @@
           <c:order val="14"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$M$1</c:f>
+              <c:f>Sheet1!$N$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -333,7 +350,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$L$6:$L$17</c:f>
+              <c:f>Sheet1!$M$6:$M$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -378,7 +395,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$M$6:$M$17</c:f>
+              <c:f>Sheet1!$N$6:$N$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -428,7 +445,7 @@
           <c:order val="15"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$N$1</c:f>
+              <c:f>Sheet1!$O$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -439,7 +456,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$L$6:$L$17</c:f>
+              <c:f>Sheet1!$M$6:$M$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -484,7 +501,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$N$6:$N$17</c:f>
+              <c:f>Sheet1!$O$6:$O$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -534,7 +551,7 @@
           <c:order val="16"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$O$1</c:f>
+              <c:f>Sheet1!$P$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -545,7 +562,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$L$6:$L$17</c:f>
+              <c:f>Sheet1!$M$6:$M$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -590,7 +607,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$O$6:$O$17</c:f>
+              <c:f>Sheet1!$P$6:$P$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -640,7 +657,7 @@
           <c:order val="17"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$P$1</c:f>
+              <c:f>Sheet1!$Q$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -651,7 +668,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$L$6:$L$17</c:f>
+              <c:f>Sheet1!$M$6:$M$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -696,7 +713,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$P$6:$P$17</c:f>
+              <c:f>Sheet1!$Q$6:$Q$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -746,7 +763,7 @@
           <c:order val="18"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$Q$1</c:f>
+              <c:f>Sheet1!$R$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -757,7 +774,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$L$6:$L$17</c:f>
+              <c:f>Sheet1!$M$6:$M$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -802,7 +819,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$Q$6:$Q$17</c:f>
+              <c:f>Sheet1!$R$6:$R$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -852,7 +869,7 @@
           <c:order val="19"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$R$1</c:f>
+              <c:f>Sheet1!$S$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -863,7 +880,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$L$6:$L$17</c:f>
+              <c:f>Sheet1!$M$6:$M$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -908,7 +925,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$R$6:$R$17</c:f>
+              <c:f>Sheet1!$S$6:$S$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -958,7 +975,7 @@
           <c:order val="20"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$S$1</c:f>
+              <c:f>Sheet1!$T$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -969,7 +986,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$L$6:$L$17</c:f>
+              <c:f>Sheet1!$M$6:$M$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1014,7 +1031,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$S$6:$S$17</c:f>
+              <c:f>Sheet1!$T$6:$T$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1064,7 +1081,7 @@
           <c:order val="21"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$T$1</c:f>
+              <c:f>Sheet1!$U$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1075,7 +1092,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$L$6:$L$17</c:f>
+              <c:f>Sheet1!$M$6:$M$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1120,7 +1137,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$T$6:$T$17</c:f>
+              <c:f>Sheet1!$U$6:$U$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1170,7 +1187,7 @@
           <c:order val="22"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$U$1</c:f>
+              <c:f>Sheet1!$V$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1181,7 +1198,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$L$6:$L$17</c:f>
+              <c:f>Sheet1!$M$6:$M$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1226,7 +1243,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$U$6:$U$17</c:f>
+              <c:f>Sheet1!$V$6:$V$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1276,7 +1293,7 @@
           <c:order val="23"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$V$1</c:f>
+              <c:f>Sheet1!$W$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1287,7 +1304,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$L$6:$L$17</c:f>
+              <c:f>Sheet1!$M$6:$M$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1332,7 +1349,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$V$6:$V$17</c:f>
+              <c:f>Sheet1!$W$6:$W$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1382,7 +1399,7 @@
           <c:order val="24"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$W$1</c:f>
+              <c:f>Sheet1!$X$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1393,7 +1410,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$L$6:$L$17</c:f>
+              <c:f>Sheet1!$M$6:$M$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1438,7 +1455,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$W$6:$W$17</c:f>
+              <c:f>Sheet1!$X$6:$X$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1488,7 +1505,7 @@
           <c:order val="25"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$X$1</c:f>
+              <c:f>Sheet1!$Y$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1499,7 +1516,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$L$6:$L$17</c:f>
+              <c:f>Sheet1!$M$6:$M$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1544,7 +1561,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$X$6:$X$17</c:f>
+              <c:f>Sheet1!$Y$6:$Y$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1594,7 +1611,7 @@
           <c:order val="26"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$Y$1</c:f>
+              <c:f>Sheet1!$Z$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1605,7 +1622,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$L$6:$L$17</c:f>
+              <c:f>Sheet1!$M$6:$M$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1650,7 +1667,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$Y$6:$Y$17</c:f>
+              <c:f>Sheet1!$Z$6:$Z$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1700,7 +1717,7 @@
           <c:order val="27"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$Z$1</c:f>
+              <c:f>Sheet1!$AA$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1711,7 +1728,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$L$6:$L$17</c:f>
+              <c:f>Sheet1!$M$6:$M$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1756,7 +1773,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$Z$6:$Z$17</c:f>
+              <c:f>Sheet1!$AA$6:$AA$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1806,7 +1823,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$M$1</c:f>
+              <c:f>Sheet1!$N$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1817,7 +1834,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$L$6:$L$17</c:f>
+              <c:f>Sheet1!$M$6:$M$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1862,7 +1879,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$M$6:$M$17</c:f>
+              <c:f>Sheet1!$N$6:$N$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1912,7 +1929,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$N$1</c:f>
+              <c:f>Sheet1!$O$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1923,7 +1940,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$L$6:$L$17</c:f>
+              <c:f>Sheet1!$M$6:$M$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1968,7 +1985,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$N$6:$N$17</c:f>
+              <c:f>Sheet1!$O$6:$O$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -2018,7 +2035,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$O$1</c:f>
+              <c:f>Sheet1!$P$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2029,7 +2046,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$L$6:$L$17</c:f>
+              <c:f>Sheet1!$M$6:$M$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -2074,7 +2091,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$O$6:$O$17</c:f>
+              <c:f>Sheet1!$P$6:$P$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -2124,7 +2141,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$P$1</c:f>
+              <c:f>Sheet1!$Q$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2135,7 +2152,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$L$6:$L$17</c:f>
+              <c:f>Sheet1!$M$6:$M$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -2180,7 +2197,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$P$6:$P$17</c:f>
+              <c:f>Sheet1!$Q$6:$Q$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -2230,7 +2247,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$Q$1</c:f>
+              <c:f>Sheet1!$R$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2241,7 +2258,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$L$6:$L$17</c:f>
+              <c:f>Sheet1!$M$6:$M$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -2286,7 +2303,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$Q$6:$Q$17</c:f>
+              <c:f>Sheet1!$R$6:$R$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -2336,7 +2353,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$R$1</c:f>
+              <c:f>Sheet1!$S$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2347,7 +2364,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$L$6:$L$17</c:f>
+              <c:f>Sheet1!$M$6:$M$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -2392,7 +2409,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$R$6:$R$17</c:f>
+              <c:f>Sheet1!$S$6:$S$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -2442,7 +2459,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$S$1</c:f>
+              <c:f>Sheet1!$T$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2453,7 +2470,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$L$6:$L$17</c:f>
+              <c:f>Sheet1!$M$6:$M$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -2498,7 +2515,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$S$6:$S$17</c:f>
+              <c:f>Sheet1!$T$6:$T$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -2548,7 +2565,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$T$1</c:f>
+              <c:f>Sheet1!$U$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2559,7 +2576,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$L$6:$L$17</c:f>
+              <c:f>Sheet1!$M$6:$M$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -2604,7 +2621,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$T$6:$T$17</c:f>
+              <c:f>Sheet1!$U$6:$U$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -2654,7 +2671,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$U$1</c:f>
+              <c:f>Sheet1!$V$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2665,7 +2682,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$L$6:$L$17</c:f>
+              <c:f>Sheet1!$M$6:$M$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -2710,7 +2727,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$U$6:$U$17</c:f>
+              <c:f>Sheet1!$V$6:$V$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -2760,7 +2777,7 @@
           <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$V$1</c:f>
+              <c:f>Sheet1!$W$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2771,7 +2788,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$L$6:$L$17</c:f>
+              <c:f>Sheet1!$M$6:$M$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -2816,7 +2833,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$V$6:$V$17</c:f>
+              <c:f>Sheet1!$W$6:$W$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -2866,7 +2883,7 @@
           <c:order val="10"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$W$1</c:f>
+              <c:f>Sheet1!$X$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2877,7 +2894,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$L$6:$L$17</c:f>
+              <c:f>Sheet1!$M$6:$M$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -2922,7 +2939,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$W$6:$W$17</c:f>
+              <c:f>Sheet1!$X$6:$X$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -2972,7 +2989,7 @@
           <c:order val="11"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$X$1</c:f>
+              <c:f>Sheet1!$Y$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2983,7 +3000,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$L$6:$L$17</c:f>
+              <c:f>Sheet1!$M$6:$M$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -3028,7 +3045,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$X$6:$X$17</c:f>
+              <c:f>Sheet1!$Y$6:$Y$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -3078,7 +3095,7 @@
           <c:order val="12"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$Y$1</c:f>
+              <c:f>Sheet1!$Z$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3089,7 +3106,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$L$6:$L$17</c:f>
+              <c:f>Sheet1!$M$6:$M$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -3134,7 +3151,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$Y$6:$Y$17</c:f>
+              <c:f>Sheet1!$Z$6:$Z$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -3184,7 +3201,7 @@
           <c:order val="13"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$Z$1</c:f>
+              <c:f>Sheet1!$AA$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3195,7 +3212,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$L$6:$L$17</c:f>
+              <c:f>Sheet1!$M$6:$M$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -3240,7 +3257,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$Z$6:$Z$17</c:f>
+              <c:f>Sheet1!$AA$6:$AA$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -3293,11 +3310,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2094193800"/>
-        <c:axId val="-2094191992"/>
+        <c:axId val="-2120538040"/>
+        <c:axId val="-2120553736"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2094193800"/>
+        <c:axId val="-2120538040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3307,12 +3324,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2094191992"/>
+        <c:crossAx val="-2120553736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2094191992"/>
+        <c:axId val="-2120553736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3323,7 +3340,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2094193800"/>
+        <c:crossAx val="-2120538040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3370,7 +3387,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$M$1</c:f>
+              <c:f>Sheet1!$N$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3381,7 +3398,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$L$6:$L$32</c:f>
+              <c:f>Sheet1!$M$6:$M$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
@@ -3471,7 +3488,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$M$6:$M$32</c:f>
+              <c:f>Sheet1!$N$6:$N$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
@@ -3566,7 +3583,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$N$1</c:f>
+              <c:f>Sheet1!$O$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3577,7 +3594,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$L$6:$L$32</c:f>
+              <c:f>Sheet1!$M$6:$M$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
@@ -3667,7 +3684,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$N$6:$N$32</c:f>
+              <c:f>Sheet1!$O$6:$O$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
@@ -3762,7 +3779,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$O$1</c:f>
+              <c:f>Sheet1!$P$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3773,7 +3790,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$L$6:$L$32</c:f>
+              <c:f>Sheet1!$M$6:$M$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
@@ -3863,7 +3880,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$O$6:$O$32</c:f>
+              <c:f>Sheet1!$P$6:$P$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
@@ -3958,7 +3975,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$P$1</c:f>
+              <c:f>Sheet1!$Q$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3969,7 +3986,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$L$6:$L$32</c:f>
+              <c:f>Sheet1!$M$6:$M$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
@@ -4059,7 +4076,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$P$6:$P$32</c:f>
+              <c:f>Sheet1!$Q$6:$Q$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
@@ -4154,7 +4171,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$Q$1</c:f>
+              <c:f>Sheet1!$R$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4165,7 +4182,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$L$6:$L$32</c:f>
+              <c:f>Sheet1!$M$6:$M$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
@@ -4255,7 +4272,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$Q$6:$Q$32</c:f>
+              <c:f>Sheet1!$R$6:$R$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
@@ -4353,11 +4370,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2094210152"/>
-        <c:axId val="-2094206312"/>
+        <c:axId val="-2114146216"/>
+        <c:axId val="-2114923112"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2094210152"/>
+        <c:axId val="-2114146216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4367,12 +4384,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2094206312"/>
+        <c:crossAx val="-2114923112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2094206312"/>
+        <c:axId val="-2114923112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4383,7 +4400,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2094210152"/>
+        <c:crossAx val="-2114146216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4440,7 +4457,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$R$1</c:f>
+              <c:f>Sheet1!$S$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4451,7 +4468,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$L$6:$L$32</c:f>
+              <c:f>Sheet1!$M$6:$M$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
@@ -4541,7 +4558,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$R$6:$R$32</c:f>
+              <c:f>Sheet1!$S$6:$S$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
@@ -4636,7 +4653,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$S$1</c:f>
+              <c:f>Sheet1!$T$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4647,7 +4664,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$L$6:$L$32</c:f>
+              <c:f>Sheet1!$M$6:$M$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
@@ -4737,7 +4754,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$S$6:$S$32</c:f>
+              <c:f>Sheet1!$T$6:$T$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
@@ -4832,7 +4849,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$T$1</c:f>
+              <c:f>Sheet1!$U$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4843,7 +4860,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$L$6:$L$31</c:f>
+              <c:f>Sheet1!$M$6:$M$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -4930,7 +4947,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$T$6:$T$32</c:f>
+              <c:f>Sheet1!$U$6:$U$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
@@ -5025,7 +5042,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$U$1</c:f>
+              <c:f>Sheet1!$V$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5036,7 +5053,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$L$6:$L$17</c:f>
+              <c:f>Sheet1!$M$6:$M$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -5081,7 +5098,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$U$6:$U$17</c:f>
+              <c:f>Sheet1!$V$6:$V$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -5131,7 +5148,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$V$1</c:f>
+              <c:f>Sheet1!$W$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5142,7 +5159,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$L$6:$L$32</c:f>
+              <c:f>Sheet1!$M$6:$M$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
@@ -5232,7 +5249,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$V$6:$V$32</c:f>
+              <c:f>Sheet1!$W$6:$W$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
@@ -5330,11 +5347,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2114085224"/>
-        <c:axId val="-2114081608"/>
+        <c:axId val="-2137249096"/>
+        <c:axId val="-2137246024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2114085224"/>
+        <c:axId val="-2137249096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5344,12 +5361,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2114081608"/>
+        <c:crossAx val="-2137246024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2114081608"/>
+        <c:axId val="-2137246024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5359,7 +5376,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2114085224"/>
+        <c:crossAx val="-2137249096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5406,7 +5423,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$W$1</c:f>
+              <c:f>Sheet1!$X$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5417,7 +5434,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$L$6:$L$32</c:f>
+              <c:f>Sheet1!$M$6:$M$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
@@ -5507,7 +5524,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$W$6:$W$32</c:f>
+              <c:f>Sheet1!$X$6:$X$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
@@ -5602,7 +5619,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$X$1</c:f>
+              <c:f>Sheet1!$Y$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5613,7 +5630,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$L$6:$L$32</c:f>
+              <c:f>Sheet1!$M$6:$M$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
@@ -5703,7 +5720,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$X$6:$X$32</c:f>
+              <c:f>Sheet1!$Y$6:$Y$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
@@ -5798,7 +5815,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$Y$1</c:f>
+              <c:f>Sheet1!$Z$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5809,7 +5826,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$L$6:$L$32</c:f>
+              <c:f>Sheet1!$M$6:$M$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
@@ -5899,7 +5916,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$Y$6:$Y$32</c:f>
+              <c:f>Sheet1!$Z$6:$Z$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
@@ -5994,7 +6011,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$Z$1</c:f>
+              <c:f>Sheet1!$AA$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6005,7 +6022,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$L$6:$L$32</c:f>
+              <c:f>Sheet1!$M$6:$M$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
@@ -6095,7 +6112,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$Z$6:$Z$32</c:f>
+              <c:f>Sheet1!$AA$6:$AA$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
@@ -6190,7 +6207,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AA$1</c:f>
+              <c:f>Sheet1!$AB$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6201,7 +6218,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$L$6:$L$32</c:f>
+              <c:f>Sheet1!$M$6:$M$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
@@ -6291,7 +6308,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$AA$6:$AA$32</c:f>
+              <c:f>Sheet1!$AB$6:$AB$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
@@ -6389,11 +6406,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2114572296"/>
-        <c:axId val="-2114569416"/>
+        <c:axId val="-2122466360"/>
+        <c:axId val="2080845960"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2114572296"/>
+        <c:axId val="-2122466360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6403,12 +6420,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2114569416"/>
+        <c:crossAx val="2080845960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2114569416"/>
+        <c:axId val="2080845960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6419,7 +6436,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2114572296"/>
+        <c:crossAx val="-2122466360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9437,11 +9454,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2118812168"/>
-        <c:axId val="-2118818152"/>
+        <c:axId val="-2094446920"/>
+        <c:axId val="-2094161816"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2118812168"/>
+        <c:axId val="-2094446920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9451,12 +9468,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2118818152"/>
+        <c:crossAx val="-2094161816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2118818152"/>
+        <c:axId val="-2094161816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9467,7 +9484,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2118812168"/>
+        <c:crossAx val="-2094446920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10496,11 +10513,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2118834632"/>
-        <c:axId val="-2118842600"/>
+        <c:axId val="-2094195864"/>
+        <c:axId val="-2094193144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2118834632"/>
+        <c:axId val="-2094195864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10510,12 +10527,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2118842600"/>
+        <c:crossAx val="-2094193144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2118842600"/>
+        <c:axId val="-2094193144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10526,7 +10543,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2118834632"/>
+        <c:crossAx val="-2094195864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11472,11 +11489,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2122487528"/>
-        <c:axId val="-2122502680"/>
+        <c:axId val="-2115867048"/>
+        <c:axId val="-2094446264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2122487528"/>
+        <c:axId val="-2115867048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11486,12 +11503,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2122502680"/>
+        <c:crossAx val="-2094446264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2122502680"/>
+        <c:axId val="-2094446264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11501,7 +11518,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2122487528"/>
+        <c:crossAx val="-2115867048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12530,11 +12547,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2122550680"/>
-        <c:axId val="-2122553688"/>
+        <c:axId val="-2094405224"/>
+        <c:axId val="-2094907128"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2122550680"/>
+        <c:axId val="-2094405224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12544,12 +12561,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2122553688"/>
+        <c:crossAx val="-2094907128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2122553688"/>
+        <c:axId val="-2094907128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12560,14 +12577,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2122550680"/>
+        <c:crossAx val="-2094405224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -12616,13 +12632,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>444500</xdr:colOff>
       <xdr:row>63</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -12648,13 +12664,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>444500</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>63500</xdr:colOff>
       <xdr:row>63</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
@@ -12680,13 +12696,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
       <xdr:row>62</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
@@ -13168,76 +13184,85 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D1:AA53"/>
+  <dimension ref="D1:AB53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E35" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3:AA3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="4:27">
-      <c r="M1" t="s">
+    <row r="1" spans="4:28">
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="N1" t="s">
         <v>16</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>17</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>18</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>20</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>6</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>7</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>8</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>9</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>10</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>11</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>12</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>13</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>14</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="4:27">
-      <c r="L2" t="s">
+    <row r="2" spans="4:28">
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2">
+        <v>3</v>
+      </c>
+      <c r="M2" t="s">
         <v>2</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>32</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>28</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>22</v>
-      </c>
-      <c r="P2">
-        <v>18</v>
       </c>
       <c r="Q2">
         <v>18</v>
@@ -13246,13 +13271,13 @@
         <v>18</v>
       </c>
       <c r="S2">
+        <v>18</v>
+      </c>
+      <c r="T2">
         <v>22</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>28</v>
-      </c>
-      <c r="U2">
-        <v>32</v>
       </c>
       <c r="V2">
         <v>32</v>
@@ -13264,21 +13289,21 @@
         <v>32</v>
       </c>
       <c r="Y2">
+        <v>32</v>
+      </c>
+      <c r="Z2">
         <v>28</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>22</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="4:27">
-      <c r="L3" t="s">
+    <row r="3" spans="4:28">
+      <c r="M3" t="s">
         <v>3</v>
-      </c>
-      <c r="M3">
-        <v>0.5</v>
       </c>
       <c r="N3">
         <v>0.5</v>
@@ -13322,17 +13347,17 @@
       <c r="AA3">
         <v>0.5</v>
       </c>
+      <c r="AB3">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="4" spans="4:27">
+    <row r="4" spans="4:28">
       <c r="G4">
         <f>(60-8)/2</f>
         <v>26</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>4</v>
-      </c>
-      <c r="M4">
-        <v>1E-3</v>
       </c>
       <c r="N4">
         <v>1E-3</v>
@@ -13341,13 +13366,13 @@
         <v>1E-3</v>
       </c>
       <c r="P4">
+        <v>1E-3</v>
+      </c>
+      <c r="Q4">
         <v>0.03</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>0.05</v>
-      </c>
-      <c r="R4">
-        <v>0.1</v>
       </c>
       <c r="S4">
         <v>0.1</v>
@@ -13359,13 +13384,13 @@
         <v>0.1</v>
       </c>
       <c r="V4">
+        <v>0.1</v>
+      </c>
+      <c r="W4">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>0.03</v>
-      </c>
-      <c r="X4">
-        <v>1E-3</v>
       </c>
       <c r="Y4">
         <v>1E-3</v>
@@ -13374,1971 +13399,2057 @@
         <v>1E-3</v>
       </c>
       <c r="AA4">
+        <v>1E-3</v>
+      </c>
+      <c r="AB4">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="4:27">
+    <row r="5" spans="4:28">
       <c r="J5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" t="s">
         <v>5</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="4:27">
+    <row r="6" spans="4:28">
       <c r="J6">
+        <f>$H$1*L6^$H$2</f>
+        <v>1.3196927758956509E-2</v>
+      </c>
+      <c r="K6">
         <v>1</v>
       </c>
-      <c r="K6">
-        <f>50*(1-EXP(-0.15*(J6+0.1)))</f>
+      <c r="L6">
+        <f>50*(1-EXP(-0.15*(K6+0.1)))</f>
         <v>7.6053147956042064</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>8</v>
       </c>
-      <c r="M6">
-        <f>(1/(1-M$4))*((1-M$4)/M$4)^M$4*((EXP(M$3*M$4*(M$2-$L6)))/(1+EXP(M$3*(M$2-$L6))))</f>
+      <c r="N6">
+        <f>(1/(1-N$4))*((1-N$4)/N$4)^N$4*((EXP(N$3*N$4*(N$2-$M6)))/(1+EXP(N$3*(N$2-$M6))))</f>
         <v>6.2677138371643653E-6</v>
       </c>
-      <c r="N6">
-        <f t="shared" ref="N6:AA21" si="0">(1/(1-N$4))*((1-N$4)/N$4)^N$4*((EXP(N$3*N$4*(N$2-$L6)))/(1+EXP(N$3*(N$2-$L6))))</f>
+      <c r="O6">
+        <f t="shared" ref="O6:AB21" si="0">(1/(1-O$4))*((1-O$4)/O$4)^O$4*((EXP(O$3*O$4*(O$2-$M6)))/(1+EXP(O$3*(O$2-$M6))))</f>
         <v>4.6218142424610195E-5</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <f t="shared" si="0"/>
         <v>9.247342016228795E-4</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <f t="shared" si="0"/>
         <v>8.8976046376227236E-3</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <f t="shared" si="0"/>
         <v>1.0480906506237571E-2</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <f t="shared" si="0"/>
         <v>1.5273555035428245E-2</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <f t="shared" si="0"/>
         <v>2.5393973419257248E-3</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <f t="shared" si="0"/>
         <v>1.7080936882517056E-4</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <f t="shared" si="0"/>
         <v>2.8235707127251881E-5</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <f t="shared" si="0"/>
         <v>1.8341080145275517E-5</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <f t="shared" si="0"/>
         <v>1.0076909132596895E-5</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <f t="shared" si="0"/>
         <v>6.2677138371643653E-6</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <f t="shared" si="0"/>
         <v>4.6218142424610195E-5</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <f t="shared" si="0"/>
         <v>9.247342016228795E-4</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <f t="shared" si="0"/>
         <v>7.0817354409004876E-3</v>
       </c>
     </row>
-    <row r="7" spans="4:27">
+    <row r="7" spans="4:28">
       <c r="J7">
+        <f t="shared" ref="J7:J25" si="1">$H$1*L7^$H$2</f>
+        <v>7.3984534919130637E-2</v>
+      </c>
+      <c r="K7">
         <v>2</v>
       </c>
-      <c r="K7">
-        <f t="shared" ref="K7:K25" si="1">50*(1-EXP(-0.15*(J7+0.1)))</f>
+      <c r="L7">
+        <f t="shared" ref="L7:L25" si="2">50*(1-EXP(-0.15*(K7+0.1)))</f>
         <v>13.51055628654716</v>
       </c>
-      <c r="L7">
-        <f>L6+2</f>
+      <c r="M7">
+        <f>M6+2</f>
         <v>10</v>
       </c>
-      <c r="M7">
-        <f t="shared" ref="M7:AA32" si="2">(1/(1-M$4))*((1-M$4)/M$4)^M$4*((EXP(M$3*M$4*(M$2-$L7)))/(1+EXP(M$3*(M$2-$L7))))</f>
+      <c r="N7">
+        <f t="shared" ref="N7:AB32" si="3">(1/(1-N$4))*((1-N$4)/N$4)^N$4*((EXP(N$3*N$4*(N$2-$M7)))/(1+EXP(N$3*(N$2-$M7))))</f>
         <v>1.7020204043279786E-5</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <f t="shared" si="0"/>
         <v>1.2549857587360581E-4</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <f t="shared" si="0"/>
         <v>2.5072507872025557E-3</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <f t="shared" si="0"/>
         <v>2.3204530023474251E-2</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <f t="shared" si="0"/>
         <v>2.6792462404929291E-2</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <f t="shared" si="0"/>
         <v>3.713976856397045E-2</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <f t="shared" si="0"/>
         <v>6.2361472713664424E-3</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <f t="shared" si="0"/>
         <v>4.2009048525892758E-4</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <f t="shared" si="0"/>
         <v>6.9447899905009832E-5</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <f t="shared" si="0"/>
         <v>4.6485145192257915E-5</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <f t="shared" si="0"/>
         <v>2.6582045975830524E-5</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <f t="shared" si="0"/>
         <v>1.7020204043279786E-5</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <f t="shared" si="0"/>
         <v>1.2549857587360581E-4</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <f t="shared" si="0"/>
         <v>2.5072507872025557E-3</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <f t="shared" si="0"/>
         <v>1.8936370103946023E-2</v>
       </c>
     </row>
-    <row r="8" spans="4:27">
+    <row r="8" spans="4:28">
       <c r="J8">
+        <f t="shared" si="1"/>
+        <v>0.19283542191994565</v>
+      </c>
+      <c r="K8">
         <v>3</v>
       </c>
-      <c r="K8">
+      <c r="L8">
+        <f t="shared" si="2"/>
+        <v>18.593244740517957</v>
+      </c>
+      <c r="M8">
+        <f t="shared" ref="M8:M32" si="4">M7+2</f>
+        <v>12</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="3"/>
+        <v>4.6218142424610195E-5</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="0"/>
+        <v>3.4072728504240649E-4</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="0"/>
+        <v>6.779797170200959E-3</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="0"/>
+        <v>5.9377187013507686E-2</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="0"/>
+        <v>6.7200666844039622E-2</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="0"/>
+        <v>8.8610547854341054E-2</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="0"/>
+        <v>1.5273555035428245E-2</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="0"/>
+        <v>1.0330368331633287E-3</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="0"/>
+        <v>1.7080936882517056E-4</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="0"/>
+        <v>1.178136461261518E-4</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="0"/>
+        <v>7.0119948615507161E-5</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="0"/>
+        <v>4.6218142424610195E-5</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" si="0"/>
+        <v>3.4072728504240649E-4</v>
+      </c>
+      <c r="AA8">
+        <f t="shared" si="0"/>
+        <v>6.779797170200959E-3</v>
+      </c>
+      <c r="AB8">
+        <f t="shared" si="0"/>
+        <v>4.968221357799664E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="4:28">
+      <c r="J9">
         <f t="shared" si="1"/>
-        <v>18.593244740517957</v>
-      </c>
-      <c r="L8">
-        <f t="shared" ref="L8:L32" si="3">L7+2</f>
-        <v>12</v>
-      </c>
-      <c r="M8">
-        <f t="shared" si="2"/>
-        <v>4.6218142424610195E-5</v>
-      </c>
-      <c r="N8">
-        <f t="shared" si="0"/>
+        <v>0.36348647334367756</v>
+      </c>
+      <c r="K9">
+        <v>4</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="2"/>
+        <v>22.96795523453417</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="3"/>
+        <v>1.2549857587360581E-4</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="0"/>
+        <v>9.247342016228795E-4</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="0"/>
+        <v>1.8201656495486759E-2</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="0"/>
+        <v>0.14483127382979394</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="0"/>
+        <v>0.16066838354418234</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="0"/>
+        <v>0.20152435475041808</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="0"/>
+        <v>3.713976856397045E-2</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="0"/>
+        <v>2.5393973419257248E-3</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="0"/>
+        <v>4.2009048525892758E-4</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="0"/>
+        <v>2.985764764993493E-4</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="0"/>
+        <v>1.849581020372056E-4</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" si="0"/>
+        <v>1.2549857587360581E-4</v>
+      </c>
+      <c r="Z9">
+        <f t="shared" si="0"/>
+        <v>9.247342016228795E-4</v>
+      </c>
+      <c r="AA9">
+        <f t="shared" si="0"/>
+        <v>1.8201656495486759E-2</v>
+      </c>
+      <c r="AB9">
+        <f t="shared" si="0"/>
+        <v>0.12425132561908839</v>
+      </c>
+    </row>
+    <row r="10" spans="4:28">
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>0.57316430908791483</v>
+      </c>
+      <c r="K10">
+        <v>5</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="2"/>
+        <v>26.733303451284328</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="3"/>
         <v>3.4072728504240649E-4</v>
       </c>
-      <c r="O8">
+      <c r="O10">
+        <f t="shared" si="0"/>
+        <v>2.5072507872025557E-3</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="0"/>
+        <v>4.7945990645748136E-2</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="0"/>
+        <v>0.3171058911700364</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="0"/>
+        <v>0.34481527360605929</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="0"/>
+        <v>0.41140435577671713</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="0"/>
+        <v>8.8610547854341054E-2</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="0"/>
+        <v>6.2361472713664424E-3</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="0"/>
+        <v>1.0330368331633287E-3</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="0"/>
+        <v>7.5658440384602675E-4</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="0"/>
+        <v>4.8780577265414955E-4</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="0"/>
+        <v>3.4072728504240649E-4</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" si="0"/>
+        <v>2.5072507872025557E-3</v>
+      </c>
+      <c r="AA10">
+        <f t="shared" si="0"/>
+        <v>4.7945990645748136E-2</v>
+      </c>
+      <c r="AB10">
+        <f t="shared" si="0"/>
+        <v>0.27893329226557229</v>
+      </c>
+    </row>
+    <row r="11" spans="4:28">
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>0.80790946540709518</v>
+      </c>
+      <c r="K11">
+        <v>6</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="2"/>
+        <v>29.974168695459056</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="3"/>
+        <v>9.247342016228795E-4</v>
+      </c>
+      <c r="O11">
         <f t="shared" si="0"/>
         <v>6.779797170200959E-3</v>
       </c>
-      <c r="P8">
-        <f t="shared" si="0"/>
-        <v>5.9377187013507686E-2</v>
-      </c>
-      <c r="Q8">
-        <f t="shared" si="0"/>
-        <v>6.7200666844039622E-2</v>
-      </c>
-      <c r="R8">
+      <c r="P11">
+        <f t="shared" si="0"/>
+        <v>0.12038976525230502</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="0"/>
+        <v>0.57212086219421976</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="0"/>
+        <v>0.60979530895708589</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="0"/>
+        <v>0.69207274423084297</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="0"/>
+        <v>0.20152435475041808</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="0"/>
+        <v>1.5273555035428245E-2</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="0"/>
+        <v>2.5393973419257248E-3</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="0"/>
+        <v>1.9164657977017913E-3</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="0"/>
+        <v>1.2860634719583277E-3</v>
+      </c>
+      <c r="Y11">
+        <f t="shared" si="0"/>
+        <v>9.247342016228795E-4</v>
+      </c>
+      <c r="Z11">
+        <f t="shared" si="0"/>
+        <v>6.779797170200959E-3</v>
+      </c>
+      <c r="AA11">
+        <f t="shared" si="0"/>
+        <v>0.12038976525230502</v>
+      </c>
+      <c r="AB11">
+        <f t="shared" si="0"/>
+        <v>0.51598988592522654</v>
+      </c>
+    </row>
+    <row r="12" spans="4:28">
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>1.0551067195480708</v>
+      </c>
+      <c r="K12">
+        <v>7</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="2"/>
+        <v>32.763607261638995</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="3"/>
+        <v>2.5072507872025557E-3</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="0"/>
+        <v>1.8201656495486759E-2</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="0"/>
+        <v>0.27134765176536868</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="0"/>
+        <v>0.81178518903803742</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="0"/>
+        <v>0.84810871973589819</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="0"/>
+        <v>0.91559723194116038</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="0"/>
+        <v>0.41140435577671713</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="0"/>
+        <v>3.713976856397045E-2</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="0"/>
+        <v>6.2361472713664424E-3</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="0"/>
+        <v>4.8497082124886928E-3</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="0"/>
+        <v>3.387261446484741E-3</v>
+      </c>
+      <c r="Y12">
+        <f t="shared" si="0"/>
+        <v>2.5072507872025557E-3</v>
+      </c>
+      <c r="Z12">
+        <f t="shared" si="0"/>
+        <v>1.8201656495486759E-2</v>
+      </c>
+      <c r="AA12">
+        <f t="shared" si="0"/>
+        <v>0.27134765176536868</v>
+      </c>
+      <c r="AB12">
+        <f t="shared" si="0"/>
+        <v>0.75067489163098</v>
+      </c>
+    </row>
+    <row r="13" spans="4:28">
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>1.3044714187914888</v>
+      </c>
+      <c r="K13">
+        <v>8</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="2"/>
+        <v>35.164499285297737</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="4"/>
+        <v>22</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="3"/>
+        <v>6.779797170200959E-3</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="0"/>
+        <v>4.7945990645748136E-2</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="0"/>
+        <v>0.50396930000842732</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="0"/>
+        <v>0.94915245724089203</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="0"/>
+        <v>0.9719870791193892</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="0"/>
+        <v>0.99815666338412423</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="0"/>
+        <v>0.69207274423084297</v>
+      </c>
+      <c r="U13">
         <f t="shared" si="0"/>
         <v>8.8610547854341054E-2</v>
       </c>
-      <c r="S8">
+      <c r="V13">
         <f t="shared" si="0"/>
         <v>1.5273555035428245E-2</v>
       </c>
-      <c r="T8">
-        <f t="shared" si="0"/>
-        <v>1.0330368331633287E-3</v>
-      </c>
-      <c r="U8">
-        <f t="shared" si="0"/>
-        <v>1.7080936882517056E-4</v>
-      </c>
-      <c r="V8">
-        <f t="shared" si="0"/>
-        <v>1.178136461261518E-4</v>
-      </c>
-      <c r="W8">
-        <f t="shared" si="0"/>
-        <v>7.0119948615507161E-5</v>
-      </c>
-      <c r="X8">
-        <f t="shared" si="0"/>
-        <v>4.6218142424610195E-5</v>
-      </c>
-      <c r="Y8">
-        <f t="shared" si="0"/>
-        <v>3.4072728504240649E-4</v>
-      </c>
-      <c r="Z8">
+      <c r="W13">
+        <f t="shared" si="0"/>
+        <v>1.2239627913701374E-2</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="0"/>
+        <v>8.8976046376227236E-3</v>
+      </c>
+      <c r="Y13">
         <f t="shared" si="0"/>
         <v>6.779797170200959E-3</v>
       </c>
-      <c r="AA8">
-        <f t="shared" si="0"/>
-        <v>4.968221357799664E-2</v>
+      <c r="Z13">
+        <f t="shared" si="0"/>
+        <v>4.7945990645748136E-2</v>
+      </c>
+      <c r="AA13">
+        <f t="shared" si="0"/>
+        <v>0.50396930000842732</v>
+      </c>
+      <c r="AB13">
+        <f t="shared" si="0"/>
+        <v>0.89992041702460923</v>
       </c>
     </row>
-    <row r="9" spans="4:27">
-      <c r="J9">
-        <v>4</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="1"/>
-        <v>22.96795523453417</v>
-      </c>
-      <c r="L9">
-        <f t="shared" si="3"/>
-        <v>14</v>
-      </c>
-      <c r="M9">
-        <f t="shared" si="2"/>
-        <v>1.2549857587360581E-4</v>
-      </c>
-      <c r="N9">
-        <f t="shared" si="0"/>
-        <v>9.247342016228795E-4</v>
-      </c>
-      <c r="O9">
-        <f t="shared" si="0"/>
-        <v>1.8201656495486759E-2</v>
-      </c>
-      <c r="P9">
-        <f t="shared" si="0"/>
-        <v>0.14483127382979394</v>
-      </c>
-      <c r="Q9">
-        <f t="shared" si="0"/>
-        <v>0.16066838354418234</v>
-      </c>
-      <c r="R9">
-        <f t="shared" si="0"/>
-        <v>0.20152435475041808</v>
-      </c>
-      <c r="S9">
-        <f t="shared" si="0"/>
-        <v>3.713976856397045E-2</v>
-      </c>
-      <c r="T9">
-        <f t="shared" si="0"/>
-        <v>2.5393973419257248E-3</v>
-      </c>
-      <c r="U9">
-        <f t="shared" si="0"/>
-        <v>4.2009048525892758E-4</v>
-      </c>
-      <c r="V9">
-        <f t="shared" si="0"/>
-        <v>2.985764764993493E-4</v>
-      </c>
-      <c r="W9">
-        <f t="shared" si="0"/>
-        <v>1.849581020372056E-4</v>
-      </c>
-      <c r="X9">
-        <f t="shared" si="0"/>
-        <v>1.2549857587360581E-4</v>
-      </c>
-      <c r="Y9">
-        <f t="shared" si="0"/>
-        <v>9.247342016228795E-4</v>
-      </c>
-      <c r="Z9">
-        <f t="shared" si="0"/>
-        <v>1.8201656495486759E-2</v>
-      </c>
-      <c r="AA9">
-        <f t="shared" si="0"/>
-        <v>0.12425132561908839</v>
-      </c>
-    </row>
-    <row r="10" spans="4:27">
-      <c r="J10">
-        <v>5</v>
-      </c>
-      <c r="K10">
-        <f t="shared" si="1"/>
-        <v>26.733303451284328</v>
-      </c>
-      <c r="L10">
-        <f t="shared" si="3"/>
-        <v>16</v>
-      </c>
-      <c r="M10">
-        <f t="shared" si="2"/>
-        <v>3.4072728504240649E-4</v>
-      </c>
-      <c r="N10">
-        <f t="shared" si="0"/>
-        <v>2.5072507872025557E-3</v>
-      </c>
-      <c r="O10">
-        <f t="shared" si="0"/>
-        <v>4.7945990645748136E-2</v>
-      </c>
-      <c r="P10">
-        <f t="shared" si="0"/>
-        <v>0.3171058911700364</v>
-      </c>
-      <c r="Q10">
-        <f t="shared" si="0"/>
-        <v>0.34481527360605929</v>
-      </c>
-      <c r="R10">
-        <f t="shared" si="0"/>
-        <v>0.41140435577671713</v>
-      </c>
-      <c r="S10">
-        <f t="shared" si="0"/>
-        <v>8.8610547854341054E-2</v>
-      </c>
-      <c r="T10">
-        <f t="shared" si="0"/>
-        <v>6.2361472713664424E-3</v>
-      </c>
-      <c r="U10">
-        <f t="shared" si="0"/>
-        <v>1.0330368331633287E-3</v>
-      </c>
-      <c r="V10">
-        <f t="shared" si="0"/>
-        <v>7.5658440384602675E-4</v>
-      </c>
-      <c r="W10">
-        <f t="shared" si="0"/>
-        <v>4.8780577265414955E-4</v>
-      </c>
-      <c r="X10">
-        <f t="shared" si="0"/>
-        <v>3.4072728504240649E-4</v>
-      </c>
-      <c r="Y10">
-        <f t="shared" si="0"/>
-        <v>2.5072507872025557E-3</v>
-      </c>
-      <c r="Z10">
-        <f t="shared" si="0"/>
-        <v>4.7945990645748136E-2</v>
-      </c>
-      <c r="AA10">
-        <f t="shared" si="0"/>
-        <v>0.27893329226557229</v>
-      </c>
-    </row>
-    <row r="11" spans="4:27">
-      <c r="J11">
-        <v>6</v>
-      </c>
-      <c r="K11">
-        <f t="shared" si="1"/>
-        <v>29.974168695459056</v>
-      </c>
-      <c r="L11">
-        <f t="shared" si="3"/>
-        <v>18</v>
-      </c>
-      <c r="M11">
-        <f t="shared" si="2"/>
-        <v>9.247342016228795E-4</v>
-      </c>
-      <c r="N11">
-        <f t="shared" si="0"/>
-        <v>6.779797170200959E-3</v>
-      </c>
-      <c r="O11">
-        <f t="shared" si="0"/>
-        <v>0.12038976525230502</v>
-      </c>
-      <c r="P11">
-        <f t="shared" si="0"/>
-        <v>0.57212086219421976</v>
-      </c>
-      <c r="Q11">
-        <f t="shared" si="0"/>
-        <v>0.60979530895708589</v>
-      </c>
-      <c r="R11">
-        <f t="shared" si="0"/>
-        <v>0.69207274423084297</v>
-      </c>
-      <c r="S11">
-        <f t="shared" si="0"/>
-        <v>0.20152435475041808</v>
-      </c>
-      <c r="T11">
-        <f t="shared" si="0"/>
-        <v>1.5273555035428245E-2</v>
-      </c>
-      <c r="U11">
-        <f t="shared" si="0"/>
-        <v>2.5393973419257248E-3</v>
-      </c>
-      <c r="V11">
-        <f t="shared" si="0"/>
-        <v>1.9164657977017913E-3</v>
-      </c>
-      <c r="W11">
-        <f t="shared" si="0"/>
-        <v>1.2860634719583277E-3</v>
-      </c>
-      <c r="X11">
-        <f t="shared" si="0"/>
-        <v>9.247342016228795E-4</v>
-      </c>
-      <c r="Y11">
-        <f t="shared" si="0"/>
-        <v>6.779797170200959E-3</v>
-      </c>
-      <c r="Z11">
-        <f t="shared" si="0"/>
-        <v>0.12038976525230502</v>
-      </c>
-      <c r="AA11">
-        <f t="shared" si="0"/>
-        <v>0.51598988592522654</v>
-      </c>
-    </row>
-    <row r="12" spans="4:27">
-      <c r="J12">
-        <v>7</v>
-      </c>
-      <c r="K12">
-        <f t="shared" si="1"/>
-        <v>32.763607261638995</v>
-      </c>
-      <c r="L12">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="M12">
-        <f t="shared" si="2"/>
-        <v>2.5072507872025557E-3</v>
-      </c>
-      <c r="N12">
-        <f t="shared" si="0"/>
-        <v>1.8201656495486759E-2</v>
-      </c>
-      <c r="O12">
-        <f t="shared" si="0"/>
-        <v>0.27134765176536868</v>
-      </c>
-      <c r="P12">
-        <f t="shared" si="0"/>
-        <v>0.81178518903803742</v>
-      </c>
-      <c r="Q12">
-        <f t="shared" si="0"/>
-        <v>0.84810871973589819</v>
-      </c>
-      <c r="R12">
-        <f t="shared" si="0"/>
-        <v>0.91559723194116038</v>
-      </c>
-      <c r="S12">
-        <f t="shared" si="0"/>
-        <v>0.41140435577671713</v>
-      </c>
-      <c r="T12">
-        <f t="shared" si="0"/>
-        <v>3.713976856397045E-2</v>
-      </c>
-      <c r="U12">
-        <f t="shared" si="0"/>
-        <v>6.2361472713664424E-3</v>
-      </c>
-      <c r="V12">
-        <f t="shared" si="0"/>
-        <v>4.8497082124886928E-3</v>
-      </c>
-      <c r="W12">
-        <f t="shared" si="0"/>
-        <v>3.387261446484741E-3</v>
-      </c>
-      <c r="X12">
-        <f t="shared" si="0"/>
-        <v>2.5072507872025557E-3</v>
-      </c>
-      <c r="Y12">
-        <f t="shared" si="0"/>
-        <v>1.8201656495486759E-2</v>
-      </c>
-      <c r="Z12">
-        <f t="shared" si="0"/>
-        <v>0.27134765176536868</v>
-      </c>
-      <c r="AA12">
-        <f t="shared" si="0"/>
-        <v>0.75067489163098</v>
-      </c>
-    </row>
-    <row r="13" spans="4:27">
-      <c r="J13">
-        <v>8</v>
-      </c>
-      <c r="K13">
-        <f t="shared" si="1"/>
-        <v>35.164499285297737</v>
-      </c>
-      <c r="L13">
-        <f t="shared" si="3"/>
-        <v>22</v>
-      </c>
-      <c r="M13">
-        <f t="shared" si="2"/>
-        <v>6.779797170200959E-3</v>
-      </c>
-      <c r="N13">
-        <f t="shared" si="0"/>
-        <v>4.7945990645748136E-2</v>
-      </c>
-      <c r="O13">
-        <f t="shared" si="0"/>
-        <v>0.50396930000842732</v>
-      </c>
-      <c r="P13">
-        <f t="shared" si="0"/>
-        <v>0.94915245724089203</v>
-      </c>
-      <c r="Q13">
-        <f t="shared" si="0"/>
-        <v>0.9719870791193892</v>
-      </c>
-      <c r="R13">
-        <f t="shared" si="0"/>
-        <v>0.99815666338412423</v>
-      </c>
-      <c r="S13">
-        <f t="shared" si="0"/>
-        <v>0.69207274423084297</v>
-      </c>
-      <c r="T13">
-        <f t="shared" si="0"/>
-        <v>8.8610547854341054E-2</v>
-      </c>
-      <c r="U13">
-        <f t="shared" si="0"/>
-        <v>1.5273555035428245E-2</v>
-      </c>
-      <c r="V13">
-        <f t="shared" si="0"/>
-        <v>1.2239627913701374E-2</v>
-      </c>
-      <c r="W13">
-        <f t="shared" si="0"/>
-        <v>8.8976046376227236E-3</v>
-      </c>
-      <c r="X13">
-        <f t="shared" si="0"/>
-        <v>6.779797170200959E-3</v>
-      </c>
-      <c r="Y13">
-        <f t="shared" si="0"/>
-        <v>4.7945990645748136E-2</v>
-      </c>
-      <c r="Z13">
-        <f t="shared" si="0"/>
-        <v>0.50396930000842732</v>
-      </c>
-      <c r="AA13">
-        <f t="shared" si="0"/>
-        <v>0.89992041702460923</v>
-      </c>
-    </row>
-    <row r="14" spans="4:27" ht="19">
+    <row r="14" spans="4:28" ht="19">
       <c r="D14" s="1" t="s">
         <v>0</v>
       </c>
       <c r="J14">
+        <f t="shared" si="1"/>
+        <v>1.548225355339653</v>
+      </c>
+      <c r="K14">
         <v>9</v>
       </c>
-      <c r="K14">
+      <c r="L14">
+        <f t="shared" si="2"/>
+        <v>37.230966200596114</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="3"/>
+        <v>1.8201656495486759E-2</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="0"/>
+        <v>0.12038976525230502</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="0"/>
+        <v>0.73612566642266453</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="0"/>
+        <v>0.99616219985734145</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="0"/>
+        <v>0.99992789437186647</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="0"/>
+        <v>0.97676969818368453</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="0"/>
+        <v>0.91559723194116038</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="0"/>
+        <v>0.20152435475041808</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="0"/>
+        <v>3.713976856397045E-2</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="0"/>
+        <v>3.0668752365479012E-2</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="0"/>
+        <v>2.3204530023474251E-2</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" si="0"/>
+        <v>1.8201656495486759E-2</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" si="0"/>
+        <v>0.12038976525230502</v>
+      </c>
+      <c r="AA14">
+        <f t="shared" si="0"/>
+        <v>0.73612566642266453</v>
+      </c>
+      <c r="AB14">
+        <f t="shared" si="0"/>
+        <v>0.96840171241515616</v>
+      </c>
+    </row>
+    <row r="15" spans="4:28">
+      <c r="J15">
         <f t="shared" si="1"/>
-        <v>37.230966200596114</v>
-      </c>
-      <c r="L14">
-        <f t="shared" si="3"/>
-        <v>24</v>
-      </c>
-      <c r="M14">
-        <f t="shared" si="2"/>
-        <v>1.8201656495486759E-2</v>
-      </c>
-      <c r="N14">
-        <f t="shared" si="0"/>
+        <v>1.7808832016949969</v>
+      </c>
+      <c r="K15">
+        <v>10</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="2"/>
+        <v>39.00959075761191</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="4"/>
+        <v>26</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="3"/>
+        <v>4.7945990645748136E-2</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="0"/>
+        <v>0.27134765176536868</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="0"/>
+        <v>0.88601556932423098</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="0"/>
+        <v>0.99659804008516795</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="0"/>
+        <v>0.98055682041903069</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="0"/>
+        <v>0.91113249380925754</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="0"/>
+        <v>0.99815666338412423</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="0"/>
+        <v>0.41140435577671713</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="0"/>
+        <v>8.8610547854341054E-2</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="0"/>
+        <v>7.5399969788445736E-2</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="0"/>
+        <v>5.9377187013507686E-2</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="0"/>
+        <v>4.7945990645748136E-2</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="0"/>
+        <v>0.27134765176536868</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" si="0"/>
+        <v>0.88601556932423098</v>
+      </c>
+      <c r="AB15">
+        <f t="shared" si="0"/>
+        <v>0.993351338835471</v>
+      </c>
+    </row>
+    <row r="16" spans="4:28">
+      <c r="J16">
+        <f t="shared" si="1"/>
+        <v>1.9988835755926948</v>
+      </c>
+      <c r="K16">
+        <v>11</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="2"/>
+        <v>40.540467100900898</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="4"/>
+        <v>28</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="3"/>
         <v>0.12038976525230502</v>
       </c>
-      <c r="O14">
+      <c r="O16">
+        <f t="shared" si="0"/>
+        <v>0.50396930000842732</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="0"/>
+        <v>0.95726013940194465</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="0"/>
+        <v>0.97826647150351953</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="0"/>
+        <v>0.94346113712048096</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="0"/>
+        <v>0.83390784936379714</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="0"/>
+        <v>0.97676969818368453</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="0"/>
+        <v>0.69207274423084297</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="0"/>
+        <v>0.20152435475041808</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="0"/>
+        <v>0.1767022680536266</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="0"/>
+        <v>0.14483127382979394</v>
+      </c>
+      <c r="Y16">
+        <f t="shared" si="0"/>
+        <v>0.12038976525230502</v>
+      </c>
+      <c r="Z16">
+        <f t="shared" si="0"/>
+        <v>0.50396930000842732</v>
+      </c>
+      <c r="AA16">
+        <f t="shared" si="0"/>
+        <v>0.95726013940194465</v>
+      </c>
+      <c r="AB16">
+        <f t="shared" si="0"/>
+        <v>0.99976374537057022</v>
+      </c>
+    </row>
+    <row r="17" spans="10:28">
+      <c r="J17">
+        <f t="shared" si="1"/>
+        <v>2.2001887051817195</v>
+      </c>
+      <c r="K17">
+        <v>12</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="2"/>
+        <v>41.858104580490149</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="3"/>
+        <v>0.27134765176536868</v>
+      </c>
+      <c r="O17">
         <f t="shared" si="0"/>
         <v>0.73612566642266453</v>
       </c>
-      <c r="P14">
+      <c r="P17">
+        <f t="shared" si="0"/>
+        <v>0.98585827423856087</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="0"/>
+        <v>0.95338781491410485</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="0"/>
+        <v>0.90126094898425457</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="0"/>
+        <v>0.75775685865205566</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="0"/>
+        <v>0.91113249380925754</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="0"/>
+        <v>0.91559723194116038</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="0"/>
+        <v>0.41140435577671713</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="0"/>
+        <v>0.37171689826843174</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="0"/>
+        <v>0.3171058911700364</v>
+      </c>
+      <c r="Y17">
+        <f t="shared" si="0"/>
+        <v>0.27134765176536868</v>
+      </c>
+      <c r="Z17">
+        <f t="shared" si="0"/>
+        <v>0.73612566642266453</v>
+      </c>
+      <c r="AA17">
+        <f t="shared" si="0"/>
+        <v>0.98585827423856087</v>
+      </c>
+      <c r="AB17">
+        <f t="shared" si="0"/>
+        <v>0.9990038772694011</v>
+      </c>
+    </row>
+    <row r="18" spans="10:28">
+      <c r="J18">
+        <f t="shared" si="1"/>
+        <v>2.3839131805075664</v>
+      </c>
+      <c r="K18">
+        <v>13</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="2"/>
+        <v>42.992205669209234</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="4"/>
+        <v>32</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="3"/>
+        <v>0.50396930000842732</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="0"/>
+        <v>0.88601556932423098</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="0"/>
+        <v>0.99619914821556144</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="0"/>
+        <v>0.92665931145669933</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="0"/>
+        <v>0.85864799715343942</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="0"/>
+        <v>0.68672010020449492</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="0"/>
+        <v>0.83390784936379714</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="0"/>
+        <v>0.99815666338412423</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="0"/>
+        <v>0.69207274423084297</v>
+      </c>
+      <c r="W18">
+        <f t="shared" si="0"/>
+        <v>0.64435321441853821</v>
+      </c>
+      <c r="X18">
+        <f t="shared" si="0"/>
+        <v>0.57212086219421976</v>
+      </c>
+      <c r="Y18">
+        <f t="shared" si="0"/>
+        <v>0.50396930000842732</v>
+      </c>
+      <c r="Z18">
+        <f t="shared" si="0"/>
+        <v>0.88601556932423098</v>
+      </c>
+      <c r="AA18">
+        <f t="shared" si="0"/>
+        <v>0.99619914821556144</v>
+      </c>
+      <c r="AB18">
+        <f t="shared" si="0"/>
+        <v>0.99557740808330064</v>
+      </c>
+    </row>
+    <row r="19" spans="10:28">
+      <c r="J19">
+        <f t="shared" si="1"/>
+        <v>2.5500067509114586</v>
+      </c>
+      <c r="K19">
+        <v>14</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="2"/>
+        <v>43.96833552234208</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="4"/>
+        <v>34</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="3"/>
+        <v>0.73612566642266453</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="0"/>
+        <v>0.95726013940194465</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="0"/>
+        <v>0.99943173150024212</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="0"/>
+        <v>0.89979057408823759</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="0"/>
+        <v>0.81724188503447581</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="0"/>
+        <v>0.62172809197843915</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="0"/>
+        <v>0.75775685865205566</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="0"/>
+        <v>0.97676969818368453</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="0"/>
+        <v>0.91559723194116038</v>
+      </c>
+      <c r="W19">
+        <f t="shared" si="0"/>
+        <v>0.87842676317419344</v>
+      </c>
+      <c r="X19">
+        <f t="shared" si="0"/>
+        <v>0.81178518903803742</v>
+      </c>
+      <c r="Y19">
+        <f t="shared" si="0"/>
+        <v>0.73612566642266453</v>
+      </c>
+      <c r="Z19">
+        <f t="shared" si="0"/>
+        <v>0.95726013940194465</v>
+      </c>
+      <c r="AA19">
+        <f t="shared" si="0"/>
+        <v>0.99943173150024212</v>
+      </c>
+      <c r="AB19">
+        <f t="shared" si="0"/>
+        <v>0.99118276143885542</v>
+      </c>
+    </row>
+    <row r="20" spans="10:28">
+      <c r="J20">
+        <f t="shared" si="1"/>
+        <v>2.6989971248506208</v>
+      </c>
+      <c r="K20">
+        <v>15</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="2"/>
+        <v>44.808498272960151</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="3"/>
+        <v>0.88601556932423098</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="0"/>
+        <v>0.98585827423856087</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="0"/>
+        <v>0.99999578866732575</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="0"/>
+        <v>0.87338288495205119</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="0"/>
+        <v>0.77754935422239735</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="0"/>
+        <v>0.56268211978518712</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="0"/>
+        <v>0.68672010020449492</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="0"/>
+        <v>0.91113249380925754</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="0"/>
+        <v>0.99815666338412423</v>
+      </c>
+      <c r="W20">
+        <f t="shared" si="0"/>
+        <v>0.986798845647615</v>
+      </c>
+      <c r="X20">
+        <f t="shared" si="0"/>
+        <v>0.94915245724089203</v>
+      </c>
+      <c r="Y20">
+        <f t="shared" si="0"/>
+        <v>0.88601556932423098</v>
+      </c>
+      <c r="Z20">
+        <f t="shared" si="0"/>
+        <v>0.98585827423856087</v>
+      </c>
+      <c r="AA20">
+        <f t="shared" si="0"/>
+        <v>0.99999578866732575</v>
+      </c>
+      <c r="AB20">
+        <f t="shared" si="0"/>
+        <v>0.98644832579710184</v>
+      </c>
+    </row>
+    <row r="21" spans="10:28">
+      <c r="J21">
+        <f t="shared" si="1"/>
+        <v>2.8317892982993489</v>
+      </c>
+      <c r="K21">
+        <v>16</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="2"/>
+        <v>45.531633053912337</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="4"/>
+        <v>38</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="3"/>
+        <v>0.95726013940194465</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="0"/>
+        <v>0.99619914821556144</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="0"/>
+        <v>0.99957194038300812</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="0"/>
+        <v>0.8476366356475018</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="0"/>
+        <v>0.73968552039214863</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="0"/>
+        <v>0.50917555226094868</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="0"/>
+        <v>0.62172809197843915</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="0"/>
+        <v>0.83390784936379714</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="0"/>
+        <v>0.97676969818368453</v>
+      </c>
+      <c r="W21">
+        <f t="shared" si="0"/>
+        <v>0.99506381853218462</v>
+      </c>
+      <c r="X21">
         <f t="shared" si="0"/>
         <v>0.99616219985734145</v>
       </c>
-      <c r="Q14">
-        <f t="shared" si="0"/>
-        <v>0.99992789437186647</v>
-      </c>
-      <c r="R14">
-        <f t="shared" si="0"/>
-        <v>0.97676969818368453</v>
-      </c>
-      <c r="S14">
-        <f t="shared" si="0"/>
-        <v>0.91559723194116038</v>
-      </c>
-      <c r="T14">
-        <f t="shared" si="0"/>
-        <v>0.20152435475041808</v>
-      </c>
-      <c r="U14">
-        <f t="shared" si="0"/>
-        <v>3.713976856397045E-2</v>
-      </c>
-      <c r="V14">
-        <f t="shared" si="0"/>
-        <v>3.0668752365479012E-2</v>
-      </c>
-      <c r="W14">
-        <f t="shared" si="0"/>
-        <v>2.3204530023474251E-2</v>
-      </c>
-      <c r="X14">
-        <f t="shared" si="0"/>
-        <v>1.8201656495486759E-2</v>
-      </c>
-      <c r="Y14">
-        <f t="shared" si="0"/>
-        <v>0.12038976525230502</v>
-      </c>
-      <c r="Z14">
-        <f t="shared" si="0"/>
-        <v>0.73612566642266453</v>
-      </c>
-      <c r="AA14">
-        <f t="shared" si="0"/>
-        <v>0.96840171241515616</v>
+      <c r="Y21">
+        <f t="shared" si="0"/>
+        <v>0.95726013940194465</v>
+      </c>
+      <c r="Z21">
+        <f t="shared" si="0"/>
+        <v>0.99619914821556144</v>
+      </c>
+      <c r="AA21">
+        <f t="shared" si="0"/>
+        <v>0.99957194038300812</v>
+      </c>
+      <c r="AB21">
+        <f t="shared" si="0"/>
+        <v>0.98160495967746075</v>
       </c>
     </row>
-    <row r="15" spans="4:27">
-      <c r="J15">
-        <v>10</v>
-      </c>
-      <c r="K15">
+    <row r="22" spans="10:28">
+      <c r="J22">
         <f t="shared" si="1"/>
-        <v>39.00959075761191</v>
-      </c>
-      <c r="L15">
-        <f t="shared" si="3"/>
-        <v>26</v>
-      </c>
-      <c r="M15">
-        <f t="shared" si="2"/>
-        <v>4.7945990645748136E-2</v>
-      </c>
-      <c r="N15">
-        <f t="shared" si="0"/>
-        <v>0.27134765176536868</v>
-      </c>
-      <c r="O15">
-        <f t="shared" si="0"/>
-        <v>0.88601556932423098</v>
-      </c>
-      <c r="P15">
-        <f t="shared" si="0"/>
+        <v>2.9495139004010826</v>
+      </c>
+      <c r="K22">
+        <v>17</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="2"/>
+        <v>46.154040927908277</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="3"/>
+        <v>0.98585827423856087</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="3"/>
+        <v>0.99943173150024212</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="3"/>
+        <v>0.99878459212967408</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="3"/>
+        <v>0.82260879347998606</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="3"/>
+        <v>0.70363082391591414</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="3"/>
+        <v>0.46073431369339801</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="3"/>
+        <v>0.56268211978518712</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="3"/>
+        <v>0.75775685865205566</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="3"/>
+        <v>0.91113249380925754</v>
+      </c>
+      <c r="W22">
+        <f t="shared" si="3"/>
+        <v>0.9564650970964359</v>
+      </c>
+      <c r="X22">
+        <f t="shared" si="3"/>
         <v>0.99659804008516795</v>
       </c>
-      <c r="Q15">
-        <f t="shared" si="0"/>
-        <v>0.98055682041903069</v>
-      </c>
-      <c r="R15">
-        <f t="shared" si="0"/>
-        <v>0.91113249380925754</v>
-      </c>
-      <c r="S15">
-        <f t="shared" si="0"/>
-        <v>0.99815666338412423</v>
-      </c>
-      <c r="T15">
-        <f t="shared" si="0"/>
-        <v>0.41140435577671713</v>
-      </c>
-      <c r="U15">
-        <f t="shared" si="0"/>
-        <v>8.8610547854341054E-2</v>
-      </c>
-      <c r="V15">
-        <f t="shared" si="0"/>
-        <v>7.5399969788445736E-2</v>
-      </c>
-      <c r="W15">
-        <f t="shared" si="0"/>
-        <v>5.9377187013507686E-2</v>
-      </c>
-      <c r="X15">
-        <f t="shared" si="0"/>
-        <v>4.7945990645748136E-2</v>
-      </c>
-      <c r="Y15">
-        <f t="shared" si="0"/>
-        <v>0.27134765176536868</v>
-      </c>
-      <c r="Z15">
-        <f t="shared" si="0"/>
-        <v>0.88601556932423098</v>
-      </c>
-      <c r="AA15">
-        <f t="shared" si="0"/>
-        <v>0.993351338835471</v>
+      <c r="Y22">
+        <f t="shared" si="3"/>
+        <v>0.98585827423856087</v>
+      </c>
+      <c r="Z22">
+        <f t="shared" si="3"/>
+        <v>0.99943173150024212</v>
+      </c>
+      <c r="AA22">
+        <f t="shared" si="3"/>
+        <v>0.99878459212967408</v>
+      </c>
+      <c r="AB22">
+        <f t="shared" si="3"/>
+        <v>0.97673721387218193</v>
       </c>
     </row>
-    <row r="16" spans="4:27">
-      <c r="J16">
-        <v>11</v>
-      </c>
-      <c r="K16">
+    <row r="23" spans="10:28">
+      <c r="J23">
         <f t="shared" si="1"/>
-        <v>40.540467100900898</v>
-      </c>
-      <c r="L16">
-        <f t="shared" si="3"/>
-        <v>28</v>
-      </c>
-      <c r="M16">
-        <f t="shared" si="2"/>
-        <v>0.12038976525230502</v>
-      </c>
-      <c r="N16">
-        <f t="shared" si="0"/>
-        <v>0.50396930000842732</v>
-      </c>
-      <c r="O16">
-        <f t="shared" si="0"/>
-        <v>0.95726013940194465</v>
-      </c>
-      <c r="P16">
-        <f t="shared" si="0"/>
+        <v>3.053415921506796</v>
+      </c>
+      <c r="K23">
+        <v>18</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="2"/>
+        <v>46.689752349646341</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="3"/>
+        <v>0.99619914821556144</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="3"/>
+        <v>0.99999578866732575</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="3"/>
+        <v>0.99786414041416893</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="3"/>
+        <v>0.79830545745025427</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="3"/>
+        <v>0.66932140992952593</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="3"/>
+        <v>0.41689404808348718</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="3"/>
+        <v>0.50917555226094868</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="3"/>
+        <v>0.68672010020449492</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="3"/>
+        <v>0.83390784936379714</v>
+      </c>
+      <c r="W23">
+        <f t="shared" si="3"/>
+        <v>0.90205805219960533</v>
+      </c>
+      <c r="X23">
+        <f t="shared" si="3"/>
         <v>0.97826647150351953</v>
       </c>
-      <c r="Q16">
-        <f t="shared" si="0"/>
-        <v>0.94346113712048096</v>
-      </c>
-      <c r="R16">
-        <f t="shared" si="0"/>
-        <v>0.83390784936379714</v>
-      </c>
-      <c r="S16">
-        <f t="shared" si="0"/>
-        <v>0.97676969818368453</v>
-      </c>
-      <c r="T16">
-        <f t="shared" si="0"/>
-        <v>0.69207274423084297</v>
-      </c>
-      <c r="U16">
-        <f t="shared" si="0"/>
-        <v>0.20152435475041808</v>
-      </c>
-      <c r="V16">
-        <f t="shared" si="0"/>
-        <v>0.1767022680536266</v>
-      </c>
-      <c r="W16">
-        <f t="shared" si="0"/>
-        <v>0.14483127382979394</v>
-      </c>
-      <c r="X16">
-        <f t="shared" si="0"/>
-        <v>0.12038976525230502</v>
-      </c>
-      <c r="Y16">
-        <f t="shared" si="0"/>
-        <v>0.50396930000842732</v>
-      </c>
-      <c r="Z16">
-        <f t="shared" si="0"/>
-        <v>0.95726013940194465</v>
-      </c>
-      <c r="AA16">
-        <f t="shared" si="0"/>
-        <v>0.99976374537057022</v>
+      <c r="Y23">
+        <f t="shared" si="3"/>
+        <v>0.99619914821556144</v>
+      </c>
+      <c r="Z23">
+        <f t="shared" si="3"/>
+        <v>0.99999578866732575</v>
+      </c>
+      <c r="AA23">
+        <f t="shared" si="3"/>
+        <v>0.99786414041416893</v>
+      </c>
+      <c r="AB23">
+        <f t="shared" si="3"/>
+        <v>0.97187597709273699</v>
       </c>
     </row>
-    <row r="17" spans="10:27">
-      <c r="J17">
-        <v>12</v>
-      </c>
-      <c r="K17">
+    <row r="24" spans="10:28">
+      <c r="J24">
         <f t="shared" si="1"/>
-        <v>41.858104580490149</v>
-      </c>
-      <c r="L17">
-        <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-      <c r="M17">
-        <f t="shared" si="2"/>
-        <v>0.27134765176536868</v>
-      </c>
-      <c r="N17">
-        <f t="shared" si="0"/>
-        <v>0.73612566642266453</v>
-      </c>
-      <c r="O17">
-        <f t="shared" si="0"/>
-        <v>0.98585827423856087</v>
-      </c>
-      <c r="P17">
-        <f t="shared" si="0"/>
+        <v>3.1447755362884919</v>
+      </c>
+      <c r="K24">
+        <v>19</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="2"/>
+        <v>47.150843443398301</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="4"/>
+        <v>44</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="3"/>
+        <v>0.99943173150024212</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="3"/>
+        <v>0.99957194038300812</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="3"/>
+        <v>0.99689538287272128</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="3"/>
+        <v>0.77471497447378845</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="3"/>
+        <v>0.6366806923513596</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="3"/>
+        <v>0.37722279914261653</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="3"/>
+        <v>0.46073431369339801</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="3"/>
+        <v>0.62172809197843915</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="3"/>
+        <v>0.75775685865205566</v>
+      </c>
+      <c r="W24">
+        <f t="shared" si="3"/>
+        <v>0.8446467906717281</v>
+      </c>
+      <c r="X24">
+        <f t="shared" si="3"/>
         <v>0.95338781491410485</v>
       </c>
-      <c r="Q17">
-        <f t="shared" si="0"/>
-        <v>0.90126094898425457</v>
-      </c>
-      <c r="R17">
-        <f t="shared" si="0"/>
-        <v>0.75775685865205566</v>
-      </c>
-      <c r="S17">
-        <f t="shared" si="0"/>
-        <v>0.91113249380925754</v>
-      </c>
-      <c r="T17">
-        <f t="shared" si="0"/>
-        <v>0.91559723194116038</v>
-      </c>
-      <c r="U17">
-        <f t="shared" si="0"/>
-        <v>0.41140435577671713</v>
-      </c>
-      <c r="V17">
-        <f t="shared" si="0"/>
-        <v>0.37171689826843174</v>
-      </c>
-      <c r="W17">
-        <f t="shared" si="0"/>
-        <v>0.3171058911700364</v>
-      </c>
-      <c r="X17">
-        <f t="shared" si="0"/>
-        <v>0.27134765176536868</v>
-      </c>
-      <c r="Y17">
-        <f t="shared" si="0"/>
-        <v>0.73612566642266453</v>
-      </c>
-      <c r="Z17">
-        <f t="shared" si="0"/>
-        <v>0.98585827423856087</v>
-      </c>
-      <c r="AA17">
-        <f t="shared" si="0"/>
-        <v>0.9990038772694011</v>
+      <c r="Y24">
+        <f t="shared" si="3"/>
+        <v>0.99943173150024212</v>
+      </c>
+      <c r="Z24">
+        <f t="shared" si="3"/>
+        <v>0.99957194038300812</v>
+      </c>
+      <c r="AA24">
+        <f t="shared" si="3"/>
+        <v>0.99689538287272128</v>
+      </c>
+      <c r="AB24">
+        <f t="shared" si="3"/>
+        <v>0.96703248125274077</v>
       </c>
     </row>
-    <row r="18" spans="10:27">
-      <c r="J18">
-        <v>13</v>
-      </c>
-      <c r="K18">
+    <row r="25" spans="10:28">
+      <c r="J25">
         <f t="shared" si="1"/>
-        <v>42.992205669209234</v>
-      </c>
-      <c r="L18">
-        <f t="shared" si="3"/>
-        <v>32</v>
-      </c>
-      <c r="M18">
-        <f t="shared" si="2"/>
-        <v>0.50396930000842732</v>
-      </c>
-      <c r="N18">
-        <f t="shared" si="0"/>
-        <v>0.88601556932423098</v>
-      </c>
-      <c r="O18">
-        <f t="shared" si="0"/>
-        <v>0.99619914821556144</v>
-      </c>
-      <c r="P18">
-        <f t="shared" si="0"/>
+        <v>3.224853735048256</v>
+      </c>
+      <c r="K25">
+        <v>20</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="2"/>
+        <v>47.547708225649167</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="4"/>
+        <v>46</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="3"/>
+        <v>0.99999578866732575</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="3"/>
+        <v>0.99878459212967408</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="3"/>
+        <v>0.99590949989885769</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="3"/>
+        <v>0.75181976094939795</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="3"/>
+        <v>0.60563027389909585</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="3"/>
+        <v>0.34132579128592549</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="3"/>
+        <v>0.41689404808348718</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="3"/>
+        <v>0.56268211978518712</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="3"/>
+        <v>0.68672010020449492</v>
+      </c>
+      <c r="W25">
+        <f t="shared" si="3"/>
+        <v>0.78877630177628721</v>
+      </c>
+      <c r="X25">
+        <f t="shared" si="3"/>
         <v>0.92665931145669933</v>
       </c>
-      <c r="Q18">
-        <f t="shared" si="0"/>
-        <v>0.85864799715343942</v>
-      </c>
-      <c r="R18">
-        <f t="shared" si="0"/>
-        <v>0.68672010020449492</v>
-      </c>
-      <c r="S18">
-        <f t="shared" si="0"/>
-        <v>0.83390784936379714</v>
-      </c>
-      <c r="T18">
-        <f t="shared" si="0"/>
-        <v>0.99815666338412423</v>
-      </c>
-      <c r="U18">
-        <f t="shared" si="0"/>
-        <v>0.69207274423084297</v>
-      </c>
-      <c r="V18">
-        <f t="shared" si="0"/>
-        <v>0.64435321441853821</v>
-      </c>
-      <c r="W18">
-        <f t="shared" si="0"/>
-        <v>0.57212086219421976</v>
-      </c>
-      <c r="X18">
-        <f t="shared" si="0"/>
-        <v>0.50396930000842732</v>
-      </c>
-      <c r="Y18">
-        <f t="shared" si="0"/>
-        <v>0.88601556932423098</v>
-      </c>
-      <c r="Z18">
-        <f t="shared" si="0"/>
-        <v>0.99619914821556144</v>
-      </c>
-      <c r="AA18">
-        <f t="shared" si="0"/>
-        <v>0.99557740808330064</v>
+      <c r="Y25">
+        <f t="shared" si="3"/>
+        <v>0.99999578866732575</v>
+      </c>
+      <c r="Z25">
+        <f t="shared" si="3"/>
+        <v>0.99878459212967408</v>
+      </c>
+      <c r="AA25">
+        <f t="shared" si="3"/>
+        <v>0.99590949989885769</v>
+      </c>
+      <c r="AB25">
+        <f t="shared" si="3"/>
+        <v>0.96221076143543094</v>
       </c>
     </row>
-    <row r="19" spans="10:27">
-      <c r="J19">
-        <v>14</v>
-      </c>
-      <c r="K19">
-        <f t="shared" si="1"/>
-        <v>43.96833552234208</v>
-      </c>
-      <c r="L19">
-        <f t="shared" si="3"/>
-        <v>34</v>
-      </c>
-      <c r="M19">
-        <f t="shared" si="2"/>
-        <v>0.73612566642266453</v>
-      </c>
-      <c r="N19">
-        <f t="shared" si="0"/>
-        <v>0.95726013940194465</v>
-      </c>
-      <c r="O19">
-        <f t="shared" si="0"/>
-        <v>0.99943173150024212</v>
-      </c>
-      <c r="P19">
-        <f t="shared" si="0"/>
+    <row r="26" spans="10:28">
+      <c r="M26">
+        <f t="shared" si="4"/>
+        <v>48</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="3"/>
+        <v>0.99957194038300812</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="3"/>
+        <v>0.99786414041416893</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="3"/>
+        <v>0.99491795230889146</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="3"/>
+        <v>0.72960051254382141</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="3"/>
+        <v>0.57609363971102001</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="3"/>
+        <v>0.30884451003293029</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="3"/>
+        <v>0.37722279914261653</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="3"/>
+        <v>0.50917555226094868</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="3"/>
+        <v>0.62172809197843915</v>
+      </c>
+      <c r="W26">
+        <f t="shared" si="3"/>
+        <v>0.73587393458807393</v>
+      </c>
+      <c r="X26">
+        <f t="shared" si="3"/>
         <v>0.89979057408823759</v>
       </c>
-      <c r="Q19">
-        <f t="shared" si="0"/>
-        <v>0.81724188503447581</v>
-      </c>
-      <c r="R19">
-        <f t="shared" si="0"/>
-        <v>0.62172809197843915</v>
-      </c>
-      <c r="S19">
-        <f t="shared" si="0"/>
-        <v>0.75775685865205566</v>
-      </c>
-      <c r="T19">
-        <f t="shared" si="0"/>
-        <v>0.97676969818368453</v>
-      </c>
-      <c r="U19">
-        <f t="shared" si="0"/>
-        <v>0.91559723194116038</v>
-      </c>
-      <c r="V19">
-        <f t="shared" si="0"/>
-        <v>0.87842676317419344</v>
-      </c>
-      <c r="W19">
-        <f t="shared" si="0"/>
-        <v>0.81178518903803742</v>
-      </c>
-      <c r="X19">
-        <f t="shared" si="0"/>
-        <v>0.73612566642266453</v>
-      </c>
-      <c r="Y19">
-        <f t="shared" si="0"/>
-        <v>0.95726013940194465</v>
-      </c>
-      <c r="Z19">
-        <f t="shared" si="0"/>
-        <v>0.99943173150024212</v>
-      </c>
-      <c r="AA19">
-        <f t="shared" si="0"/>
-        <v>0.99118276143885542</v>
+      <c r="Y26">
+        <f t="shared" si="3"/>
+        <v>0.99957194038300812</v>
+      </c>
+      <c r="Z26">
+        <f t="shared" si="3"/>
+        <v>0.99786414041416893</v>
+      </c>
+      <c r="AA26">
+        <f t="shared" si="3"/>
+        <v>0.99491795230889146</v>
+      </c>
+      <c r="AB26">
+        <f t="shared" si="3"/>
+        <v>0.95741221848246449</v>
       </c>
     </row>
-    <row r="20" spans="10:27">
-      <c r="J20">
-        <v>15</v>
-      </c>
-      <c r="K20">
-        <f t="shared" si="1"/>
-        <v>44.808498272960151</v>
-      </c>
-      <c r="L20">
-        <f t="shared" si="3"/>
-        <v>36</v>
-      </c>
-      <c r="M20">
-        <f t="shared" si="2"/>
-        <v>0.88601556932423098</v>
-      </c>
-      <c r="N20">
-        <f t="shared" si="0"/>
-        <v>0.98585827423856087</v>
-      </c>
-      <c r="O20">
-        <f t="shared" si="0"/>
-        <v>0.99999578866732575</v>
-      </c>
-      <c r="P20">
-        <f t="shared" si="0"/>
+    <row r="27" spans="10:28">
+      <c r="M27">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="3"/>
+        <v>0.99878459212967408</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="3"/>
+        <v>0.99689538287272128</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="3"/>
+        <v>0.99392495176722528</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="3"/>
+        <v>0.70803769558404017</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="3"/>
+        <v>0.54799732732548201</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="3"/>
+        <v>0.27945412307000728</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="3"/>
+        <v>0.34132579128592549</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="3"/>
+        <v>0.46073431369339801</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="3"/>
+        <v>0.56268211978518712</v>
+      </c>
+      <c r="W27">
+        <f t="shared" si="3"/>
+        <v>0.68626978548372808</v>
+      </c>
+      <c r="X27">
+        <f t="shared" si="3"/>
         <v>0.87338288495205119</v>
       </c>
-      <c r="Q20">
-        <f t="shared" si="0"/>
-        <v>0.77754935422239735</v>
-      </c>
-      <c r="R20">
-        <f t="shared" si="0"/>
-        <v>0.56268211978518712</v>
-      </c>
-      <c r="S20">
-        <f t="shared" si="0"/>
-        <v>0.68672010020449492</v>
-      </c>
-      <c r="T20">
-        <f t="shared" si="0"/>
-        <v>0.91113249380925754</v>
-      </c>
-      <c r="U20">
-        <f t="shared" si="0"/>
-        <v>0.99815666338412423</v>
-      </c>
-      <c r="V20">
-        <f t="shared" si="0"/>
-        <v>0.986798845647615</v>
-      </c>
-      <c r="W20">
-        <f t="shared" si="0"/>
-        <v>0.94915245724089203</v>
-      </c>
-      <c r="X20">
-        <f t="shared" si="0"/>
-        <v>0.88601556932423098</v>
-      </c>
-      <c r="Y20">
-        <f t="shared" si="0"/>
-        <v>0.98585827423856087</v>
-      </c>
-      <c r="Z20">
-        <f t="shared" si="0"/>
-        <v>0.99999578866732575</v>
-      </c>
-      <c r="AA20">
-        <f t="shared" si="0"/>
-        <v>0.98644832579710184</v>
+      <c r="Y27">
+        <f t="shared" si="3"/>
+        <v>0.99878459212967408</v>
+      </c>
+      <c r="Z27">
+        <f t="shared" si="3"/>
+        <v>0.99689538287272128</v>
+      </c>
+      <c r="AA27">
+        <f t="shared" si="3"/>
+        <v>0.99392495176722528</v>
+      </c>
+      <c r="AB27">
+        <f t="shared" si="3"/>
+        <v>0.95263728933030045</v>
       </c>
     </row>
-    <row r="21" spans="10:27">
-      <c r="J21">
-        <v>16</v>
-      </c>
-      <c r="K21">
-        <f t="shared" si="1"/>
-        <v>45.531633053912337</v>
-      </c>
-      <c r="L21">
-        <f t="shared" si="3"/>
-        <v>38</v>
-      </c>
-      <c r="M21">
-        <f t="shared" si="2"/>
-        <v>0.95726013940194465</v>
-      </c>
-      <c r="N21">
-        <f t="shared" si="0"/>
-        <v>0.99619914821556144</v>
-      </c>
-      <c r="O21">
-        <f t="shared" si="0"/>
-        <v>0.99957194038300812</v>
-      </c>
-      <c r="P21">
-        <f t="shared" si="0"/>
+    <row r="28" spans="10:28">
+      <c r="M28">
+        <f t="shared" si="4"/>
+        <v>52</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="3"/>
+        <v>0.99786414041416893</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="3"/>
+        <v>0.99590949989885769</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="3"/>
+        <v>0.99293204552318237</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="3"/>
+        <v>0.68711206814176951</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="3"/>
+        <v>0.52127121938078735</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="3"/>
+        <v>0.25286056516560457</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="3"/>
+        <v>0.30884451003293029</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="3"/>
+        <v>0.41689404808348718</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="3"/>
+        <v>0.50917555226094868</v>
+      </c>
+      <c r="W28">
+        <f t="shared" si="3"/>
+        <v>0.63992362097455646</v>
+      </c>
+      <c r="X28">
+        <f t="shared" si="3"/>
         <v>0.8476366356475018</v>
       </c>
-      <c r="Q21">
-        <f t="shared" si="0"/>
-        <v>0.73968552039214863</v>
-      </c>
-      <c r="R21">
-        <f t="shared" si="0"/>
-        <v>0.50917555226094868</v>
-      </c>
-      <c r="S21">
-        <f t="shared" si="0"/>
-        <v>0.62172809197843915</v>
-      </c>
-      <c r="T21">
-        <f t="shared" si="0"/>
-        <v>0.83390784936379714</v>
-      </c>
-      <c r="U21">
-        <f t="shared" si="0"/>
-        <v>0.97676969818368453</v>
-      </c>
-      <c r="V21">
-        <f t="shared" si="0"/>
-        <v>0.99506381853218462</v>
-      </c>
-      <c r="W21">
-        <f t="shared" si="0"/>
-        <v>0.99616219985734145</v>
-      </c>
-      <c r="X21">
-        <f t="shared" si="0"/>
-        <v>0.95726013940194465</v>
-      </c>
-      <c r="Y21">
-        <f t="shared" si="0"/>
-        <v>0.99619914821556144</v>
-      </c>
-      <c r="Z21">
-        <f t="shared" si="0"/>
-        <v>0.99957194038300812</v>
-      </c>
-      <c r="AA21">
-        <f t="shared" si="0"/>
-        <v>0.98160495967746075</v>
+      <c r="Y28">
+        <f t="shared" si="3"/>
+        <v>0.99786414041416893</v>
+      </c>
+      <c r="Z28">
+        <f t="shared" si="3"/>
+        <v>0.99590949989885769</v>
+      </c>
+      <c r="AA28">
+        <f t="shared" si="3"/>
+        <v>0.99293204552318237</v>
+      </c>
+      <c r="AB28">
+        <f t="shared" si="3"/>
+        <v>0.94788605845656193</v>
       </c>
     </row>
-    <row r="22" spans="10:27">
-      <c r="J22">
-        <v>17</v>
-      </c>
-      <c r="K22">
-        <f t="shared" si="1"/>
-        <v>46.154040927908277</v>
-      </c>
-      <c r="L22">
-        <f t="shared" si="3"/>
-        <v>40</v>
-      </c>
-      <c r="M22">
-        <f t="shared" si="2"/>
-        <v>0.98585827423856087</v>
-      </c>
-      <c r="N22">
-        <f t="shared" si="2"/>
-        <v>0.99943173150024212</v>
-      </c>
-      <c r="O22">
-        <f t="shared" si="2"/>
-        <v>0.99878459212967408</v>
-      </c>
-      <c r="P22">
-        <f t="shared" si="2"/>
+    <row r="29" spans="10:28">
+      <c r="M29">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="3"/>
+        <v>0.99689538287272128</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="3"/>
+        <v>0.99491795230889146</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="3"/>
+        <v>0.99193980158674422</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="3"/>
+        <v>0.66680485502533893</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="3"/>
+        <v>0.49584853499642867</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="3"/>
+        <v>0.22879770689505707</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="3"/>
+        <v>0.27945412307000728</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="3"/>
+        <v>0.37722279914261653</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="3"/>
+        <v>0.46073431369339801</v>
+      </c>
+      <c r="W29">
+        <f t="shared" si="3"/>
+        <v>0.59667795223163378</v>
+      </c>
+      <c r="X29">
+        <f t="shared" si="3"/>
         <v>0.82260879347998606</v>
       </c>
-      <c r="Q22">
-        <f t="shared" si="2"/>
-        <v>0.70363082391591414</v>
-      </c>
-      <c r="R22">
-        <f t="shared" si="2"/>
-        <v>0.46073431369339801</v>
-      </c>
-      <c r="S22">
-        <f t="shared" si="2"/>
-        <v>0.56268211978518712</v>
-      </c>
-      <c r="T22">
-        <f t="shared" si="2"/>
-        <v>0.75775685865205566</v>
-      </c>
-      <c r="U22">
-        <f t="shared" si="2"/>
-        <v>0.91113249380925754</v>
-      </c>
-      <c r="V22">
-        <f t="shared" si="2"/>
-        <v>0.9564650970964359</v>
-      </c>
-      <c r="W22">
-        <f t="shared" si="2"/>
-        <v>0.99659804008516795</v>
-      </c>
-      <c r="X22">
-        <f t="shared" si="2"/>
-        <v>0.98585827423856087</v>
-      </c>
-      <c r="Y22">
-        <f t="shared" si="2"/>
-        <v>0.99943173150024212</v>
-      </c>
-      <c r="Z22">
-        <f t="shared" si="2"/>
-        <v>0.99878459212967408</v>
-      </c>
-      <c r="AA22">
-        <f t="shared" si="2"/>
-        <v>0.97673721387218193</v>
+      <c r="Y29">
+        <f t="shared" si="3"/>
+        <v>0.99689538287272128</v>
+      </c>
+      <c r="Z29">
+        <f t="shared" si="3"/>
+        <v>0.99491795230889146</v>
+      </c>
+      <c r="AA29">
+        <f t="shared" si="3"/>
+        <v>0.99193980158674422</v>
+      </c>
+      <c r="AB29">
+        <f t="shared" si="3"/>
+        <v>0.94315848169893168</v>
       </c>
     </row>
-    <row r="23" spans="10:27">
-      <c r="J23">
-        <v>18</v>
-      </c>
-      <c r="K23">
-        <f t="shared" si="1"/>
-        <v>46.689752349646341</v>
-      </c>
-      <c r="L23">
-        <f t="shared" si="3"/>
-        <v>42</v>
-      </c>
-      <c r="M23">
-        <f t="shared" si="2"/>
-        <v>0.99619914821556144</v>
-      </c>
-      <c r="N23">
-        <f t="shared" si="2"/>
-        <v>0.99999578866732575</v>
-      </c>
-      <c r="O23">
-        <f t="shared" si="2"/>
-        <v>0.99786414041416893</v>
-      </c>
-      <c r="P23">
-        <f t="shared" si="2"/>
+    <row r="30" spans="10:28">
+      <c r="M30">
+        <f>M29+2</f>
+        <v>56</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="3"/>
+        <v>0.99590949989885769</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="3"/>
+        <v>0.99392495176722528</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="3"/>
+        <v>0.99094842808167505</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="3"/>
+        <v>0.64709779953752977</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="3"/>
+        <v>0.47166572112498728</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="3"/>
+        <v>0.20702472835253666</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="3"/>
+        <v>0.25286056516560457</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="3"/>
+        <v>0.34132579128592549</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="3"/>
+        <v>0.41689404808348718</v>
+      </c>
+      <c r="W30">
+        <f t="shared" si="3"/>
+        <v>0.5563447086396428</v>
+      </c>
+      <c r="X30">
+        <f t="shared" si="3"/>
         <v>0.79830545745025427</v>
       </c>
-      <c r="Q23">
-        <f t="shared" si="2"/>
-        <v>0.66932140992952593</v>
-      </c>
-      <c r="R23">
-        <f t="shared" si="2"/>
-        <v>0.41689404808348718</v>
-      </c>
-      <c r="S23">
-        <f t="shared" si="2"/>
-        <v>0.50917555226094868</v>
-      </c>
-      <c r="T23">
-        <f t="shared" si="2"/>
-        <v>0.68672010020449492</v>
-      </c>
-      <c r="U23">
-        <f t="shared" si="2"/>
-        <v>0.83390784936379714</v>
-      </c>
-      <c r="V23">
-        <f t="shared" si="2"/>
-        <v>0.90205805219960533</v>
-      </c>
-      <c r="W23">
-        <f t="shared" si="2"/>
-        <v>0.97826647150351953</v>
-      </c>
-      <c r="X23">
-        <f t="shared" si="2"/>
-        <v>0.99619914821556144</v>
-      </c>
-      <c r="Y23">
-        <f t="shared" si="2"/>
-        <v>0.99999578866732575</v>
-      </c>
-      <c r="Z23">
-        <f t="shared" si="2"/>
-        <v>0.99786414041416893</v>
-      </c>
-      <c r="AA23">
-        <f t="shared" si="2"/>
-        <v>0.97187597709273699</v>
+      <c r="Y30">
+        <f t="shared" si="3"/>
+        <v>0.99590949989885769</v>
+      </c>
+      <c r="Z30">
+        <f t="shared" si="3"/>
+        <v>0.99392495176722528</v>
+      </c>
+      <c r="AA30">
+        <f t="shared" si="3"/>
+        <v>0.99094842808167505</v>
+      </c>
+      <c r="AB30">
+        <f t="shared" si="3"/>
+        <v>0.93845446818153311</v>
       </c>
     </row>
-    <row r="24" spans="10:27">
-      <c r="J24">
-        <v>19</v>
-      </c>
-      <c r="K24">
-        <f t="shared" si="1"/>
-        <v>47.150843443398301</v>
-      </c>
-      <c r="L24">
-        <f t="shared" si="3"/>
-        <v>44</v>
-      </c>
-      <c r="M24">
-        <f t="shared" si="2"/>
-        <v>0.99943173150024212</v>
-      </c>
-      <c r="N24">
-        <f t="shared" si="2"/>
-        <v>0.99957194038300812</v>
-      </c>
-      <c r="O24">
-        <f t="shared" si="2"/>
-        <v>0.99689538287272128</v>
-      </c>
-      <c r="P24">
-        <f t="shared" si="2"/>
+    <row r="31" spans="10:28">
+      <c r="M31">
+        <f t="shared" si="4"/>
+        <v>58</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="3"/>
+        <v>0.99491795230889146</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="3"/>
+        <v>0.99293204552318237</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="3"/>
+        <v>0.98995800086929409</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="3"/>
+        <v>0.62797317155432031</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="3"/>
+        <v>0.44866231405143758</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="3"/>
+        <v>0.18732372133553893</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="3"/>
+        <v>0.22879770689505707</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="3"/>
+        <v>0.30884451003293029</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="3"/>
+        <v>0.37722279914261653</v>
+      </c>
+      <c r="W31">
+        <f t="shared" si="3"/>
+        <v>0.51873438276422246</v>
+      </c>
+      <c r="X31">
+        <f t="shared" si="3"/>
         <v>0.77471497447378845</v>
       </c>
-      <c r="Q24">
-        <f t="shared" si="2"/>
-        <v>0.6366806923513596</v>
-      </c>
-      <c r="R24">
-        <f t="shared" si="2"/>
-        <v>0.37722279914261653</v>
-      </c>
-      <c r="S24">
-        <f t="shared" si="2"/>
-        <v>0.46073431369339801</v>
-      </c>
-      <c r="T24">
-        <f t="shared" si="2"/>
-        <v>0.62172809197843915</v>
-      </c>
-      <c r="U24">
-        <f t="shared" si="2"/>
-        <v>0.75775685865205566</v>
-      </c>
-      <c r="V24">
-        <f t="shared" si="2"/>
-        <v>0.8446467906717281</v>
-      </c>
-      <c r="W24">
-        <f t="shared" si="2"/>
-        <v>0.95338781491410485</v>
-      </c>
-      <c r="X24">
-        <f t="shared" si="2"/>
-        <v>0.99943173150024212</v>
-      </c>
-      <c r="Y24">
-        <f t="shared" si="2"/>
-        <v>0.99957194038300812</v>
-      </c>
-      <c r="Z24">
-        <f t="shared" si="2"/>
-        <v>0.99689538287272128</v>
-      </c>
-      <c r="AA24">
-        <f t="shared" si="2"/>
-        <v>0.96703248125274077</v>
+      <c r="Y31">
+        <f t="shared" si="3"/>
+        <v>0.99491795230889146</v>
+      </c>
+      <c r="Z31">
+        <f t="shared" si="3"/>
+        <v>0.99293204552318237</v>
+      </c>
+      <c r="AA31">
+        <f t="shared" si="3"/>
+        <v>0.98995800086929409</v>
+      </c>
+      <c r="AB31">
+        <f t="shared" si="3"/>
+        <v>0.93377391030185097</v>
       </c>
     </row>
-    <row r="25" spans="10:27">
-      <c r="J25">
-        <v>20</v>
-      </c>
-      <c r="K25">
-        <f t="shared" si="1"/>
-        <v>47.547708225649167</v>
-      </c>
-      <c r="L25">
-        <f t="shared" si="3"/>
-        <v>46</v>
-      </c>
-      <c r="M25">
-        <f t="shared" si="2"/>
-        <v>0.99999578866732575</v>
-      </c>
-      <c r="N25">
-        <f t="shared" si="2"/>
-        <v>0.99878459212967408</v>
-      </c>
-      <c r="O25">
-        <f t="shared" si="2"/>
-        <v>0.99590949989885769</v>
-      </c>
-      <c r="P25">
-        <f t="shared" si="2"/>
+    <row r="32" spans="10:28">
+      <c r="M32">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="3"/>
+        <v>0.99392495176722528</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="3"/>
+        <v>0.99193980158674422</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="3"/>
+        <v>0.98896854720345473</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="3"/>
+        <v>0.60941376031718497</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="3"/>
+        <v>0.42678079534635921</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="3"/>
+        <v>0.16949751257097451</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="3"/>
+        <v>0.20702472835253666</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="3"/>
+        <v>0.27945412307000728</v>
+      </c>
+      <c r="V32">
+        <f t="shared" si="3"/>
+        <v>0.34132579128592549</v>
+      </c>
+      <c r="W32">
+        <f t="shared" si="3"/>
+        <v>0.48366542372201576</v>
+      </c>
+      <c r="X32">
+        <f t="shared" si="3"/>
         <v>0.75181976094939795</v>
       </c>
-      <c r="Q25">
-        <f t="shared" si="2"/>
-        <v>0.60563027389909585</v>
-      </c>
-      <c r="R25">
-        <f t="shared" si="2"/>
-        <v>0.34132579128592549</v>
-      </c>
-      <c r="S25">
-        <f t="shared" si="2"/>
-        <v>0.41689404808348718</v>
-      </c>
-      <c r="T25">
-        <f t="shared" si="2"/>
-        <v>0.56268211978518712</v>
-      </c>
-      <c r="U25">
-        <f t="shared" si="2"/>
-        <v>0.68672010020449492</v>
-      </c>
-      <c r="V25">
-        <f t="shared" si="2"/>
-        <v>0.78877630177628721</v>
-      </c>
-      <c r="W25">
-        <f t="shared" si="2"/>
-        <v>0.92665931145669933</v>
-      </c>
-      <c r="X25">
-        <f t="shared" si="2"/>
-        <v>0.99999578866732575</v>
-      </c>
-      <c r="Y25">
-        <f t="shared" si="2"/>
-        <v>0.99878459212967408</v>
-      </c>
-      <c r="Z25">
-        <f t="shared" si="2"/>
-        <v>0.99590949989885769</v>
-      </c>
-      <c r="AA25">
-        <f t="shared" si="2"/>
-        <v>0.96221076143543094</v>
+      <c r="Y32">
+        <f t="shared" si="3"/>
+        <v>0.99392495176722528</v>
+      </c>
+      <c r="Z32">
+        <f t="shared" si="3"/>
+        <v>0.99193980158674422</v>
+      </c>
+      <c r="AA32">
+        <f t="shared" si="3"/>
+        <v>0.98896854720345473</v>
+      </c>
+      <c r="AB32">
+        <f t="shared" si="3"/>
+        <v>0.92911669470543401</v>
       </c>
     </row>
-    <row r="26" spans="10:27">
-      <c r="L26">
-        <f t="shared" si="3"/>
-        <v>48</v>
-      </c>
-      <c r="M26">
-        <f t="shared" si="2"/>
-        <v>0.99957194038300812</v>
-      </c>
-      <c r="N26">
-        <f t="shared" si="2"/>
-        <v>0.99786414041416893</v>
-      </c>
-      <c r="O26">
-        <f t="shared" si="2"/>
-        <v>0.99491795230889146</v>
-      </c>
-      <c r="P26">
-        <f t="shared" si="2"/>
-        <v>0.72960051254382141</v>
-      </c>
-      <c r="Q26">
-        <f t="shared" si="2"/>
-        <v>0.57609363971102001</v>
-      </c>
-      <c r="R26">
-        <f t="shared" si="2"/>
-        <v>0.30884451003293029</v>
-      </c>
-      <c r="S26">
-        <f t="shared" si="2"/>
-        <v>0.37722279914261653</v>
-      </c>
-      <c r="T26">
-        <f t="shared" si="2"/>
-        <v>0.50917555226094868</v>
-      </c>
-      <c r="U26">
-        <f t="shared" si="2"/>
-        <v>0.62172809197843915</v>
-      </c>
-      <c r="V26">
-        <f t="shared" si="2"/>
-        <v>0.73587393458807393</v>
-      </c>
-      <c r="W26">
-        <f t="shared" si="2"/>
-        <v>0.89979057408823759</v>
-      </c>
-      <c r="X26">
-        <f t="shared" si="2"/>
-        <v>0.99957194038300812</v>
-      </c>
-      <c r="Y26">
-        <f t="shared" si="2"/>
-        <v>0.99786414041416893</v>
-      </c>
-      <c r="Z26">
-        <f t="shared" si="2"/>
-        <v>0.99491795230889146</v>
-      </c>
-      <c r="AA26">
-        <f t="shared" si="2"/>
-        <v>0.95741221848246449</v>
+    <row r="51" spans="14:16">
+      <c r="N51">
+        <v>6</v>
+      </c>
+      <c r="O51">
+        <v>4.5</v>
+      </c>
+      <c r="P51">
+        <v>3</v>
       </c>
     </row>
-    <row r="27" spans="10:27">
-      <c r="L27">
-        <f t="shared" si="3"/>
-        <v>50</v>
-      </c>
-      <c r="M27">
-        <f t="shared" si="2"/>
-        <v>0.99878459212967408</v>
-      </c>
-      <c r="N27">
-        <f t="shared" si="2"/>
-        <v>0.99689538287272128</v>
-      </c>
-      <c r="O27">
-        <f t="shared" si="2"/>
-        <v>0.99392495176722528</v>
-      </c>
-      <c r="P27">
-        <f t="shared" si="2"/>
-        <v>0.70803769558404017</v>
-      </c>
-      <c r="Q27">
-        <f t="shared" si="2"/>
-        <v>0.54799732732548201</v>
-      </c>
-      <c r="R27">
-        <f t="shared" si="2"/>
-        <v>0.27945412307000728</v>
-      </c>
-      <c r="S27">
-        <f t="shared" si="2"/>
-        <v>0.34132579128592549</v>
-      </c>
-      <c r="T27">
-        <f t="shared" si="2"/>
-        <v>0.46073431369339801</v>
-      </c>
-      <c r="U27">
-        <f t="shared" si="2"/>
-        <v>0.56268211978518712</v>
-      </c>
-      <c r="V27">
-        <f t="shared" si="2"/>
-        <v>0.68626978548372808</v>
-      </c>
-      <c r="W27">
-        <f t="shared" si="2"/>
-        <v>0.87338288495205119</v>
-      </c>
-      <c r="X27">
-        <f t="shared" si="2"/>
-        <v>0.99878459212967408</v>
-      </c>
-      <c r="Y27">
-        <f t="shared" si="2"/>
-        <v>0.99689538287272128</v>
-      </c>
-      <c r="Z27">
-        <f t="shared" si="2"/>
-        <v>0.99392495176722528</v>
-      </c>
-      <c r="AA27">
-        <f t="shared" si="2"/>
-        <v>0.95263728933030045</v>
-      </c>
-    </row>
-    <row r="28" spans="10:27">
-      <c r="L28">
-        <f t="shared" si="3"/>
-        <v>52</v>
-      </c>
-      <c r="M28">
-        <f t="shared" si="2"/>
-        <v>0.99786414041416893</v>
-      </c>
-      <c r="N28">
-        <f t="shared" si="2"/>
-        <v>0.99590949989885769</v>
-      </c>
-      <c r="O28">
-        <f t="shared" si="2"/>
-        <v>0.99293204552318237</v>
-      </c>
-      <c r="P28">
-        <f t="shared" si="2"/>
-        <v>0.68711206814176951</v>
-      </c>
-      <c r="Q28">
-        <f t="shared" si="2"/>
-        <v>0.52127121938078735</v>
-      </c>
-      <c r="R28">
-        <f t="shared" si="2"/>
-        <v>0.25286056516560457</v>
-      </c>
-      <c r="S28">
-        <f t="shared" si="2"/>
-        <v>0.30884451003293029</v>
-      </c>
-      <c r="T28">
-        <f t="shared" si="2"/>
-        <v>0.41689404808348718</v>
-      </c>
-      <c r="U28">
-        <f t="shared" si="2"/>
-        <v>0.50917555226094868</v>
-      </c>
-      <c r="V28">
-        <f t="shared" si="2"/>
-        <v>0.63992362097455646</v>
-      </c>
-      <c r="W28">
-        <f t="shared" si="2"/>
-        <v>0.8476366356475018</v>
-      </c>
-      <c r="X28">
-        <f t="shared" si="2"/>
-        <v>0.99786414041416893</v>
-      </c>
-      <c r="Y28">
-        <f t="shared" si="2"/>
-        <v>0.99590949989885769</v>
-      </c>
-      <c r="Z28">
-        <f t="shared" si="2"/>
-        <v>0.99293204552318237</v>
-      </c>
-      <c r="AA28">
-        <f t="shared" si="2"/>
-        <v>0.94788605845656193</v>
-      </c>
-    </row>
-    <row r="29" spans="10:27">
-      <c r="L29">
-        <f t="shared" si="3"/>
-        <v>54</v>
-      </c>
-      <c r="M29">
-        <f t="shared" si="2"/>
-        <v>0.99689538287272128</v>
-      </c>
-      <c r="N29">
-        <f t="shared" si="2"/>
-        <v>0.99491795230889146</v>
-      </c>
-      <c r="O29">
-        <f t="shared" si="2"/>
-        <v>0.99193980158674422</v>
-      </c>
-      <c r="P29">
-        <f t="shared" si="2"/>
-        <v>0.66680485502533893</v>
-      </c>
-      <c r="Q29">
-        <f t="shared" si="2"/>
-        <v>0.49584853499642867</v>
-      </c>
-      <c r="R29">
-        <f t="shared" si="2"/>
-        <v>0.22879770689505707</v>
-      </c>
-      <c r="S29">
-        <f t="shared" si="2"/>
-        <v>0.27945412307000728</v>
-      </c>
-      <c r="T29">
-        <f t="shared" si="2"/>
-        <v>0.37722279914261653</v>
-      </c>
-      <c r="U29">
-        <f t="shared" si="2"/>
-        <v>0.46073431369339801</v>
-      </c>
-      <c r="V29">
-        <f t="shared" si="2"/>
-        <v>0.59667795223163378</v>
-      </c>
-      <c r="W29">
-        <f t="shared" si="2"/>
-        <v>0.82260879347998606</v>
-      </c>
-      <c r="X29">
-        <f t="shared" si="2"/>
-        <v>0.99689538287272128</v>
-      </c>
-      <c r="Y29">
-        <f t="shared" si="2"/>
-        <v>0.99491795230889146</v>
-      </c>
-      <c r="Z29">
-        <f t="shared" si="2"/>
-        <v>0.99193980158674422</v>
-      </c>
-      <c r="AA29">
-        <f t="shared" si="2"/>
-        <v>0.94315848169893168</v>
-      </c>
-    </row>
-    <row r="30" spans="10:27">
-      <c r="L30">
-        <f>L29+2</f>
-        <v>56</v>
-      </c>
-      <c r="M30">
-        <f t="shared" si="2"/>
-        <v>0.99590949989885769</v>
-      </c>
-      <c r="N30">
-        <f t="shared" si="2"/>
-        <v>0.99392495176722528</v>
-      </c>
-      <c r="O30">
-        <f t="shared" si="2"/>
-        <v>0.99094842808167505</v>
-      </c>
-      <c r="P30">
-        <f t="shared" si="2"/>
-        <v>0.64709779953752977</v>
-      </c>
-      <c r="Q30">
-        <f t="shared" si="2"/>
-        <v>0.47166572112498728</v>
-      </c>
-      <c r="R30">
-        <f t="shared" si="2"/>
-        <v>0.20702472835253666</v>
-      </c>
-      <c r="S30">
-        <f t="shared" si="2"/>
-        <v>0.25286056516560457</v>
-      </c>
-      <c r="T30">
-        <f t="shared" si="2"/>
-        <v>0.34132579128592549</v>
-      </c>
-      <c r="U30">
-        <f t="shared" si="2"/>
-        <v>0.41689404808348718</v>
-      </c>
-      <c r="V30">
-        <f t="shared" si="2"/>
-        <v>0.5563447086396428</v>
-      </c>
-      <c r="W30">
-        <f t="shared" si="2"/>
-        <v>0.79830545745025427</v>
-      </c>
-      <c r="X30">
-        <f t="shared" si="2"/>
-        <v>0.99590949989885769</v>
-      </c>
-      <c r="Y30">
-        <f t="shared" si="2"/>
-        <v>0.99392495176722528</v>
-      </c>
-      <c r="Z30">
-        <f t="shared" si="2"/>
-        <v>0.99094842808167505</v>
-      </c>
-      <c r="AA30">
-        <f t="shared" si="2"/>
-        <v>0.93845446818153311</v>
-      </c>
-    </row>
-    <row r="31" spans="10:27">
-      <c r="L31">
-        <f t="shared" si="3"/>
-        <v>58</v>
-      </c>
-      <c r="M31">
-        <f t="shared" si="2"/>
-        <v>0.99491795230889146</v>
-      </c>
-      <c r="N31">
-        <f t="shared" si="2"/>
-        <v>0.99293204552318237</v>
-      </c>
-      <c r="O31">
-        <f t="shared" si="2"/>
-        <v>0.98995800086929409</v>
-      </c>
-      <c r="P31">
-        <f t="shared" si="2"/>
-        <v>0.62797317155432031</v>
-      </c>
-      <c r="Q31">
-        <f t="shared" si="2"/>
-        <v>0.44866231405143758</v>
-      </c>
-      <c r="R31">
-        <f t="shared" si="2"/>
-        <v>0.18732372133553893</v>
-      </c>
-      <c r="S31">
-        <f t="shared" si="2"/>
-        <v>0.22879770689505707</v>
-      </c>
-      <c r="T31">
-        <f t="shared" si="2"/>
-        <v>0.30884451003293029</v>
-      </c>
-      <c r="U31">
-        <f t="shared" si="2"/>
-        <v>0.37722279914261653</v>
-      </c>
-      <c r="V31">
-        <f t="shared" si="2"/>
-        <v>0.51873438276422246</v>
-      </c>
-      <c r="W31">
-        <f t="shared" si="2"/>
-        <v>0.77471497447378845</v>
-      </c>
-      <c r="X31">
-        <f t="shared" si="2"/>
-        <v>0.99491795230889146</v>
-      </c>
-      <c r="Y31">
-        <f t="shared" si="2"/>
-        <v>0.99293204552318237</v>
-      </c>
-      <c r="Z31">
-        <f t="shared" si="2"/>
-        <v>0.98995800086929409</v>
-      </c>
-      <c r="AA31">
-        <f t="shared" si="2"/>
-        <v>0.93377391030185097</v>
-      </c>
-    </row>
-    <row r="32" spans="10:27">
-      <c r="L32">
-        <f t="shared" si="3"/>
-        <v>60</v>
-      </c>
-      <c r="M32">
-        <f t="shared" si="2"/>
-        <v>0.99392495176722528</v>
-      </c>
-      <c r="N32">
-        <f t="shared" si="2"/>
-        <v>0.99193980158674422</v>
-      </c>
-      <c r="O32">
-        <f t="shared" si="2"/>
-        <v>0.98896854720345473</v>
-      </c>
-      <c r="P32">
-        <f t="shared" si="2"/>
-        <v>0.60941376031718497</v>
-      </c>
-      <c r="Q32">
-        <f t="shared" si="2"/>
-        <v>0.42678079534635921</v>
-      </c>
-      <c r="R32">
-        <f t="shared" si="2"/>
-        <v>0.16949751257097451</v>
-      </c>
-      <c r="S32">
-        <f t="shared" si="2"/>
-        <v>0.20702472835253666</v>
-      </c>
-      <c r="T32">
-        <f t="shared" si="2"/>
-        <v>0.27945412307000728</v>
-      </c>
-      <c r="U32">
-        <f t="shared" si="2"/>
-        <v>0.34132579128592549</v>
-      </c>
-      <c r="V32">
-        <f t="shared" si="2"/>
-        <v>0.48366542372201576</v>
-      </c>
-      <c r="W32">
-        <f t="shared" si="2"/>
-        <v>0.75181976094939795</v>
-      </c>
-      <c r="X32">
-        <f t="shared" si="2"/>
-        <v>0.99392495176722528</v>
-      </c>
-      <c r="Y32">
-        <f t="shared" si="2"/>
-        <v>0.99193980158674422</v>
-      </c>
-      <c r="Z32">
-        <f t="shared" si="2"/>
-        <v>0.98896854720345473</v>
-      </c>
-      <c r="AA32">
-        <f t="shared" si="2"/>
-        <v>0.92911669470543401</v>
-      </c>
-    </row>
-    <row r="51" spans="13:15">
-      <c r="M51">
-        <v>6</v>
-      </c>
-      <c r="N51">
-        <v>4.5</v>
-      </c>
-      <c r="O51">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="13:15">
-      <c r="M52">
-        <v>0.9</v>
-      </c>
+    <row r="52" spans="14:16">
       <c r="N52">
         <v>0.9</v>
       </c>
       <c r="O52">
         <v>0.9</v>
       </c>
+      <c r="P52">
+        <v>0.9</v>
+      </c>
     </row>
-    <row r="53" spans="13:15">
-      <c r="M53">
+    <row r="53" spans="14:16">
+      <c r="N53">
         <v>1E-3</v>
       </c>
-      <c r="N53">
+      <c r="O53">
         <v>0.1</v>
       </c>
-      <c r="O53">
+      <c r="P53">
         <v>0.1</v>
       </c>
     </row>
